--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="469">
   <si>
     <t>Data</t>
   </si>
@@ -1418,6 +1418,9 @@
   </si>
   <si>
     <t>2021/06/22</t>
+  </si>
+  <si>
+    <t>2021/06/23</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R451"/>
+  <dimension ref="A1:R452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26451,10 +26454,10 @@
         <v>14999</v>
       </c>
       <c r="H443">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I443">
-        <v>41430</v>
+        <v>42770</v>
       </c>
       <c r="J443">
         <v>176</v>
@@ -26469,7 +26472,7 @@
         <v>524</v>
       </c>
       <c r="N443">
-        <v>176</v>
+        <v>1516</v>
       </c>
       <c r="O443">
         <v>68</v>
@@ -26507,10 +26510,10 @@
         <v>15204</v>
       </c>
       <c r="H444">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I444">
-        <v>41641</v>
+        <v>42981</v>
       </c>
       <c r="J444">
         <v>211</v>
@@ -26563,10 +26566,10 @@
         <v>15463</v>
       </c>
       <c r="H445">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I445">
-        <v>41876</v>
+        <v>43216</v>
       </c>
       <c r="J445">
         <v>235</v>
@@ -26619,10 +26622,10 @@
         <v>15269</v>
       </c>
       <c r="H446">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I446">
-        <v>42079</v>
+        <v>43419</v>
       </c>
       <c r="J446">
         <v>203</v>
@@ -26675,10 +26678,10 @@
         <v>15801</v>
       </c>
       <c r="H447">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I447">
-        <v>42271</v>
+        <v>43611</v>
       </c>
       <c r="J447">
         <v>192</v>
@@ -26731,10 +26734,10 @@
         <v>15906</v>
       </c>
       <c r="H448">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I448">
-        <v>42335</v>
+        <v>43675</v>
       </c>
       <c r="J448">
         <v>64</v>
@@ -26787,10 +26790,10 @@
         <v>15908</v>
       </c>
       <c r="H449">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I449">
-        <v>42337</v>
+        <v>43677</v>
       </c>
       <c r="J449">
         <v>2</v>
@@ -26843,10 +26846,10 @@
         <v>16084</v>
       </c>
       <c r="H450">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I450">
-        <v>42488</v>
+        <v>43828</v>
       </c>
       <c r="J450">
         <v>151</v>
@@ -26899,10 +26902,10 @@
         <v>16247</v>
       </c>
       <c r="H451">
-        <v>25700</v>
+        <v>27040</v>
       </c>
       <c r="I451">
-        <v>42650</v>
+        <v>43990</v>
       </c>
       <c r="J451">
         <v>162</v>
@@ -26929,6 +26932,62 @@
         <v>1</v>
       </c>
       <c r="R451">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="452" spans="1:18">
+      <c r="A452" t="s">
+        <v>468</v>
+      </c>
+      <c r="B452">
+        <v>451</v>
+      </c>
+      <c r="C452">
+        <v>17095</v>
+      </c>
+      <c r="D452">
+        <v>489</v>
+      </c>
+      <c r="E452">
+        <v>193</v>
+      </c>
+      <c r="F452">
+        <v>0.02860485522</v>
+      </c>
+      <c r="G452">
+        <v>16360</v>
+      </c>
+      <c r="H452">
+        <v>27040</v>
+      </c>
+      <c r="I452">
+        <v>44135</v>
+      </c>
+      <c r="J452">
+        <v>145</v>
+      </c>
+      <c r="K452">
+        <v>773</v>
+      </c>
+      <c r="L452">
+        <v>1</v>
+      </c>
+      <c r="M452">
+        <v>772</v>
+      </c>
+      <c r="N452">
+        <v>145</v>
+      </c>
+      <c r="O452">
+        <v>57</v>
+      </c>
+      <c r="P452">
+        <v>63</v>
+      </c>
+      <c r="Q452">
+        <v>6</v>
+      </c>
+      <c r="R452">
         <v>65</v>
       </c>
     </row>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
   <si>
     <t>Data</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t>2021/06/23</t>
+  </si>
+  <si>
+    <t>2021/06/24</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R452"/>
+  <dimension ref="A1:R453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26991,6 +26994,62 @@
         <v>65</v>
       </c>
     </row>
+    <row r="453" spans="1:18">
+      <c r="A453" t="s">
+        <v>469</v>
+      </c>
+      <c r="B453">
+        <v>452</v>
+      </c>
+      <c r="C453">
+        <v>17232</v>
+      </c>
+      <c r="D453">
+        <v>491</v>
+      </c>
+      <c r="E453">
+        <v>244</v>
+      </c>
+      <c r="F453">
+        <v>0.02849350046</v>
+      </c>
+      <c r="G453">
+        <v>16444</v>
+      </c>
+      <c r="H453">
+        <v>27040</v>
+      </c>
+      <c r="I453">
+        <v>44272</v>
+      </c>
+      <c r="J453">
+        <v>137</v>
+      </c>
+      <c r="K453">
+        <v>799</v>
+      </c>
+      <c r="L453">
+        <v>1</v>
+      </c>
+      <c r="M453">
+        <v>798</v>
+      </c>
+      <c r="N453">
+        <v>137</v>
+      </c>
+      <c r="O453">
+        <v>58</v>
+      </c>
+      <c r="P453">
+        <v>63</v>
+      </c>
+      <c r="Q453">
+        <v>2</v>
+      </c>
+      <c r="R453">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
   <si>
     <t>Data</t>
   </si>
@@ -1424,6 +1424,9 @@
   </si>
   <si>
     <t>2021/06/24</t>
+  </si>
+  <si>
+    <t>2021/06/25</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R453"/>
+  <dimension ref="A1:R454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27050,6 +27053,62 @@
         <v>65</v>
       </c>
     </row>
+    <row r="454" spans="1:18">
+      <c r="A454" t="s">
+        <v>470</v>
+      </c>
+      <c r="B454">
+        <v>453</v>
+      </c>
+      <c r="C454">
+        <v>17406</v>
+      </c>
+      <c r="D454">
+        <v>496</v>
+      </c>
+      <c r="E454">
+        <v>276</v>
+      </c>
+      <c r="F454">
+        <v>0.02849592095</v>
+      </c>
+      <c r="G454">
+        <v>16581</v>
+      </c>
+      <c r="H454">
+        <v>27040</v>
+      </c>
+      <c r="I454">
+        <v>44446</v>
+      </c>
+      <c r="J454">
+        <v>174</v>
+      </c>
+      <c r="K454">
+        <v>791</v>
+      </c>
+      <c r="L454">
+        <v>1</v>
+      </c>
+      <c r="M454">
+        <v>790</v>
+      </c>
+      <c r="N454">
+        <v>174</v>
+      </c>
+      <c r="O454">
+        <v>55</v>
+      </c>
+      <c r="P454">
+        <v>62</v>
+      </c>
+      <c r="Q454">
+        <v>5</v>
+      </c>
+      <c r="R454">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
   <si>
     <t>Data</t>
   </si>
@@ -1427,6 +1427,12 @@
   </si>
   <si>
     <t>2021/06/25</t>
+  </si>
+  <si>
+    <t>2021/06/26</t>
+  </si>
+  <si>
+    <t>2021/06/27</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R454"/>
+  <dimension ref="A1:R456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27109,6 +27115,118 @@
         <v>65</v>
       </c>
     </row>
+    <row r="455" spans="1:18">
+      <c r="A455" t="s">
+        <v>471</v>
+      </c>
+      <c r="B455">
+        <v>454</v>
+      </c>
+      <c r="C455">
+        <v>17478</v>
+      </c>
+      <c r="D455">
+        <v>496</v>
+      </c>
+      <c r="E455">
+        <v>202</v>
+      </c>
+      <c r="F455">
+        <v>0.02837853301000001</v>
+      </c>
+      <c r="G455">
+        <v>16727</v>
+      </c>
+      <c r="H455">
+        <v>27040</v>
+      </c>
+      <c r="I455">
+        <v>44518</v>
+      </c>
+      <c r="J455">
+        <v>72</v>
+      </c>
+      <c r="K455">
+        <v>585</v>
+      </c>
+      <c r="L455">
+        <v>1</v>
+      </c>
+      <c r="M455">
+        <v>584</v>
+      </c>
+      <c r="N455">
+        <v>72</v>
+      </c>
+      <c r="O455">
+        <v>52</v>
+      </c>
+      <c r="P455">
+        <v>60</v>
+      </c>
+      <c r="Q455">
+        <v>0</v>
+      </c>
+      <c r="R455">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="456" spans="1:18">
+      <c r="A456" t="s">
+        <v>472</v>
+      </c>
+      <c r="B456">
+        <v>455</v>
+      </c>
+      <c r="C456">
+        <v>17493</v>
+      </c>
+      <c r="D456">
+        <v>497</v>
+      </c>
+      <c r="E456">
+        <v>197</v>
+      </c>
+      <c r="F456">
+        <v>0.02841136455</v>
+      </c>
+      <c r="G456">
+        <v>16746</v>
+      </c>
+      <c r="H456">
+        <v>27040</v>
+      </c>
+      <c r="I456">
+        <v>44533</v>
+      </c>
+      <c r="J456">
+        <v>15</v>
+      </c>
+      <c r="K456">
+        <v>572</v>
+      </c>
+      <c r="L456">
+        <v>1</v>
+      </c>
+      <c r="M456">
+        <v>571</v>
+      </c>
+      <c r="N456">
+        <v>15</v>
+      </c>
+      <c r="O456">
+        <v>51</v>
+      </c>
+      <c r="P456">
+        <v>60</v>
+      </c>
+      <c r="Q456">
+        <v>1</v>
+      </c>
+      <c r="R456">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
   <si>
     <t>Data</t>
   </si>
@@ -1433,6 +1433,9 @@
   </si>
   <si>
     <t>2021/06/27</t>
+  </si>
+  <si>
+    <t>2021/06/28</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R456"/>
+  <dimension ref="A1:R457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27227,6 +27230,62 @@
         <v>66</v>
       </c>
     </row>
+    <row r="457" spans="1:18">
+      <c r="A457" t="s">
+        <v>473</v>
+      </c>
+      <c r="B457">
+        <v>456</v>
+      </c>
+      <c r="C457">
+        <v>17646</v>
+      </c>
+      <c r="D457">
+        <v>506</v>
+      </c>
+      <c r="E457">
+        <v>190</v>
+      </c>
+      <c r="F457">
+        <v>0.02867505384</v>
+      </c>
+      <c r="G457">
+        <v>16897</v>
+      </c>
+      <c r="H457">
+        <v>27040</v>
+      </c>
+      <c r="I457">
+        <v>44686</v>
+      </c>
+      <c r="J457">
+        <v>153</v>
+      </c>
+      <c r="K457">
+        <v>565</v>
+      </c>
+      <c r="L457">
+        <v>2</v>
+      </c>
+      <c r="M457">
+        <v>563</v>
+      </c>
+      <c r="N457">
+        <v>153</v>
+      </c>
+      <c r="O457">
+        <v>42</v>
+      </c>
+      <c r="P457">
+        <v>60</v>
+      </c>
+      <c r="Q457">
+        <v>9</v>
+      </c>
+      <c r="R457">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
   <si>
     <t>Data</t>
   </si>
@@ -1436,6 +1436,9 @@
   </si>
   <si>
     <t>2021/06/28</t>
+  </si>
+  <si>
+    <t>2021/06/29</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R457"/>
+  <dimension ref="A1:R458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27286,6 +27289,62 @@
         <v>66</v>
       </c>
     </row>
+    <row r="458" spans="1:18">
+      <c r="A458" t="s">
+        <v>474</v>
+      </c>
+      <c r="B458">
+        <v>457</v>
+      </c>
+      <c r="C458">
+        <v>17775</v>
+      </c>
+      <c r="D458">
+        <v>509</v>
+      </c>
+      <c r="E458">
+        <v>184</v>
+      </c>
+      <c r="F458">
+        <v>0.02863572433</v>
+      </c>
+      <c r="G458">
+        <v>17029</v>
+      </c>
+      <c r="H458">
+        <v>27040</v>
+      </c>
+      <c r="I458">
+        <v>44815</v>
+      </c>
+      <c r="J458">
+        <v>129</v>
+      </c>
+      <c r="K458">
+        <v>529</v>
+      </c>
+      <c r="L458">
+        <v>4</v>
+      </c>
+      <c r="M458">
+        <v>525</v>
+      </c>
+      <c r="N458">
+        <v>129</v>
+      </c>
+      <c r="O458">
+        <v>49</v>
+      </c>
+      <c r="P458">
+        <v>58</v>
+      </c>
+      <c r="Q458">
+        <v>3</v>
+      </c>
+      <c r="R458">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t>Data</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>2021/06/29</t>
+  </si>
+  <si>
+    <t>2021/07/30</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R458"/>
+  <dimension ref="A1:R459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27345,6 +27348,62 @@
         <v>66</v>
       </c>
     </row>
+    <row r="459" spans="1:18">
+      <c r="A459" t="s">
+        <v>475</v>
+      </c>
+      <c r="B459">
+        <v>459</v>
+      </c>
+      <c r="C459">
+        <v>17892</v>
+      </c>
+      <c r="D459">
+        <v>509</v>
+      </c>
+      <c r="E459">
+        <v>182</v>
+      </c>
+      <c r="F459">
+        <v>0.02844846859</v>
+      </c>
+      <c r="G459">
+        <v>17148</v>
+      </c>
+      <c r="H459">
+        <v>27040</v>
+      </c>
+      <c r="I459">
+        <v>44932</v>
+      </c>
+      <c r="J459">
+        <v>117</v>
+      </c>
+      <c r="K459">
+        <v>566</v>
+      </c>
+      <c r="L459">
+        <v>2</v>
+      </c>
+      <c r="M459">
+        <v>564</v>
+      </c>
+      <c r="N459">
+        <v>117</v>
+      </c>
+      <c r="O459">
+        <v>42</v>
+      </c>
+      <c r="P459">
+        <v>59</v>
+      </c>
+      <c r="Q459">
+        <v>0</v>
+      </c>
+      <c r="R459">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -1441,7 +1441,7 @@
     <t>2021/06/29</t>
   </si>
   <si>
-    <t>2021/07/30</t>
+    <t>2021/06/30</t>
   </si>
 </sst>
 </file>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t>Data</t>
   </si>
@@ -1145,303 +1145,6 @@
   </si>
   <si>
     <t>2021/03/23</t>
-  </si>
-  <si>
-    <t>2021/03/24</t>
-  </si>
-  <si>
-    <t>2021/03/25</t>
-  </si>
-  <si>
-    <t>2021/03/26</t>
-  </si>
-  <si>
-    <t>2021/03/27</t>
-  </si>
-  <si>
-    <t>2021/03/28</t>
-  </si>
-  <si>
-    <t>2021/03/29</t>
-  </si>
-  <si>
-    <t>2021/03/30</t>
-  </si>
-  <si>
-    <t>2021/03/31</t>
-  </si>
-  <si>
-    <t>2021/04/01</t>
-  </si>
-  <si>
-    <t>2021/04/02</t>
-  </si>
-  <si>
-    <t>2021/04/03</t>
-  </si>
-  <si>
-    <t>2021/04/04</t>
-  </si>
-  <si>
-    <t>2021/04/05</t>
-  </si>
-  <si>
-    <t>2021/04/06</t>
-  </si>
-  <si>
-    <t>2021/04/07</t>
-  </si>
-  <si>
-    <t>2021/04/08</t>
-  </si>
-  <si>
-    <t>2021/04/09</t>
-  </si>
-  <si>
-    <t>2021/04/10</t>
-  </si>
-  <si>
-    <t>2021/04/11</t>
-  </si>
-  <si>
-    <t>2021/04/12</t>
-  </si>
-  <si>
-    <t>2021/04/13</t>
-  </si>
-  <si>
-    <t>2021/04/14</t>
-  </si>
-  <si>
-    <t>2021/04/15</t>
-  </si>
-  <si>
-    <t>2021/04/16</t>
-  </si>
-  <si>
-    <t>2021/04/17</t>
-  </si>
-  <si>
-    <t>2021/04/18</t>
-  </si>
-  <si>
-    <t>2021/04/19</t>
-  </si>
-  <si>
-    <t>2021/04/20</t>
-  </si>
-  <si>
-    <t>2021/04/21</t>
-  </si>
-  <si>
-    <t>2021/04/22</t>
-  </si>
-  <si>
-    <t>2021/04/23</t>
-  </si>
-  <si>
-    <t>2021/04/24</t>
-  </si>
-  <si>
-    <t>2021/04/25</t>
-  </si>
-  <si>
-    <t>2021/04/26</t>
-  </si>
-  <si>
-    <t>2021/04/27</t>
-  </si>
-  <si>
-    <t>2021/04/28</t>
-  </si>
-  <si>
-    <t>2021/04/29</t>
-  </si>
-  <si>
-    <t>2021/04/30</t>
-  </si>
-  <si>
-    <t>2021/05/01</t>
-  </si>
-  <si>
-    <t>2021/05/02</t>
-  </si>
-  <si>
-    <t>2021/05/03</t>
-  </si>
-  <si>
-    <t>2021/05/04</t>
-  </si>
-  <si>
-    <t>2021/05/05</t>
-  </si>
-  <si>
-    <t>2021/05/06</t>
-  </si>
-  <si>
-    <t>2021/05/07</t>
-  </si>
-  <si>
-    <t>2021/05/08</t>
-  </si>
-  <si>
-    <t>2021/05/09</t>
-  </si>
-  <si>
-    <t>2021/05/10</t>
-  </si>
-  <si>
-    <t>2021/05/11</t>
-  </si>
-  <si>
-    <t>2021/05/12</t>
-  </si>
-  <si>
-    <t>2021/05/13</t>
-  </si>
-  <si>
-    <t>2021/05/14</t>
-  </si>
-  <si>
-    <t>2021/05/15</t>
-  </si>
-  <si>
-    <t>2021/05/16</t>
-  </si>
-  <si>
-    <t>2021/05/17</t>
-  </si>
-  <si>
-    <t>2021/05/18</t>
-  </si>
-  <si>
-    <t>2021/05/19</t>
-  </si>
-  <si>
-    <t>2021/05/20</t>
-  </si>
-  <si>
-    <t>2021/05/21</t>
-  </si>
-  <si>
-    <t>2021/05/22</t>
-  </si>
-  <si>
-    <t>2021/05/23</t>
-  </si>
-  <si>
-    <t>2021/05/24</t>
-  </si>
-  <si>
-    <t>2021/05/25</t>
-  </si>
-  <si>
-    <t>2021/05/26</t>
-  </si>
-  <si>
-    <t>2021/05/27</t>
-  </si>
-  <si>
-    <t>2021/05/28</t>
-  </si>
-  <si>
-    <t>2021/05/29</t>
-  </si>
-  <si>
-    <t>2021/05/30</t>
-  </si>
-  <si>
-    <t>2021/05/31</t>
-  </si>
-  <si>
-    <t>2021/06/01</t>
-  </si>
-  <si>
-    <t>2021/06/02</t>
-  </si>
-  <si>
-    <t>2021/06/03</t>
-  </si>
-  <si>
-    <t>2021/06/04</t>
-  </si>
-  <si>
-    <t>2021/06/05</t>
-  </si>
-  <si>
-    <t>2021/06/06</t>
-  </si>
-  <si>
-    <t>2021/06/07</t>
-  </si>
-  <si>
-    <t>2021/06/08</t>
-  </si>
-  <si>
-    <t>2021/06/09</t>
-  </si>
-  <si>
-    <t>2021/06/10</t>
-  </si>
-  <si>
-    <t>2021/06/11</t>
-  </si>
-  <si>
-    <t>2021/06/12</t>
-  </si>
-  <si>
-    <t>2021/06/13</t>
-  </si>
-  <si>
-    <t>2021/06/14</t>
-  </si>
-  <si>
-    <t>2021/06/15</t>
-  </si>
-  <si>
-    <t>2021/06/16</t>
-  </si>
-  <si>
-    <t>2021/06/17</t>
-  </si>
-  <si>
-    <t>2021/06/18</t>
-  </si>
-  <si>
-    <t>2021/06/19</t>
-  </si>
-  <si>
-    <t>2021/06/20</t>
-  </si>
-  <si>
-    <t>2021/06/21</t>
-  </si>
-  <si>
-    <t>2021/06/22</t>
-  </si>
-  <si>
-    <t>2021/06/23</t>
-  </si>
-  <si>
-    <t>2021/06/24</t>
-  </si>
-  <si>
-    <t>2021/06/25</t>
-  </si>
-  <si>
-    <t>2021/06/26</t>
-  </si>
-  <si>
-    <t>2021/06/27</t>
-  </si>
-  <si>
-    <t>2021/06/28</t>
-  </si>
-  <si>
-    <t>2021/06/29</t>
-  </si>
-  <si>
-    <t>2021/06/30</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R459"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3733,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>0.02941176471</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G37">
         <v>31</v>
@@ -3789,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>0.02857142857</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -3845,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>0.02857142857</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G39">
         <v>32</v>
@@ -3901,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>0.02857142857</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G40">
         <v>32</v>
@@ -3957,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>0.02702702703</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G41">
         <v>33</v>
@@ -4013,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>0.02702702703</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G42">
         <v>33</v>
@@ -4069,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>0.02631578947</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G43">
         <v>34</v>
@@ -4125,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>0.02380952381</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G44">
         <v>35</v>
@@ -4181,7 +3884,7 @@
         <v>6</v>
       </c>
       <c r="F45">
-        <v>0.04651162791</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G45">
         <v>35</v>
@@ -4237,7 +3940,7 @@
         <v>8</v>
       </c>
       <c r="F46">
-        <v>0.04444444444</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G46">
         <v>35</v>
@@ -4293,7 +3996,7 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>0.04347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G47">
         <v>35</v>
@@ -4349,7 +4052,7 @@
         <v>13</v>
       </c>
       <c r="F48">
-        <v>0.03921568627</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="G48">
         <v>36</v>
@@ -4405,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="F49">
-        <v>0.03846153846000001</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -4461,7 +4164,7 @@
         <v>14</v>
       </c>
       <c r="F50">
-        <v>0.03773584906000001</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G50">
         <v>37</v>
@@ -4517,7 +4220,7 @@
         <v>15</v>
       </c>
       <c r="F51">
-        <v>0.05263157894999999</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -4573,7 +4276,7 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>0.05263157894999999</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G52">
         <v>39</v>
@@ -4629,7 +4332,7 @@
         <v>14</v>
       </c>
       <c r="F53">
-        <v>0.06666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G53">
         <v>42</v>
@@ -4685,7 +4388,7 @@
         <v>20</v>
       </c>
       <c r="F54">
-        <v>0.06060606061000001</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G54">
         <v>42</v>
@@ -4741,7 +4444,7 @@
         <v>25</v>
       </c>
       <c r="F55">
-        <v>0.05333333333</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G55">
         <v>48</v>
@@ -4853,7 +4556,7 @@
         <v>24</v>
       </c>
       <c r="F57">
-        <v>0.04938271605</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="G57">
         <v>53</v>
@@ -4909,7 +4612,7 @@
         <v>32</v>
       </c>
       <c r="F58">
-        <v>0.04444444444</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G58">
         <v>54</v>
@@ -4965,7 +4668,7 @@
         <v>30</v>
       </c>
       <c r="F59">
-        <v>0.0404040404</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="G59">
         <v>65</v>
@@ -5021,7 +4724,7 @@
         <v>35</v>
       </c>
       <c r="F60">
-        <v>0.03571428571</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G60">
         <v>73</v>
@@ -5077,7 +4780,7 @@
         <v>33</v>
       </c>
       <c r="F61">
-        <v>0.03448275862</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G61">
         <v>79</v>
@@ -5133,7 +4836,7 @@
         <v>40</v>
       </c>
       <c r="F62">
-        <v>0.02919708029</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="G62">
         <v>93</v>
@@ -5189,7 +4892,7 @@
         <v>32</v>
       </c>
       <c r="F63">
-        <v>0.02919708029</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="G63">
         <v>101</v>
@@ -5245,7 +4948,7 @@
         <v>24</v>
       </c>
       <c r="F64">
-        <v>0.02898550725</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G64">
         <v>110</v>
@@ -5301,7 +5004,7 @@
         <v>27</v>
       </c>
       <c r="F65">
-        <v>0.02739726027</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="G65">
         <v>115</v>
@@ -5357,7 +5060,7 @@
         <v>27</v>
       </c>
       <c r="F66">
-        <v>0.02649006623</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="G66">
         <v>120</v>
@@ -5413,7 +5116,7 @@
         <v>26</v>
       </c>
       <c r="F67">
-        <v>0.0253164557</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="G67">
         <v>128</v>
@@ -5469,7 +5172,7 @@
         <v>31</v>
       </c>
       <c r="F68">
-        <v>0.02366863905</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="G68">
         <v>134</v>
@@ -5525,7 +5228,7 @@
         <v>28</v>
       </c>
       <c r="F69">
-        <v>0.02259887006</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="G69">
         <v>144</v>
@@ -5581,7 +5284,7 @@
         <v>33</v>
       </c>
       <c r="F70">
-        <v>0.02173913043</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G70">
         <v>146</v>
@@ -5637,7 +5340,7 @@
         <v>37</v>
       </c>
       <c r="F71">
-        <v>0.02604166667</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="G71">
         <v>149</v>
@@ -5693,7 +5396,7 @@
         <v>37</v>
       </c>
       <c r="F72">
-        <v>0.0243902439</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G72">
         <v>162</v>
@@ -5749,7 +5452,7 @@
         <v>49</v>
       </c>
       <c r="F73">
-        <v>0.02643171806</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="G73">
         <v>171</v>
@@ -5805,7 +5508,7 @@
         <v>46</v>
       </c>
       <c r="F74">
-        <v>0.0253164557</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="G74">
         <v>184</v>
@@ -5861,7 +5564,7 @@
         <v>42</v>
       </c>
       <c r="F75">
-        <v>0.02845528455</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="G75">
         <v>196</v>
@@ -5917,7 +5620,7 @@
         <v>36</v>
       </c>
       <c r="F76">
-        <v>0.02766798419</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="G76">
         <v>209</v>
@@ -5973,7 +5676,7 @@
         <v>41</v>
       </c>
       <c r="F77">
-        <v>0.03358208955</v>
+        <v>0.03358208955223881</v>
       </c>
       <c r="G77">
         <v>217</v>
@@ -6029,7 +5732,7 @@
         <v>35</v>
       </c>
       <c r="F78">
-        <v>0.036900369</v>
+        <v>0.03690036900369004</v>
       </c>
       <c r="G78">
         <v>225</v>
@@ -6085,7 +5788,7 @@
         <v>36</v>
       </c>
       <c r="F79">
-        <v>0.03985507246</v>
+        <v>0.03985507246376811</v>
       </c>
       <c r="G79">
         <v>228</v>
@@ -6141,7 +5844,7 @@
         <v>48</v>
       </c>
       <c r="F80">
-        <v>0.04081632653</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="G80">
         <v>233</v>
@@ -6197,7 +5900,7 @@
         <v>55</v>
       </c>
       <c r="F81">
-        <v>0.04024767802</v>
+        <v>0.04024767801857585</v>
       </c>
       <c r="G81">
         <v>253</v>
@@ -6253,7 +5956,7 @@
         <v>62</v>
       </c>
       <c r="F82">
-        <v>0.04093567251</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="G82">
         <v>264</v>
@@ -6309,7 +6012,7 @@
         <v>73</v>
       </c>
       <c r="F83">
-        <v>0.03814713896</v>
+        <v>0.03814713896457766</v>
       </c>
       <c r="G83">
         <v>278</v>
@@ -6365,7 +6068,7 @@
         <v>92</v>
       </c>
       <c r="F84">
-        <v>0.03759398496</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="G84">
         <v>290</v>
@@ -6421,7 +6124,7 @@
         <v>94</v>
       </c>
       <c r="F85">
-        <v>0.03676470588</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="G85">
         <v>297</v>
@@ -6477,7 +6180,7 @@
         <v>93</v>
       </c>
       <c r="F86">
-        <v>0.03764705882</v>
+        <v>0.03764705882352941</v>
       </c>
       <c r="G86">
         <v>314</v>
@@ -6533,7 +6236,7 @@
         <v>100</v>
       </c>
       <c r="F87">
-        <v>0.03524229075</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="G87">
         <v>334</v>
@@ -6589,7 +6292,7 @@
         <v>120</v>
       </c>
       <c r="F88">
-        <v>0.03232323232</v>
+        <v>0.03232323232323232</v>
       </c>
       <c r="G88">
         <v>355</v>
@@ -6645,7 +6348,7 @@
         <v>124</v>
       </c>
       <c r="F89">
-        <v>0.03345724906999999</v>
+        <v>0.03345724907063197</v>
       </c>
       <c r="G89">
         <v>393</v>
@@ -6701,7 +6404,7 @@
         <v>163</v>
       </c>
       <c r="F90">
-        <v>0.03010033445</v>
+        <v>0.03010033444816054</v>
       </c>
       <c r="G90">
         <v>414</v>
@@ -6757,7 +6460,7 @@
         <v>149</v>
       </c>
       <c r="F91">
-        <v>0.02852614897</v>
+        <v>0.02852614896988907</v>
       </c>
       <c r="G91">
         <v>461</v>
@@ -6813,7 +6516,7 @@
         <v>132</v>
       </c>
       <c r="F92">
-        <v>0.02790697674</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="G92">
         <v>492</v>
@@ -6869,7 +6572,7 @@
         <v>109</v>
       </c>
       <c r="F93">
-        <v>0.02702702703</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G93">
         <v>536</v>
@@ -6925,7 +6628,7 @@
         <v>112</v>
       </c>
       <c r="F94">
-        <v>0.02710413695</v>
+        <v>0.02710413694721826</v>
       </c>
       <c r="G94">
         <v>567</v>
@@ -6981,7 +6684,7 @@
         <v>126</v>
       </c>
       <c r="F95">
-        <v>0.02864938608</v>
+        <v>0.0286493860845839</v>
       </c>
       <c r="G95">
         <v>583</v>
@@ -7037,7 +6740,7 @@
         <v>117</v>
       </c>
       <c r="F96">
-        <v>0.02864583333</v>
+        <v>0.02864583333333333</v>
       </c>
       <c r="G96">
         <v>626</v>
@@ -7093,7 +6796,7 @@
         <v>131</v>
       </c>
       <c r="F97">
-        <v>0.02739726027</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="G97">
         <v>647</v>
@@ -7149,7 +6852,7 @@
         <v>139</v>
       </c>
       <c r="F98">
-        <v>0.02573099415</v>
+        <v>0.02573099415204678</v>
       </c>
       <c r="G98">
         <v>691</v>
@@ -7205,7 +6908,7 @@
         <v>122</v>
       </c>
       <c r="F99">
-        <v>0.02566964286</v>
+        <v>0.02566964285714286</v>
       </c>
       <c r="G99">
         <v>748</v>
@@ -7261,7 +6964,7 @@
         <v>124</v>
       </c>
       <c r="F100">
-        <v>0.02611534276</v>
+        <v>0.02611534276387378</v>
       </c>
       <c r="G100">
         <v>767</v>
@@ -7317,7 +7020,7 @@
         <v>119</v>
       </c>
       <c r="F101">
-        <v>0.02534318902</v>
+        <v>0.02534318901795143</v>
       </c>
       <c r="G101">
         <v>800</v>
@@ -7373,7 +7076,7 @@
         <v>111</v>
       </c>
       <c r="F102">
-        <v>0.02476780186</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="G102">
         <v>831</v>
@@ -7429,7 +7132,7 @@
         <v>120</v>
       </c>
       <c r="F103">
-        <v>0.02559055118</v>
+        <v>0.02559055118110236</v>
       </c>
       <c r="G103">
         <v>866</v>
@@ -7541,7 +7244,7 @@
         <v>103</v>
       </c>
       <c r="F105">
-        <v>0.02583732057</v>
+        <v>0.02583732057416268</v>
       </c>
       <c r="G105">
         <v>911</v>
@@ -7597,7 +7300,7 @@
         <v>101</v>
       </c>
       <c r="F106">
-        <v>0.02756653992</v>
+        <v>0.02756653992395437</v>
       </c>
       <c r="G106">
         <v>917</v>
@@ -7653,7 +7356,7 @@
         <v>87</v>
       </c>
       <c r="F107">
-        <v>0.02827521206</v>
+        <v>0.02827521206409048</v>
       </c>
       <c r="G107">
         <v>939</v>
@@ -7709,7 +7412,7 @@
         <v>92</v>
       </c>
       <c r="F108">
-        <v>0.02752293578</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="G108">
         <v>963</v>
@@ -7765,7 +7468,7 @@
         <v>90</v>
       </c>
       <c r="F109">
-        <v>0.0274822695</v>
+        <v>0.0274822695035461</v>
       </c>
       <c r="G109">
         <v>1002</v>
@@ -7821,7 +7524,7 @@
         <v>91</v>
       </c>
       <c r="F110">
-        <v>0.02857142857</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G110">
         <v>1025</v>
@@ -7877,7 +7580,7 @@
         <v>91</v>
       </c>
       <c r="F111">
-        <v>0.02791878173</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="G111">
         <v>1052</v>
@@ -7989,7 +7692,7 @@
         <v>91</v>
       </c>
       <c r="F113">
-        <v>0.03042763158</v>
+        <v>0.03042763157894737</v>
       </c>
       <c r="G113">
         <v>1082</v>
@@ -8045,7 +7748,7 @@
         <v>85</v>
       </c>
       <c r="F114">
-        <v>0.03086921202</v>
+        <v>0.03086921202274574</v>
       </c>
       <c r="G114">
         <v>1102</v>
@@ -8101,7 +7804,7 @@
         <v>101</v>
       </c>
       <c r="F115">
-        <v>0.02966432475</v>
+        <v>0.02966432474629196</v>
       </c>
       <c r="G115">
         <v>1135</v>
@@ -8157,7 +7860,7 @@
         <v>100</v>
       </c>
       <c r="F116">
-        <v>0.02947845805</v>
+        <v>0.02947845804988662</v>
       </c>
       <c r="G116">
         <v>1176</v>
@@ -8213,7 +7916,7 @@
         <v>119</v>
       </c>
       <c r="F117">
-        <v>0.03076923077</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G117">
         <v>1196</v>
@@ -8269,7 +7972,7 @@
         <v>120</v>
       </c>
       <c r="F118">
-        <v>0.03060498221</v>
+        <v>0.03060498220640569</v>
       </c>
       <c r="G118">
         <v>1234</v>
@@ -8325,7 +8028,7 @@
         <v>122</v>
       </c>
       <c r="F119">
-        <v>0.03114186851</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="G119">
         <v>1270</v>
@@ -8381,7 +8084,7 @@
         <v>104</v>
       </c>
       <c r="F120">
-        <v>0.03170227429</v>
+        <v>0.03170227429359063</v>
       </c>
       <c r="G120">
         <v>1293</v>
@@ -8437,7 +8140,7 @@
         <v>108</v>
       </c>
       <c r="F121">
-        <v>0.03179972936</v>
+        <v>0.03179972936400541</v>
       </c>
       <c r="G121">
         <v>1314</v>
@@ -8493,7 +8196,7 @@
         <v>108</v>
       </c>
       <c r="F122">
-        <v>0.03079947575</v>
+        <v>0.03079947575360419</v>
       </c>
       <c r="G122">
         <v>1361</v>
@@ -8549,7 +8252,7 @@
         <v>109</v>
       </c>
       <c r="F123">
-        <v>0.0298792117</v>
+        <v>0.02987921169739352</v>
       </c>
       <c r="G123">
         <v>1407</v>
@@ -8605,7 +8308,7 @@
         <v>106</v>
       </c>
       <c r="F124">
-        <v>0.02972136223</v>
+        <v>0.02972136222910217</v>
       </c>
       <c r="G124">
         <v>1451</v>
@@ -8661,7 +8364,7 @@
         <v>102</v>
       </c>
       <c r="F125">
-        <v>0.02900302115</v>
+        <v>0.02900302114803625</v>
       </c>
       <c r="G125">
         <v>1495</v>
@@ -8717,7 +8420,7 @@
         <v>103</v>
       </c>
       <c r="F126">
-        <v>0.02865671642</v>
+        <v>0.02865671641791045</v>
       </c>
       <c r="G126">
         <v>1514</v>
@@ -8773,7 +8476,7 @@
         <v>94</v>
       </c>
       <c r="F127">
-        <v>0.02857142857</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G127">
         <v>1528</v>
@@ -8829,7 +8532,7 @@
         <v>82</v>
       </c>
       <c r="F128">
-        <v>0.02823529412</v>
+        <v>0.02823529411764706</v>
       </c>
       <c r="G128">
         <v>1560</v>
@@ -8885,7 +8588,7 @@
         <v>76</v>
       </c>
       <c r="F129">
-        <v>0.02825836217</v>
+        <v>0.02825836216839677</v>
       </c>
       <c r="G129">
         <v>1598</v>
@@ -8941,7 +8644,7 @@
         <v>68</v>
       </c>
       <c r="F130">
-        <v>0.02894438138</v>
+        <v>0.02894438138479001</v>
       </c>
       <c r="G130">
         <v>1632</v>
@@ -8997,7 +8700,7 @@
         <v>73</v>
       </c>
       <c r="F131">
-        <v>0.02853945159</v>
+        <v>0.02853945159485171</v>
       </c>
       <c r="G131">
         <v>1652</v>
@@ -9053,7 +8756,7 @@
         <v>74</v>
       </c>
       <c r="F132">
-        <v>0.02874516307</v>
+        <v>0.02874516307352128</v>
       </c>
       <c r="G132">
         <v>1672</v>
@@ -9109,7 +8812,7 @@
         <v>68</v>
       </c>
       <c r="F133">
-        <v>0.02855573861</v>
+        <v>0.028555738605162</v>
       </c>
       <c r="G133">
         <v>1690</v>
@@ -9165,7 +8868,7 @@
         <v>65</v>
       </c>
       <c r="F134">
-        <v>0.02854006586</v>
+        <v>0.02854006586169045</v>
       </c>
       <c r="G134">
         <v>1694</v>
@@ -9221,7 +8924,7 @@
         <v>67</v>
       </c>
       <c r="F135">
-        <v>0.02827623709</v>
+        <v>0.02827623708537249</v>
       </c>
       <c r="G135">
         <v>1709</v>
@@ -9277,7 +8980,7 @@
         <v>61</v>
       </c>
       <c r="F136">
-        <v>0.02791196994</v>
+        <v>0.02791196994095545</v>
       </c>
       <c r="G136">
         <v>1739</v>
@@ -9333,7 +9036,7 @@
         <v>62</v>
       </c>
       <c r="F137">
-        <v>0.02925531915</v>
+        <v>0.02925531914893617</v>
       </c>
       <c r="G137">
         <v>1752</v>
@@ -9389,7 +9092,7 @@
         <v>63</v>
       </c>
       <c r="F138">
-        <v>0.02899314707</v>
+        <v>0.02899314707432788</v>
       </c>
       <c r="G138">
         <v>1768</v>
@@ -9445,7 +9148,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>0.02967204581</v>
+        <v>0.02967204580947423</v>
       </c>
       <c r="G139">
         <v>1786</v>
@@ -9501,7 +9204,7 @@
         <v>53</v>
       </c>
       <c r="F140">
-        <v>0.02951838426000001</v>
+        <v>0.02951838425686173</v>
       </c>
       <c r="G140">
         <v>1810</v>
@@ -9557,7 +9260,7 @@
         <v>49</v>
       </c>
       <c r="F141">
-        <v>0.03000517331</v>
+        <v>0.03000517330574237</v>
       </c>
       <c r="G141">
         <v>1815</v>
@@ -9613,7 +9316,7 @@
         <v>40</v>
       </c>
       <c r="F142">
-        <v>0.02980472765</v>
+        <v>0.02980472764645426</v>
       </c>
       <c r="G142">
         <v>1836</v>
@@ -9669,7 +9372,7 @@
         <v>47</v>
       </c>
       <c r="F143">
-        <v>0.02947154472</v>
+        <v>0.02947154471544716</v>
       </c>
       <c r="G143">
         <v>1851</v>
@@ -9725,7 +9428,7 @@
         <v>51</v>
       </c>
       <c r="F144">
-        <v>0.0291018565</v>
+        <v>0.0291018564977421</v>
       </c>
       <c r="G144">
         <v>1872</v>
@@ -9781,7 +9484,7 @@
         <v>63</v>
       </c>
       <c r="F145">
-        <v>0.02875557759</v>
+        <v>0.02875557759048091</v>
       </c>
       <c r="G145">
         <v>1884</v>
@@ -9837,7 +9540,7 @@
         <v>60</v>
       </c>
       <c r="F146">
-        <v>0.0285855101</v>
+        <v>0.02858551010349926</v>
       </c>
       <c r="G146">
         <v>1899</v>
@@ -9893,7 +9596,7 @@
         <v>62</v>
       </c>
       <c r="F147">
-        <v>0.0283896231</v>
+        <v>0.02838962310327949</v>
       </c>
       <c r="G147">
         <v>1911</v>
@@ -10005,7 +9708,7 @@
         <v>49</v>
       </c>
       <c r="F149">
-        <v>0.02908385846</v>
+        <v>0.0290838584585555</v>
       </c>
       <c r="G149">
         <v>1942</v>
@@ -10061,7 +9764,7 @@
         <v>43</v>
       </c>
       <c r="F150">
-        <v>0.02884615385</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="G150">
         <v>1964</v>
@@ -10117,7 +9820,7 @@
         <v>39</v>
       </c>
       <c r="F151">
-        <v>0.02956604673</v>
+        <v>0.02956604673342871</v>
       </c>
       <c r="G151">
         <v>1983</v>
@@ -10173,7 +9876,7 @@
         <v>40</v>
       </c>
       <c r="F152">
-        <v>0.02985781991</v>
+        <v>0.02985781990521327</v>
       </c>
       <c r="G152">
         <v>1994</v>
@@ -10229,7 +9932,7 @@
         <v>45</v>
       </c>
       <c r="F153">
-        <v>0.02943925234</v>
+        <v>0.0294392523364486</v>
       </c>
       <c r="G153">
         <v>2019</v>
@@ -10285,7 +9988,7 @@
         <v>43</v>
       </c>
       <c r="F154">
-        <v>0.02938432836</v>
+        <v>0.02938432835820896</v>
       </c>
       <c r="G154">
         <v>2025</v>
@@ -10341,7 +10044,7 @@
         <v>42</v>
       </c>
       <c r="F155">
-        <v>0.02975360298</v>
+        <v>0.0297536029753603</v>
       </c>
       <c r="G155">
         <v>2032</v>
@@ -10397,7 +10100,7 @@
         <v>38</v>
       </c>
       <c r="F156">
-        <v>0.03038674033</v>
+        <v>0.03038674033149171</v>
       </c>
       <c r="G156">
         <v>2055</v>
@@ -10453,7 +10156,7 @@
         <v>40</v>
       </c>
       <c r="F157">
-        <v>0.03015075377</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G157">
         <v>2070</v>
@@ -10509,7 +10212,7 @@
         <v>49</v>
       </c>
       <c r="F158">
-        <v>0.03033046627</v>
+        <v>0.03033046627433228</v>
       </c>
       <c r="G158">
         <v>2076</v>
@@ -10565,7 +10268,7 @@
         <v>43</v>
       </c>
       <c r="F159">
-        <v>0.03050695379</v>
+        <v>0.03050695379093764</v>
       </c>
       <c r="G159">
         <v>2105</v>
@@ -10621,7 +10324,7 @@
         <v>47</v>
       </c>
       <c r="F160">
-        <v>0.03022222222</v>
+        <v>0.03022222222222222</v>
       </c>
       <c r="G160">
         <v>2122</v>
@@ -10677,7 +10380,7 @@
         <v>44</v>
       </c>
       <c r="F161">
-        <v>0.03018197958</v>
+        <v>0.03018197958277852</v>
       </c>
       <c r="G161">
         <v>2128</v>
@@ -10733,7 +10436,7 @@
         <v>36</v>
       </c>
       <c r="F162">
-        <v>0.03059866962</v>
+        <v>0.03059866962305987</v>
       </c>
       <c r="G162">
         <v>2137</v>
@@ -10789,7 +10492,7 @@
         <v>29</v>
       </c>
       <c r="F163">
-        <v>0.03059866962</v>
+        <v>0.03059866962305987</v>
       </c>
       <c r="G163">
         <v>2144</v>
@@ -10845,7 +10548,7 @@
         <v>37</v>
       </c>
       <c r="F164">
-        <v>0.03038309115</v>
+        <v>0.03038309114927345</v>
       </c>
       <c r="G164">
         <v>2152</v>
@@ -10901,7 +10604,7 @@
         <v>33</v>
       </c>
       <c r="F165">
-        <v>0.03066141042</v>
+        <v>0.03066141042487954</v>
       </c>
       <c r="G165">
         <v>2167</v>
@@ -10957,7 +10660,7 @@
         <v>50</v>
       </c>
       <c r="F166">
-        <v>0.03025064823</v>
+        <v>0.03025064822817632</v>
       </c>
       <c r="G166">
         <v>2181</v>
@@ -11013,7 +10716,7 @@
         <v>53</v>
       </c>
       <c r="F167">
-        <v>0.02995293111</v>
+        <v>0.02995293110825845</v>
       </c>
       <c r="G167">
         <v>2201</v>
@@ -11069,7 +10772,7 @@
         <v>53</v>
       </c>
       <c r="F168">
-        <v>0.0298253089</v>
+        <v>0.02982530890498509</v>
       </c>
       <c r="G168">
         <v>2211</v>
@@ -11125,7 +10828,7 @@
         <v>51</v>
       </c>
       <c r="F169">
-        <v>0.0298253089</v>
+        <v>0.02982530890498509</v>
       </c>
       <c r="G169">
         <v>2213</v>
@@ -11181,7 +10884,7 @@
         <v>48</v>
       </c>
       <c r="F170">
-        <v>0.02958579882</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="G170">
         <v>2235</v>
@@ -11237,7 +10940,7 @@
         <v>54</v>
       </c>
       <c r="F171">
-        <v>0.02923976608</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="G171">
         <v>2257</v>
@@ -11293,7 +10996,7 @@
         <v>65</v>
       </c>
       <c r="F172">
-        <v>0.02884219201</v>
+        <v>0.0288421920065925</v>
       </c>
       <c r="G172">
         <v>2279</v>
@@ -11349,7 +11052,7 @@
         <v>75</v>
       </c>
       <c r="F173">
-        <v>0.02858309514</v>
+        <v>0.02858309514087383</v>
       </c>
       <c r="G173">
         <v>2291</v>
@@ -11405,7 +11108,7 @@
         <v>83</v>
       </c>
       <c r="F174">
-        <v>0.02871006874</v>
+        <v>0.02871006874241811</v>
       </c>
       <c r="G174">
         <v>2306</v>
@@ -11461,7 +11164,7 @@
         <v>79</v>
       </c>
       <c r="F175">
-        <v>0.02888086643</v>
+        <v>0.02888086642599278</v>
       </c>
       <c r="G175">
         <v>2329</v>
@@ -11517,7 +11220,7 @@
         <v>73</v>
       </c>
       <c r="F176">
-        <v>0.02888086643</v>
+        <v>0.02888086642599278</v>
       </c>
       <c r="G176">
         <v>2335</v>
@@ -11573,7 +11276,7 @@
         <v>79</v>
       </c>
       <c r="F177">
-        <v>0.02853745541</v>
+        <v>0.02853745541022592</v>
       </c>
       <c r="G177">
         <v>2359</v>
@@ -11629,7 +11332,7 @@
         <v>77</v>
       </c>
       <c r="F178">
-        <v>0.02829076621</v>
+        <v>0.02829076620825147</v>
       </c>
       <c r="G178">
         <v>2383</v>
@@ -11685,7 +11388,7 @@
         <v>74</v>
       </c>
       <c r="F179">
-        <v>0.02816901408</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G179">
         <v>2397</v>
@@ -11741,7 +11444,7 @@
         <v>86</v>
       </c>
       <c r="F180">
-        <v>0.02780996524</v>
+        <v>0.02780996523754345</v>
       </c>
       <c r="G180">
         <v>2418</v>
@@ -11797,7 +11500,7 @@
         <v>92</v>
       </c>
       <c r="F181">
-        <v>0.02827665266</v>
+        <v>0.02827665265571265</v>
       </c>
       <c r="G181">
         <v>2438</v>
@@ -11853,7 +11556,7 @@
         <v>91</v>
       </c>
       <c r="F182">
-        <v>0.0287660863</v>
+        <v>0.0287660862982589</v>
       </c>
       <c r="G182">
         <v>2462</v>
@@ -11909,7 +11612,7 @@
         <v>88</v>
       </c>
       <c r="F183">
-        <v>0.02874432678</v>
+        <v>0.02874432677760968</v>
       </c>
       <c r="G183">
         <v>2467</v>
@@ -11965,7 +11668,7 @@
         <v>86</v>
       </c>
       <c r="F184">
-        <v>0.02878504673</v>
+        <v>0.02878504672897196</v>
       </c>
       <c r="G184">
         <v>2499</v>
@@ -12021,7 +11724,7 @@
         <v>92</v>
       </c>
       <c r="F185">
-        <v>0.02861389818</v>
+        <v>0.02861389817911557</v>
       </c>
       <c r="G185">
         <v>2509</v>
@@ -12077,7 +11780,7 @@
         <v>96</v>
       </c>
       <c r="F186">
-        <v>0.02840280339</v>
+        <v>0.0284028033935817</v>
       </c>
       <c r="G186">
         <v>2524</v>
@@ -12133,7 +11836,7 @@
         <v>112</v>
       </c>
       <c r="F187">
-        <v>0.02847754655</v>
+        <v>0.02847754654983571</v>
       </c>
       <c r="G187">
         <v>2537</v>
@@ -12189,7 +11892,7 @@
         <v>89</v>
       </c>
       <c r="F188">
-        <v>0.02872727273</v>
+        <v>0.02872727272727273</v>
       </c>
       <c r="G188">
         <v>2569</v>
@@ -12245,7 +11948,7 @@
         <v>71</v>
       </c>
       <c r="F189">
-        <v>0.02905920814</v>
+        <v>0.02905920813657828</v>
       </c>
       <c r="G189">
         <v>2589</v>
@@ -12301,7 +12004,7 @@
         <v>66</v>
       </c>
       <c r="F190">
-        <v>0.02942244824</v>
+        <v>0.02942244823828551</v>
       </c>
       <c r="G190">
         <v>2593</v>
@@ -12357,7 +12060,7 @@
         <v>46</v>
       </c>
       <c r="F191">
-        <v>0.0292735815</v>
+        <v>0.02927358149620528</v>
       </c>
       <c r="G191">
         <v>2627</v>
@@ -12413,7 +12116,7 @@
         <v>62</v>
       </c>
       <c r="F192">
-        <v>0.02894924946</v>
+        <v>0.02894924946390279</v>
       </c>
       <c r="G192">
         <v>2642</v>
@@ -12469,7 +12172,7 @@
         <v>86</v>
       </c>
       <c r="F193">
-        <v>0.02847100176</v>
+        <v>0.02847100175746924</v>
       </c>
       <c r="G193">
         <v>2665</v>
@@ -12525,7 +12228,7 @@
         <v>83</v>
       </c>
       <c r="F194">
-        <v>0.02870143507</v>
+        <v>0.02870143507175359</v>
       </c>
       <c r="G194">
         <v>2679</v>
@@ -12581,7 +12284,7 @@
         <v>71</v>
       </c>
       <c r="F195">
-        <v>0.02851182197</v>
+        <v>0.02851182197496523</v>
       </c>
       <c r="G195">
         <v>2710</v>
@@ -12637,7 +12340,7 @@
         <v>72</v>
       </c>
       <c r="F196">
-        <v>0.02835408022</v>
+        <v>0.02835408022130014</v>
       </c>
       <c r="G196">
         <v>2725</v>
@@ -12693,7 +12396,7 @@
         <v>64</v>
       </c>
       <c r="F197">
-        <v>0.02834427929</v>
+        <v>0.02834427929484964</v>
       </c>
       <c r="G197">
         <v>2734</v>
@@ -12749,7 +12452,7 @@
         <v>51</v>
       </c>
       <c r="F198">
-        <v>0.02834427929</v>
+        <v>0.02834427929484964</v>
       </c>
       <c r="G198">
         <v>2747</v>
@@ -12805,7 +12508,7 @@
         <v>52</v>
       </c>
       <c r="F199">
-        <v>0.02806297057</v>
+        <v>0.02806297056810404</v>
       </c>
       <c r="G199">
         <v>2775</v>
@@ -12861,7 +12564,7 @@
         <v>63</v>
       </c>
       <c r="F200">
-        <v>0.02781546811</v>
+        <v>0.02781546811397557</v>
       </c>
       <c r="G200">
         <v>2790</v>
@@ -12917,7 +12620,7 @@
         <v>50</v>
       </c>
       <c r="F201">
-        <v>0.0277027027</v>
+        <v>0.0277027027027027</v>
       </c>
       <c r="G201">
         <v>2815</v>
@@ -12973,7 +12676,7 @@
         <v>48</v>
       </c>
       <c r="F202">
-        <v>0.02826379542</v>
+        <v>0.02826379542395693</v>
       </c>
       <c r="G202">
         <v>2872</v>
@@ -13029,7 +12732,7 @@
         <v>70</v>
       </c>
       <c r="F203">
-        <v>0.0286571143</v>
+        <v>0.02865711429523492</v>
       </c>
       <c r="G203">
         <v>2831</v>
@@ -13085,7 +12788,7 @@
         <v>64</v>
       </c>
       <c r="F204">
-        <v>0.0286571143</v>
+        <v>0.02865711429523492</v>
       </c>
       <c r="G204">
         <v>2838</v>
@@ -13141,7 +12844,7 @@
         <v>80</v>
       </c>
       <c r="F205">
-        <v>0.02844856103</v>
+        <v>0.02844856103208733</v>
       </c>
       <c r="G205">
         <v>2841</v>
@@ -13197,7 +12900,7 @@
         <v>80</v>
       </c>
       <c r="F206">
-        <v>0.02836411609</v>
+        <v>0.02836411609498681</v>
       </c>
       <c r="G206">
         <v>2853</v>
@@ -13253,7 +12956,7 @@
         <v>81</v>
       </c>
       <c r="F207">
-        <v>0.02815057283</v>
+        <v>0.02815057283142389</v>
       </c>
       <c r="G207">
         <v>2875</v>
@@ -13309,7 +13012,7 @@
         <v>77</v>
       </c>
       <c r="F208">
-        <v>0.02796747967</v>
+        <v>0.02796747967479675</v>
       </c>
       <c r="G208">
         <v>2899</v>
@@ -13365,7 +13068,7 @@
         <v>77</v>
       </c>
       <c r="F209">
-        <v>0.02796747967</v>
+        <v>0.02796747967479675</v>
       </c>
       <c r="G209">
         <v>2899</v>
@@ -13421,7 +13124,7 @@
         <v>99</v>
       </c>
       <c r="F210">
-        <v>0.02776005105</v>
+        <v>0.02776005105296745</v>
       </c>
       <c r="G210">
         <v>2935</v>
@@ -13477,7 +13180,7 @@
         <v>99</v>
       </c>
       <c r="F211">
-        <v>0.02776005105</v>
+        <v>0.02776005105296745</v>
       </c>
       <c r="G211">
         <v>2935</v>
@@ -13533,7 +13236,7 @@
         <v>104</v>
       </c>
       <c r="F212">
-        <v>0.02769908719</v>
+        <v>0.02769908718917218</v>
       </c>
       <c r="G212">
         <v>2970</v>
@@ -13589,7 +13292,7 @@
         <v>87</v>
       </c>
       <c r="F213">
-        <v>0.02783859869</v>
+        <v>0.02783859868626838</v>
       </c>
       <c r="G213">
         <v>3006</v>
@@ -13645,7 +13348,7 @@
         <v>82</v>
       </c>
       <c r="F214">
-        <v>0.02777777778</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G214">
         <v>3017</v>
@@ -13701,7 +13404,7 @@
         <v>85</v>
       </c>
       <c r="F215">
-        <v>0.0275883447</v>
+        <v>0.02758834469931804</v>
       </c>
       <c r="G215">
         <v>3036</v>
@@ -13757,7 +13460,7 @@
         <v>76</v>
       </c>
       <c r="F216">
-        <v>0.02742681048</v>
+        <v>0.02742681047765794</v>
       </c>
       <c r="G216">
         <v>3064</v>
@@ -13813,7 +13516,7 @@
         <v>51</v>
       </c>
       <c r="F217">
-        <v>0.02716727717</v>
+        <v>0.02716727716727717</v>
       </c>
       <c r="G217">
         <v>3120</v>
@@ -13869,7 +13572,7 @@
         <v>53</v>
       </c>
       <c r="F218">
-        <v>0.02696969697</v>
+        <v>0.02696969696969697</v>
       </c>
       <c r="G218">
         <v>3142</v>
@@ -13925,7 +13628,7 @@
         <v>47</v>
       </c>
       <c r="F219">
-        <v>0.02677496992</v>
+        <v>0.02677496991576414</v>
       </c>
       <c r="G219">
         <v>3172</v>
@@ -13981,7 +13684,7 @@
         <v>47</v>
       </c>
       <c r="F220">
-        <v>0.0266227939</v>
+        <v>0.02662279389769668</v>
       </c>
       <c r="G220">
         <v>3191</v>
@@ -14037,7 +13740,7 @@
         <v>48</v>
       </c>
       <c r="F221">
-        <v>0.02676977989</v>
+        <v>0.02676977989292088</v>
       </c>
       <c r="G221">
         <v>3208</v>
@@ -14093,7 +13796,7 @@
         <v>44</v>
       </c>
       <c r="F222">
-        <v>0.02663509914</v>
+        <v>0.02663509914175792</v>
       </c>
       <c r="G222">
         <v>3229</v>
@@ -14149,7 +13852,7 @@
         <v>41</v>
       </c>
       <c r="F223">
-        <v>0.02658003544</v>
+        <v>0.02658003544004725</v>
       </c>
       <c r="G223">
         <v>3239</v>
@@ -14205,7 +13908,7 @@
         <v>38</v>
       </c>
       <c r="F224">
-        <v>0.02678045909</v>
+        <v>0.02678045909358446</v>
       </c>
       <c r="G224">
         <v>3253</v>
@@ -14261,7 +13964,7 @@
         <v>27</v>
       </c>
       <c r="F225">
-        <v>0.02707474985</v>
+        <v>0.02707474985285462</v>
       </c>
       <c r="G225">
         <v>3263</v>
@@ -14317,7 +14020,7 @@
         <v>28</v>
       </c>
       <c r="F226">
-        <v>0.02697156259</v>
+        <v>0.02697156259161536</v>
       </c>
       <c r="G226">
         <v>3275</v>
@@ -14373,7 +14076,7 @@
         <v>31</v>
       </c>
       <c r="F227">
-        <v>0.02707423581</v>
+        <v>0.02707423580786026</v>
       </c>
       <c r="G227">
         <v>3295</v>
@@ -14429,7 +14132,7 @@
         <v>35</v>
       </c>
       <c r="F228">
-        <v>0.02686308492</v>
+        <v>0.0268630849220104</v>
       </c>
       <c r="G228">
         <v>3318</v>
@@ -14485,7 +14188,7 @@
         <v>41</v>
       </c>
       <c r="F229">
-        <v>0.02670111972</v>
+        <v>0.02670111972437554</v>
       </c>
       <c r="G229">
         <v>3333</v>
@@ -14541,7 +14244,7 @@
         <v>35</v>
       </c>
       <c r="F230">
-        <v>0.0265259555</v>
+        <v>0.02652595550484883</v>
       </c>
       <c r="G230">
         <v>3362</v>
@@ -14597,7 +14300,7 @@
         <v>35</v>
       </c>
       <c r="F231">
-        <v>0.0265259555</v>
+        <v>0.02652595550484883</v>
       </c>
       <c r="G231">
         <v>3362</v>
@@ -14653,7 +14356,7 @@
         <v>28</v>
       </c>
       <c r="F232">
-        <v>0.02633814783</v>
+        <v>0.02633814783347494</v>
       </c>
       <c r="G232">
         <v>3394</v>
@@ -14709,7 +14412,7 @@
         <v>42</v>
       </c>
       <c r="F233">
-        <v>0.02605771925</v>
+        <v>0.02605771924908938</v>
       </c>
       <c r="G233">
         <v>3418</v>
@@ -14765,7 +14468,7 @@
         <v>46</v>
       </c>
       <c r="F234">
-        <v>0.02591973244</v>
+        <v>0.02591973244147157</v>
       </c>
       <c r="G234">
         <v>3433</v>
@@ -14821,7 +14524,7 @@
         <v>48</v>
       </c>
       <c r="F235">
-        <v>0.02574750831</v>
+        <v>0.02574750830564784</v>
       </c>
       <c r="G235">
         <v>3454</v>
@@ -14877,7 +14580,7 @@
         <v>55</v>
       </c>
       <c r="F236">
-        <v>0.02561983471</v>
+        <v>0.0256198347107438</v>
       </c>
       <c r="G236">
         <v>3465</v>
@@ -14933,7 +14636,7 @@
         <v>42</v>
       </c>
       <c r="F237">
-        <v>0.02630857769</v>
+        <v>0.0263085776925185</v>
       </c>
       <c r="G237">
         <v>3495</v>
@@ -14989,7 +14692,7 @@
         <v>37</v>
       </c>
       <c r="F238">
-        <v>0.02627977005</v>
+        <v>0.02627977005201204</v>
       </c>
       <c r="G238">
         <v>3503</v>
@@ -15045,7 +14748,7 @@
         <v>31</v>
       </c>
       <c r="F239">
-        <v>0.02654625068</v>
+        <v>0.02654625068418172</v>
       </c>
       <c r="G239">
         <v>3509</v>
@@ -15101,7 +14804,7 @@
         <v>38</v>
       </c>
       <c r="F240">
-        <v>0.02685838307</v>
+        <v>0.02685838307107976</v>
       </c>
       <c r="G240">
         <v>3532</v>
@@ -15157,7 +14860,7 @@
         <v>37</v>
       </c>
       <c r="F241">
-        <v>0.02681473456</v>
+        <v>0.02681473456121343</v>
       </c>
       <c r="G241">
         <v>3539</v>
@@ -15213,7 +14916,7 @@
         <v>34</v>
       </c>
       <c r="F242">
-        <v>0.02667025862</v>
+        <v>0.02667025862068965</v>
       </c>
       <c r="G242">
         <v>3562</v>
@@ -15269,7 +14972,7 @@
         <v>38</v>
       </c>
       <c r="F243">
-        <v>0.02651312266</v>
+        <v>0.02651312265666845</v>
       </c>
       <c r="G243">
         <v>3580</v>
@@ -15325,7 +15028,7 @@
         <v>52</v>
       </c>
       <c r="F244">
-        <v>0.02648305085</v>
+        <v>0.02648305084745763</v>
       </c>
       <c r="G244">
         <v>3607</v>
@@ -15381,7 +15084,7 @@
         <v>42</v>
       </c>
       <c r="F245">
-        <v>0.02624671916</v>
+        <v>0.02624671916010499</v>
       </c>
       <c r="G245">
         <v>3651</v>
@@ -15437,7 +15140,7 @@
         <v>42</v>
       </c>
       <c r="F246">
-        <v>0.02618486515</v>
+        <v>0.02618486514794449</v>
       </c>
       <c r="G246">
         <v>3660</v>
@@ -15493,7 +15196,7 @@
         <v>37</v>
       </c>
       <c r="F247">
-        <v>0.02598077423</v>
+        <v>0.02598077422707197</v>
       </c>
       <c r="G247">
         <v>3695</v>
@@ -15549,7 +15252,7 @@
         <v>60</v>
       </c>
       <c r="F248">
-        <v>0.02577319588</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="G248">
         <v>3703</v>
@@ -15605,7 +15308,7 @@
         <v>57</v>
       </c>
       <c r="F249">
-        <v>0.02566076469</v>
+        <v>0.02566076469078779</v>
       </c>
       <c r="G249">
         <v>3723</v>
@@ -15661,7 +15364,7 @@
         <v>56</v>
       </c>
       <c r="F250">
-        <v>0.0254841998</v>
+        <v>0.0254841997961264</v>
       </c>
       <c r="G250">
         <v>3751</v>
@@ -15717,7 +15420,7 @@
         <v>81</v>
       </c>
       <c r="F251">
-        <v>0.0252016129</v>
+        <v>0.0252016129032258</v>
       </c>
       <c r="G251">
         <v>3770</v>
@@ -15773,7 +15476,7 @@
         <v>58</v>
       </c>
       <c r="F252">
-        <v>0.02495632643</v>
+        <v>0.02495632642874969</v>
       </c>
       <c r="G252">
         <v>3832</v>
@@ -15829,7 +15532,7 @@
         <v>48</v>
       </c>
       <c r="F253">
-        <v>0.0248200546</v>
+        <v>0.02482005460412013</v>
       </c>
       <c r="G253">
         <v>3864</v>
@@ -15885,7 +15588,7 @@
         <v>35</v>
       </c>
       <c r="F254">
-        <v>0.02469745616</v>
+        <v>0.02469745616201531</v>
       </c>
       <c r="G254">
         <v>3897</v>
@@ -15941,7 +15644,7 @@
         <v>41</v>
       </c>
       <c r="F255">
-        <v>0.02453385672</v>
+        <v>0.02453385672227674</v>
       </c>
       <c r="G255">
         <v>3918</v>
@@ -15997,7 +15700,7 @@
         <v>46</v>
       </c>
       <c r="F256">
-        <v>0.02440810349</v>
+        <v>0.0244081034903588</v>
       </c>
       <c r="G256">
         <v>3934</v>
@@ -16053,7 +15756,7 @@
         <v>59</v>
       </c>
       <c r="F257">
-        <v>0.02414875634</v>
+        <v>0.02414875633904854</v>
       </c>
       <c r="G257">
         <v>3965</v>
@@ -16109,7 +15812,7 @@
         <v>66</v>
       </c>
       <c r="F258">
-        <v>0.02416267943</v>
+        <v>0.02416267942583732</v>
       </c>
       <c r="G258">
         <v>3996</v>
@@ -16165,7 +15868,7 @@
         <v>66</v>
       </c>
       <c r="F259">
-        <v>0.02416267943</v>
+        <v>0.02416267942583732</v>
       </c>
       <c r="G259">
         <v>3996</v>
@@ -16221,7 +15924,7 @@
         <v>33</v>
       </c>
       <c r="F260">
-        <v>0.02413381123</v>
+        <v>0.02413381123058542</v>
       </c>
       <c r="G260">
         <v>4034</v>
@@ -16277,7 +15980,7 @@
         <v>33</v>
       </c>
       <c r="F261">
-        <v>0.02413381123</v>
+        <v>0.02413381123058542</v>
       </c>
       <c r="G261">
         <v>4034</v>
@@ -16333,7 +16036,7 @@
         <v>36</v>
       </c>
       <c r="F262">
-        <v>0.02412488174</v>
+        <v>0.02412488174077578</v>
       </c>
       <c r="G262">
         <v>4073</v>
@@ -16389,7 +16092,7 @@
         <v>38</v>
       </c>
       <c r="F263">
-        <v>0.02393242609</v>
+        <v>0.02393242609103707</v>
       </c>
       <c r="G263">
         <v>4105</v>
@@ -16445,7 +16148,7 @@
         <v>46</v>
       </c>
       <c r="F264">
-        <v>0.02356202356</v>
+        <v>0.02356202356202356</v>
       </c>
       <c r="G264">
         <v>4164</v>
@@ -16501,7 +16204,7 @@
         <v>46</v>
       </c>
       <c r="F265">
-        <v>0.02322933273</v>
+        <v>0.02322933272603052</v>
       </c>
       <c r="G265">
         <v>4226</v>
@@ -16557,7 +16260,7 @@
         <v>46</v>
       </c>
       <c r="F266">
-        <v>0.02322933273</v>
+        <v>0.02322933272603052</v>
       </c>
       <c r="G266">
         <v>4226</v>
@@ -16613,7 +16316,7 @@
         <v>31</v>
       </c>
       <c r="F267">
-        <v>0.02308736985</v>
+        <v>0.02308736985061114</v>
       </c>
       <c r="G267">
         <v>4265</v>
@@ -16669,7 +16372,7 @@
         <v>65</v>
       </c>
       <c r="F268">
-        <v>0.02327663384</v>
+        <v>0.02327663384064458</v>
       </c>
       <c r="G268">
         <v>4283</v>
@@ -16725,7 +16428,7 @@
         <v>61</v>
       </c>
       <c r="F269">
-        <v>0.02310597645</v>
+        <v>0.02310597644967785</v>
       </c>
       <c r="G269">
         <v>4318</v>
@@ -16781,7 +16484,7 @@
         <v>61</v>
       </c>
       <c r="F270">
-        <v>0.02310597645</v>
+        <v>0.02310597644967785</v>
       </c>
       <c r="G270">
         <v>4318</v>
@@ -16837,7 +16540,7 @@
         <v>75</v>
       </c>
       <c r="F271">
-        <v>0.02276669558</v>
+        <v>0.02276669557675629</v>
       </c>
       <c r="G271">
         <v>4414</v>
@@ -16893,7 +16596,7 @@
         <v>75</v>
       </c>
       <c r="F272">
-        <v>0.02276669558</v>
+        <v>0.02276669557675629</v>
       </c>
       <c r="G272">
         <v>4414</v>
@@ -16949,7 +16652,7 @@
         <v>54</v>
       </c>
       <c r="F273">
-        <v>0.02315516122</v>
+        <v>0.02315516122051504</v>
       </c>
       <c r="G273">
         <v>4442</v>
@@ -17005,7 +16708,7 @@
         <v>55</v>
       </c>
       <c r="F274">
-        <v>0.02315015145</v>
+        <v>0.02315015144958892</v>
       </c>
       <c r="G274">
         <v>4444</v>
@@ -17061,7 +16764,7 @@
         <v>68</v>
       </c>
       <c r="F275">
-        <v>0.02276595745</v>
+        <v>0.02276595744680851</v>
       </c>
       <c r="G275">
         <v>4507</v>
@@ -17117,7 +16820,7 @@
         <v>72</v>
       </c>
       <c r="F276">
-        <v>0.02254530131</v>
+        <v>0.02254530130636325</v>
       </c>
       <c r="G276">
         <v>4549</v>
@@ -17173,7 +16876,7 @@
         <v>74</v>
       </c>
       <c r="F277">
-        <v>0.0227604928</v>
+        <v>0.02276049279599081</v>
       </c>
       <c r="G277">
         <v>4588</v>
@@ -17229,7 +16932,7 @@
         <v>65</v>
       </c>
       <c r="F278">
-        <v>0.02265170407</v>
+        <v>0.02265170407315046</v>
       </c>
       <c r="G278">
         <v>4620</v>
@@ -17285,7 +16988,7 @@
         <v>65</v>
       </c>
       <c r="F279">
-        <v>0.02265170407</v>
+        <v>0.02265170407315046</v>
       </c>
       <c r="G279">
         <v>4620</v>
@@ -17341,7 +17044,7 @@
         <v>65</v>
       </c>
       <c r="F280">
-        <v>0.02265170407</v>
+        <v>0.02265170407315046</v>
       </c>
       <c r="G280">
         <v>4620</v>
@@ -17397,7 +17100,7 @@
         <v>65</v>
       </c>
       <c r="F281">
-        <v>0.02265170407</v>
+        <v>0.02265170407315046</v>
       </c>
       <c r="G281">
         <v>4620</v>
@@ -17453,7 +17156,7 @@
         <v>55</v>
       </c>
       <c r="F282">
-        <v>0.02284420663</v>
+        <v>0.02284420662687796</v>
       </c>
       <c r="G282">
         <v>4675</v>
@@ -17509,7 +17212,7 @@
         <v>73</v>
       </c>
       <c r="F283">
-        <v>0.02253807107</v>
+        <v>0.02253807106598985</v>
       </c>
       <c r="G283">
         <v>4723</v>
@@ -17565,7 +17268,7 @@
         <v>74</v>
       </c>
       <c r="F284">
-        <v>0.02261904762</v>
+        <v>0.02261904761904762</v>
       </c>
       <c r="G284">
         <v>4833</v>
@@ -17621,7 +17324,7 @@
         <v>109</v>
       </c>
       <c r="F285">
-        <v>0.02263414634</v>
+        <v>0.02263414634146341</v>
       </c>
       <c r="G285">
         <v>4882</v>
@@ -17677,7 +17380,7 @@
         <v>161</v>
       </c>
       <c r="F286">
-        <v>0.02303262956</v>
+        <v>0.02303262955854127</v>
       </c>
       <c r="G286">
         <v>4911</v>
@@ -17733,7 +17436,7 @@
         <v>133</v>
       </c>
       <c r="F287">
-        <v>0.02284843869</v>
+        <v>0.02284843869002285</v>
       </c>
       <c r="G287">
         <v>4981</v>
@@ -17789,7 +17492,7 @@
         <v>108</v>
       </c>
       <c r="F288">
-        <v>0.02279202279</v>
+        <v>0.02279202279202279</v>
       </c>
       <c r="G288">
         <v>5019</v>
@@ -17845,7 +17548,7 @@
         <v>119</v>
       </c>
       <c r="F289">
-        <v>0.02257336343</v>
+        <v>0.02257336343115124</v>
       </c>
       <c r="G289">
         <v>5059</v>
@@ -17901,7 +17604,7 @@
         <v>154</v>
       </c>
       <c r="F290">
-        <v>0.02236480293</v>
+        <v>0.02236480293308891</v>
       </c>
       <c r="G290">
         <v>5161</v>
@@ -17957,7 +17660,7 @@
         <v>135</v>
       </c>
       <c r="F291">
-        <v>0.02229068503</v>
+        <v>0.02229068503080826</v>
       </c>
       <c r="G291">
         <v>5242</v>
@@ -18013,7 +17716,7 @@
         <v>143</v>
       </c>
       <c r="F292">
-        <v>0.02231419831</v>
+        <v>0.02231419830843981</v>
       </c>
       <c r="G292">
         <v>5272</v>
@@ -18069,7 +17772,7 @@
         <v>175</v>
       </c>
       <c r="F293">
-        <v>0.02204052613</v>
+        <v>0.02204052612868823</v>
       </c>
       <c r="G293">
         <v>5309</v>
@@ -18125,7 +17828,7 @@
         <v>83</v>
       </c>
       <c r="F294">
-        <v>0.02184252246</v>
+        <v>0.02184252245904527</v>
       </c>
       <c r="G294">
         <v>5452</v>
@@ -18181,7 +17884,7 @@
         <v>74</v>
       </c>
       <c r="F295">
-        <v>0.02186461431</v>
+        <v>0.0218646143082036</v>
       </c>
       <c r="G295">
         <v>5500</v>
@@ -18237,7 +17940,7 @@
         <v>109</v>
       </c>
       <c r="F296">
-        <v>0.0214151105</v>
+        <v>0.02141511050197019</v>
       </c>
       <c r="G296">
         <v>5584</v>
@@ -18293,7 +17996,7 @@
         <v>125</v>
       </c>
       <c r="F297">
-        <v>0.02123356926</v>
+        <v>0.02123356926188069</v>
       </c>
       <c r="G297">
         <v>5664</v>
@@ -18349,7 +18052,7 @@
         <v>130</v>
       </c>
       <c r="F298">
-        <v>0.02084712111</v>
+        <v>0.02084712111184646</v>
       </c>
       <c r="G298">
         <v>5769</v>
@@ -18405,7 +18108,7 @@
         <v>117</v>
       </c>
       <c r="F299">
-        <v>0.02069985214</v>
+        <v>0.02069985214391326</v>
       </c>
       <c r="G299">
         <v>5825</v>
@@ -18461,7 +18164,7 @@
         <v>134</v>
       </c>
       <c r="F300">
-        <v>0.02047448814</v>
+        <v>0.02047448813779655</v>
       </c>
       <c r="G300">
         <v>5875</v>
@@ -18517,7 +18220,7 @@
         <v>128</v>
       </c>
       <c r="F301">
-        <v>0.02031275189</v>
+        <v>0.02031275189424472</v>
       </c>
       <c r="G301">
         <v>5927</v>
@@ -18573,7 +18276,7 @@
         <v>118</v>
       </c>
       <c r="F302">
-        <v>0.02077294686</v>
+        <v>0.02077294685990338</v>
       </c>
       <c r="G302">
         <v>5944</v>
@@ -18629,7 +18332,7 @@
         <v>118</v>
       </c>
       <c r="F303">
-        <v>0.02068746022</v>
+        <v>0.02068746021642266</v>
       </c>
       <c r="G303">
         <v>6017</v>
@@ -18685,7 +18388,7 @@
         <v>131</v>
       </c>
       <c r="F304">
-        <v>0.02028714107</v>
+        <v>0.02028714107365793</v>
       </c>
       <c r="G304">
         <v>6128</v>
@@ -18741,7 +18444,7 @@
         <v>177</v>
       </c>
       <c r="F305">
-        <v>0.0202733835</v>
+        <v>0.02027338350483797</v>
       </c>
       <c r="G305">
         <v>6183</v>
@@ -18797,7 +18500,7 @@
         <v>194</v>
       </c>
       <c r="F306">
-        <v>0.0200729927</v>
+        <v>0.02007299270072993</v>
       </c>
       <c r="G306">
         <v>6231</v>
@@ -18853,7 +18556,7 @@
         <v>133</v>
       </c>
       <c r="F307">
-        <v>0.02027331431</v>
+        <v>0.02027331431145818</v>
       </c>
       <c r="G307">
         <v>6372</v>
@@ -18909,7 +18612,7 @@
         <v>153</v>
       </c>
       <c r="F308">
-        <v>0.02010050251</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G308">
         <v>6458</v>
@@ -18965,7 +18668,7 @@
         <v>117</v>
       </c>
       <c r="F309">
-        <v>0.02027920647</v>
+        <v>0.02027920646583395</v>
       </c>
       <c r="G309">
         <v>6531</v>
@@ -19021,7 +18724,7 @@
         <v>140</v>
       </c>
       <c r="F310">
-        <v>0.01998551774</v>
+        <v>0.01998551774076756</v>
       </c>
       <c r="G310">
         <v>6608</v>
@@ -19077,7 +18780,7 @@
         <v>142</v>
       </c>
       <c r="F311">
-        <v>0.0198486363</v>
+        <v>0.01984863629872912</v>
       </c>
       <c r="G311">
         <v>6703</v>
@@ -19133,7 +18836,7 @@
         <v>140</v>
       </c>
       <c r="F312">
-        <v>0.01988353927</v>
+        <v>0.01988353926999006</v>
       </c>
       <c r="G312">
         <v>6742</v>
@@ -19189,7 +18892,7 @@
         <v>153</v>
       </c>
       <c r="F313">
-        <v>0.0199718706</v>
+        <v>0.019971870604782</v>
       </c>
       <c r="G313">
         <v>6796</v>
@@ -19245,7 +18948,7 @@
         <v>177</v>
       </c>
       <c r="F314">
-        <v>0.01965942129</v>
+        <v>0.01965942129309151</v>
       </c>
       <c r="G314">
         <v>6884</v>
@@ -19301,7 +19004,7 @@
         <v>168</v>
       </c>
       <c r="F315">
-        <v>0.01953232462</v>
+        <v>0.01953232462173315</v>
       </c>
       <c r="G315">
         <v>6940</v>
@@ -19357,7 +19060,7 @@
         <v>132</v>
       </c>
       <c r="F316">
-        <v>0.01949478309</v>
+        <v>0.01949478308621637</v>
       </c>
       <c r="G316">
         <v>6990</v>
@@ -19413,7 +19116,7 @@
         <v>143</v>
       </c>
       <c r="F317">
-        <v>0.01993174061</v>
+        <v>0.01993174061433447</v>
       </c>
       <c r="G317">
         <v>7016</v>
@@ -19469,7 +19172,7 @@
         <v>172</v>
       </c>
       <c r="F318">
-        <v>0.019812729</v>
+        <v>0.0198127289998643</v>
       </c>
       <c r="G318">
         <v>7030</v>
@@ -19525,7 +19228,7 @@
         <v>117</v>
       </c>
       <c r="F319">
-        <v>0.01994340385</v>
+        <v>0.01994340385392804</v>
       </c>
       <c r="G319">
         <v>7135</v>
@@ -19581,7 +19284,7 @@
         <v>109</v>
       </c>
       <c r="F320">
-        <v>0.01999463231</v>
+        <v>0.01999463231347289</v>
       </c>
       <c r="G320">
         <v>7173</v>
@@ -19637,7 +19340,7 @@
         <v>86</v>
       </c>
       <c r="F321">
-        <v>0.02006111333</v>
+        <v>0.02006111332536203</v>
       </c>
       <c r="G321">
         <v>7269</v>
@@ -19693,7 +19396,7 @@
         <v>118</v>
       </c>
       <c r="F322">
-        <v>0.02012363541</v>
+        <v>0.02012363540707615</v>
       </c>
       <c r="G322">
         <v>7311</v>
@@ -19749,7 +19452,7 @@
         <v>87</v>
       </c>
       <c r="F323">
-        <v>0.02025249868</v>
+        <v>0.02025249868490268</v>
       </c>
       <c r="G323">
         <v>7342</v>
@@ -19805,7 +19508,7 @@
         <v>98</v>
       </c>
       <c r="F324">
-        <v>0.02024555904</v>
+        <v>0.02024555903866249</v>
       </c>
       <c r="G324">
         <v>7382</v>
@@ -19861,7 +19564,7 @@
         <v>173</v>
       </c>
       <c r="F325">
-        <v>0.02077922078</v>
+        <v>0.02077922077922078</v>
       </c>
       <c r="G325">
         <v>7345</v>
@@ -19917,7 +19620,7 @@
         <v>114</v>
       </c>
       <c r="F326">
-        <v>0.02075858534</v>
+        <v>0.02075858534085085</v>
       </c>
       <c r="G326">
         <v>7506</v>
@@ -19973,7 +19676,7 @@
         <v>178</v>
       </c>
       <c r="F327">
-        <v>0.02063813624</v>
+        <v>0.02063813623702203</v>
       </c>
       <c r="G327">
         <v>7535</v>
@@ -20029,7 +19732,7 @@
         <v>157</v>
       </c>
       <c r="F328">
-        <v>0.02067835078</v>
+        <v>0.02067835077543815</v>
       </c>
       <c r="G328">
         <v>7588</v>
@@ -20085,7 +19788,7 @@
         <v>158</v>
       </c>
       <c r="F329">
-        <v>0.02086213397</v>
+        <v>0.02086213397008923</v>
       </c>
       <c r="G329">
         <v>7611</v>
@@ -20141,7 +19844,7 @@
         <v>139</v>
       </c>
       <c r="F330">
-        <v>0.02097199548</v>
+        <v>0.0209719954790908</v>
       </c>
       <c r="G330">
         <v>7635</v>
@@ -20197,7 +19900,7 @@
         <v>163</v>
       </c>
       <c r="F331">
-        <v>0.02106443974</v>
+        <v>0.02106443973575969</v>
       </c>
       <c r="G331">
         <v>7669</v>
@@ -20253,7 +19956,7 @@
         <v>335</v>
       </c>
       <c r="F332">
-        <v>0.02083847102</v>
+        <v>0.02083847102342787</v>
       </c>
       <c r="G332">
         <v>7775</v>
@@ -20309,7 +20012,7 @@
         <v>135</v>
       </c>
       <c r="F333">
-        <v>0.02091948431</v>
+        <v>0.02091948431038677</v>
       </c>
       <c r="G333">
         <v>7892</v>
@@ -20365,7 +20068,7 @@
         <v>135</v>
       </c>
       <c r="F334">
-        <v>0.02091948431</v>
+        <v>0.02091948431038677</v>
       </c>
       <c r="G334">
         <v>7892</v>
@@ -20421,7 +20124,7 @@
         <v>135</v>
       </c>
       <c r="F335">
-        <v>0.02091948431</v>
+        <v>0.02091948431038677</v>
       </c>
       <c r="G335">
         <v>7892</v>
@@ -20477,7 +20180,7 @@
         <v>135</v>
       </c>
       <c r="F336">
-        <v>0.02091948431</v>
+        <v>0.02091948431038677</v>
       </c>
       <c r="G336">
         <v>7892</v>
@@ -20533,7 +20236,7 @@
         <v>135</v>
       </c>
       <c r="F337">
-        <v>0.02091948431</v>
+        <v>0.02091948431038677</v>
       </c>
       <c r="G337">
         <v>7892</v>
@@ -20589,7 +20292,7 @@
         <v>83</v>
       </c>
       <c r="F338">
-        <v>0.02095418492</v>
+        <v>0.02095418491772227</v>
       </c>
       <c r="G338">
         <v>8163</v>
@@ -20645,7 +20348,7 @@
         <v>97</v>
       </c>
       <c r="F339">
-        <v>0.02105386968</v>
+        <v>0.02105386967772289</v>
       </c>
       <c r="G339">
         <v>8202</v>
@@ -20701,7 +20404,7 @@
         <v>110</v>
       </c>
       <c r="F340">
-        <v>0.02079702568</v>
+        <v>0.02079702567677472</v>
       </c>
       <c r="G340">
         <v>8294</v>
@@ -20757,7 +20460,7 @@
         <v>102</v>
       </c>
       <c r="F341">
-        <v>0.02069828272</v>
+        <v>0.0206982827248948</v>
       </c>
       <c r="G341">
         <v>8485</v>
@@ -20813,7 +20516,7 @@
         <v>122</v>
       </c>
       <c r="F342">
-        <v>0.02050649933</v>
+        <v>0.02050649932765576</v>
       </c>
       <c r="G342">
         <v>8595</v>
@@ -20869,7 +20572,7 @@
         <v>129</v>
       </c>
       <c r="F343">
-        <v>0.02045126153</v>
+        <v>0.02045126153162165</v>
       </c>
       <c r="G343">
         <v>8660</v>
@@ -20925,7 +20628,7 @@
         <v>104</v>
       </c>
       <c r="F344">
-        <v>0.02060713494</v>
+        <v>0.02060713494349656</v>
       </c>
       <c r="G344">
         <v>8711</v>
@@ -20981,7 +20684,7 @@
         <v>112</v>
       </c>
       <c r="F345">
-        <v>0.02064572809</v>
+        <v>0.02064572809136833</v>
       </c>
       <c r="G345">
         <v>8780</v>
@@ -21037,7 +20740,7 @@
         <v>122</v>
       </c>
       <c r="F346">
-        <v>0.02049669233</v>
+        <v>0.02049669233271879</v>
       </c>
       <c r="G346">
         <v>8884</v>
@@ -21093,7 +20796,7 @@
         <v>160</v>
       </c>
       <c r="F347">
-        <v>0.02031433765</v>
+        <v>0.02031433764567519</v>
       </c>
       <c r="G347">
         <v>8977</v>
@@ -21149,7 +20852,7 @@
         <v>214</v>
       </c>
       <c r="F348">
-        <v>0.02030671602</v>
+        <v>0.02030671602326811</v>
       </c>
       <c r="G348">
         <v>9023</v>
@@ -21205,7 +20908,7 @@
         <v>207</v>
       </c>
       <c r="F349">
-        <v>0.02092269066</v>
+        <v>0.02092269065801862</v>
       </c>
       <c r="G349">
         <v>9126</v>
@@ -21261,7 +20964,7 @@
         <v>208</v>
       </c>
       <c r="F350">
-        <v>0.02092442224</v>
+        <v>0.02092442223610243</v>
       </c>
       <c r="G350">
         <v>9171</v>
@@ -21317,7 +21020,7 @@
         <v>236</v>
       </c>
       <c r="F351">
-        <v>0.02133194589</v>
+        <v>0.02133194588969823</v>
       </c>
       <c r="G351">
         <v>9143</v>
@@ -21373,7 +21076,7 @@
         <v>157</v>
       </c>
       <c r="F352">
-        <v>0.02133360816</v>
+        <v>0.02133360816242399</v>
       </c>
       <c r="G352">
         <v>9313</v>
@@ -21429,7 +21132,7 @@
         <v>138</v>
       </c>
       <c r="F353">
-        <v>0.02143809621</v>
+        <v>0.02143809621499641</v>
       </c>
       <c r="G353">
         <v>9376</v>
@@ -21485,7 +21188,7 @@
         <v>117</v>
       </c>
       <c r="F354">
-        <v>0.02183450668</v>
+        <v>0.02183450668299153</v>
       </c>
       <c r="G354">
         <v>9444</v>
@@ -21541,7 +21244,7 @@
         <v>134</v>
       </c>
       <c r="F355">
-        <v>0.02174352751</v>
+        <v>0.02174352750809061</v>
       </c>
       <c r="G355">
         <v>9513</v>
@@ -21597,16 +21300,16 @@
         <v>146</v>
       </c>
       <c r="F356">
-        <v>0.021671516</v>
+        <v>0.02167151600280927</v>
       </c>
       <c r="G356">
         <v>9579</v>
       </c>
       <c r="H356">
-        <v>20352</v>
+        <v>18556</v>
       </c>
       <c r="I356">
-        <v>30319</v>
+        <v>28523</v>
       </c>
       <c r="J356">
         <v>79</v>
@@ -21621,7 +21324,7 @@
         <v>539</v>
       </c>
       <c r="N356">
-        <v>1875</v>
+        <v>79</v>
       </c>
       <c r="O356">
         <v>62</v>
@@ -21653,16 +21356,16 @@
         <v>142</v>
       </c>
       <c r="F357">
-        <v>0.02151608726</v>
+        <v>0.02151608725968722</v>
       </c>
       <c r="G357">
         <v>9655</v>
       </c>
       <c r="H357">
-        <v>20352</v>
+        <v>18556</v>
       </c>
       <c r="I357">
-        <v>30391</v>
+        <v>28595</v>
       </c>
       <c r="J357">
         <v>72</v>
@@ -21709,16 +21412,16 @@
         <v>145</v>
       </c>
       <c r="F358">
-        <v>0.02199661591</v>
+        <v>0.02199661590524535</v>
       </c>
       <c r="G358">
         <v>9663</v>
       </c>
       <c r="H358">
-        <v>20352</v>
+        <v>18556</v>
       </c>
       <c r="I358">
-        <v>30399</v>
+        <v>28603</v>
       </c>
       <c r="J358">
         <v>8</v>
@@ -21765,16 +21468,16 @@
         <v>118</v>
       </c>
       <c r="F359">
-        <v>0.02222880854</v>
+        <v>0.02222880853586248</v>
       </c>
       <c r="G359">
         <v>9753</v>
       </c>
       <c r="H359">
-        <v>20352</v>
+        <v>18556</v>
       </c>
       <c r="I359">
-        <v>30474</v>
+        <v>28678</v>
       </c>
       <c r="J359">
         <v>75</v>
@@ -21821,16 +21524,16 @@
         <v>140</v>
       </c>
       <c r="F360">
-        <v>0.02249950874</v>
+        <v>0.02249950874435056</v>
       </c>
       <c r="G360">
         <v>9782</v>
       </c>
       <c r="H360">
-        <v>20352</v>
+        <v>18556</v>
       </c>
       <c r="I360">
-        <v>30530</v>
+        <v>28734</v>
       </c>
       <c r="J360">
         <v>56</v>
@@ -21858,5550 +21561,6 @@
       </c>
       <c r="R360">
         <v>52</v>
-      </c>
-    </row>
-    <row r="361" spans="1:18">
-      <c r="A361" t="s">
-        <v>377</v>
-      </c>
-      <c r="B361">
-        <v>360</v>
-      </c>
-      <c r="C361">
-        <v>10303</v>
-      </c>
-      <c r="D361">
-        <v>232</v>
-      </c>
-      <c r="E361">
-        <v>166</v>
-      </c>
-      <c r="F361">
-        <v>0.02251771329</v>
-      </c>
-      <c r="G361">
-        <v>9877</v>
-      </c>
-      <c r="H361">
-        <v>20352</v>
-      </c>
-      <c r="I361">
-        <v>30655</v>
-      </c>
-      <c r="J361">
-        <v>125</v>
-      </c>
-      <c r="K361">
-        <v>518</v>
-      </c>
-      <c r="L361">
-        <v>2</v>
-      </c>
-      <c r="M361">
-        <v>516</v>
-      </c>
-      <c r="N361">
-        <v>125</v>
-      </c>
-      <c r="O361">
-        <v>59</v>
-      </c>
-      <c r="P361">
-        <v>38</v>
-      </c>
-      <c r="Q361">
-        <v>3</v>
-      </c>
-      <c r="R361">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="362" spans="1:18">
-      <c r="A362" t="s">
-        <v>378</v>
-      </c>
-      <c r="B362">
-        <v>361</v>
-      </c>
-      <c r="C362">
-        <v>10436</v>
-      </c>
-      <c r="D362">
-        <v>241</v>
-      </c>
-      <c r="E362">
-        <v>164</v>
-      </c>
-      <c r="F362">
-        <v>0.02309313913</v>
-      </c>
-      <c r="G362">
-        <v>10003</v>
-      </c>
-      <c r="H362">
-        <v>20352</v>
-      </c>
-      <c r="I362">
-        <v>30788</v>
-      </c>
-      <c r="J362">
-        <v>133</v>
-      </c>
-      <c r="K362">
-        <v>546</v>
-      </c>
-      <c r="L362">
-        <v>1</v>
-      </c>
-      <c r="M362">
-        <v>545</v>
-      </c>
-      <c r="N362">
-        <v>133</v>
-      </c>
-      <c r="O362">
-        <v>62</v>
-      </c>
-      <c r="P362">
-        <v>38</v>
-      </c>
-      <c r="Q362">
-        <v>9</v>
-      </c>
-      <c r="R362">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="363" spans="1:18">
-      <c r="A363" t="s">
-        <v>379</v>
-      </c>
-      <c r="B363">
-        <v>362</v>
-      </c>
-      <c r="C363">
-        <v>10513</v>
-      </c>
-      <c r="D363">
-        <v>244</v>
-      </c>
-      <c r="E363">
-        <v>155</v>
-      </c>
-      <c r="F363">
-        <v>0.02320935984</v>
-      </c>
-      <c r="G363">
-        <v>10086</v>
-      </c>
-      <c r="H363">
-        <v>20352</v>
-      </c>
-      <c r="I363">
-        <v>30865</v>
-      </c>
-      <c r="J363">
-        <v>77</v>
-      </c>
-      <c r="K363">
-        <v>634</v>
-      </c>
-      <c r="L363">
-        <v>2</v>
-      </c>
-      <c r="M363">
-        <v>632</v>
-      </c>
-      <c r="N363">
-        <v>77</v>
-      </c>
-      <c r="O363">
-        <v>60</v>
-      </c>
-      <c r="P363">
-        <v>36</v>
-      </c>
-      <c r="Q363">
-        <v>3</v>
-      </c>
-      <c r="R363">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="364" spans="1:18">
-      <c r="A364" t="s">
-        <v>380</v>
-      </c>
-      <c r="B364">
-        <v>363</v>
-      </c>
-      <c r="C364">
-        <v>10565</v>
-      </c>
-      <c r="D364">
-        <v>248</v>
-      </c>
-      <c r="E364">
-        <v>139</v>
-      </c>
-      <c r="F364">
-        <v>0.02347373403</v>
-      </c>
-      <c r="G364">
-        <v>10150</v>
-      </c>
-      <c r="H364">
-        <v>20352</v>
-      </c>
-      <c r="I364">
-        <v>30917</v>
-      </c>
-      <c r="J364">
-        <v>52</v>
-      </c>
-      <c r="K364">
-        <v>577</v>
-      </c>
-      <c r="L364">
-        <v>2</v>
-      </c>
-      <c r="M364">
-        <v>575</v>
-      </c>
-      <c r="N364">
-        <v>52</v>
-      </c>
-      <c r="O364">
-        <v>59</v>
-      </c>
-      <c r="P364">
-        <v>39</v>
-      </c>
-      <c r="Q364">
-        <v>4</v>
-      </c>
-      <c r="R364">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="365" spans="1:18">
-      <c r="A365" t="s">
-        <v>381</v>
-      </c>
-      <c r="B365">
-        <v>364</v>
-      </c>
-      <c r="C365">
-        <v>10575</v>
-      </c>
-      <c r="D365">
-        <v>250</v>
-      </c>
-      <c r="E365">
-        <v>144</v>
-      </c>
-      <c r="F365">
-        <v>0.02364066194</v>
-      </c>
-      <c r="G365">
-        <v>10159</v>
-      </c>
-      <c r="H365">
-        <v>20352</v>
-      </c>
-      <c r="I365">
-        <v>30927</v>
-      </c>
-      <c r="J365">
-        <v>10</v>
-      </c>
-      <c r="K365">
-        <v>574</v>
-      </c>
-      <c r="L365">
-        <v>1</v>
-      </c>
-      <c r="M365">
-        <v>573</v>
-      </c>
-      <c r="N365">
-        <v>10</v>
-      </c>
-      <c r="O365">
-        <v>61</v>
-      </c>
-      <c r="P365">
-        <v>39</v>
-      </c>
-      <c r="Q365">
-        <v>2</v>
-      </c>
-      <c r="R365">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="366" spans="1:18">
-      <c r="A366" t="s">
-        <v>382</v>
-      </c>
-      <c r="B366">
-        <v>365</v>
-      </c>
-      <c r="C366">
-        <v>10648</v>
-      </c>
-      <c r="D366">
-        <v>253</v>
-      </c>
-      <c r="E366">
-        <v>131</v>
-      </c>
-      <c r="F366">
-        <v>0.02376033058</v>
-      </c>
-      <c r="G366">
-        <v>10236</v>
-      </c>
-      <c r="H366">
-        <v>20352</v>
-      </c>
-      <c r="I366">
-        <v>31000</v>
-      </c>
-      <c r="J366">
-        <v>73</v>
-      </c>
-      <c r="K366">
-        <v>534</v>
-      </c>
-      <c r="L366">
-        <v>1</v>
-      </c>
-      <c r="M366">
-        <v>533</v>
-      </c>
-      <c r="N366">
-        <v>73</v>
-      </c>
-      <c r="O366">
-        <v>58</v>
-      </c>
-      <c r="P366">
-        <v>45</v>
-      </c>
-      <c r="Q366">
-        <v>3</v>
-      </c>
-      <c r="R366">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="367" spans="1:18">
-      <c r="A367" t="s">
-        <v>383</v>
-      </c>
-      <c r="B367">
-        <v>366</v>
-      </c>
-      <c r="C367">
-        <v>10703</v>
-      </c>
-      <c r="D367">
-        <v>260</v>
-      </c>
-      <c r="E367">
-        <v>167</v>
-      </c>
-      <c r="F367">
-        <v>0.02429225451</v>
-      </c>
-      <c r="G367">
-        <v>10303</v>
-      </c>
-      <c r="H367">
-        <v>20352</v>
-      </c>
-      <c r="I367">
-        <v>31055</v>
-      </c>
-      <c r="J367">
-        <v>55</v>
-      </c>
-      <c r="K367">
-        <v>664</v>
-      </c>
-      <c r="L367">
-        <v>1</v>
-      </c>
-      <c r="M367">
-        <v>663</v>
-      </c>
-      <c r="N367">
-        <v>55</v>
-      </c>
-      <c r="O367">
-        <v>58</v>
-      </c>
-      <c r="P367">
-        <v>40</v>
-      </c>
-      <c r="Q367">
-        <v>7</v>
-      </c>
-      <c r="R367">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="368" spans="1:18">
-      <c r="A368" t="s">
-        <v>384</v>
-      </c>
-      <c r="B368">
-        <v>367</v>
-      </c>
-      <c r="C368">
-        <v>10808</v>
-      </c>
-      <c r="D368">
-        <v>261</v>
-      </c>
-      <c r="E368">
-        <v>141</v>
-      </c>
-      <c r="F368">
-        <v>0.02414877868</v>
-      </c>
-      <c r="G368">
-        <v>10378</v>
-      </c>
-      <c r="H368">
-        <v>20352</v>
-      </c>
-      <c r="I368">
-        <v>31160</v>
-      </c>
-      <c r="J368">
-        <v>105</v>
-      </c>
-      <c r="K368">
-        <v>620</v>
-      </c>
-      <c r="L368">
-        <v>0</v>
-      </c>
-      <c r="M368">
-        <v>620</v>
-      </c>
-      <c r="N368">
-        <v>105</v>
-      </c>
-      <c r="O368">
-        <v>53</v>
-      </c>
-      <c r="P368">
-        <v>44</v>
-      </c>
-      <c r="Q368">
-        <v>1</v>
-      </c>
-      <c r="R368">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="369" spans="1:18">
-      <c r="A369" t="s">
-        <v>385</v>
-      </c>
-      <c r="B369">
-        <v>368</v>
-      </c>
-      <c r="C369">
-        <v>10845</v>
-      </c>
-      <c r="D369">
-        <v>265</v>
-      </c>
-      <c r="E369">
-        <v>167</v>
-      </c>
-      <c r="F369">
-        <v>0.02443522361</v>
-      </c>
-      <c r="G369">
-        <v>10383</v>
-      </c>
-      <c r="H369">
-        <v>20352</v>
-      </c>
-      <c r="I369">
-        <v>31197</v>
-      </c>
-      <c r="J369">
-        <v>37</v>
-      </c>
-      <c r="K369">
-        <v>618</v>
-      </c>
-      <c r="L369">
-        <v>0</v>
-      </c>
-      <c r="M369">
-        <v>618</v>
-      </c>
-      <c r="N369">
-        <v>37</v>
-      </c>
-      <c r="O369">
-        <v>59</v>
-      </c>
-      <c r="P369">
-        <v>43</v>
-      </c>
-      <c r="Q369">
-        <v>4</v>
-      </c>
-      <c r="R369">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="370" spans="1:18">
-      <c r="A370" t="s">
-        <v>386</v>
-      </c>
-      <c r="B370">
-        <v>369</v>
-      </c>
-      <c r="C370">
-        <v>10873</v>
-      </c>
-      <c r="D370">
-        <v>268</v>
-      </c>
-      <c r="E370">
-        <v>168</v>
-      </c>
-      <c r="F370">
-        <v>0.02464821117</v>
-      </c>
-      <c r="G370">
-        <v>10407</v>
-      </c>
-      <c r="H370">
-        <v>20352</v>
-      </c>
-      <c r="I370">
-        <v>31225</v>
-      </c>
-      <c r="J370">
-        <v>28</v>
-      </c>
-      <c r="K370">
-        <v>619</v>
-      </c>
-      <c r="L370">
-        <v>0</v>
-      </c>
-      <c r="M370">
-        <v>619</v>
-      </c>
-      <c r="N370">
-        <v>28</v>
-      </c>
-      <c r="O370">
-        <v>42</v>
-      </c>
-      <c r="P370">
-        <v>44</v>
-      </c>
-      <c r="Q370">
-        <v>3</v>
-      </c>
-      <c r="R370">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="371" spans="1:18">
-      <c r="A371" t="s">
-        <v>387</v>
-      </c>
-      <c r="B371">
-        <v>370</v>
-      </c>
-      <c r="C371">
-        <v>10927</v>
-      </c>
-      <c r="D371">
-        <v>269</v>
-      </c>
-      <c r="E371">
-        <v>113</v>
-      </c>
-      <c r="F371">
-        <v>0.02461791892</v>
-      </c>
-      <c r="G371">
-        <v>10514</v>
-      </c>
-      <c r="H371">
-        <v>20352</v>
-      </c>
-      <c r="I371">
-        <v>31279</v>
-      </c>
-      <c r="J371">
-        <v>54</v>
-      </c>
-      <c r="K371">
-        <v>535</v>
-      </c>
-      <c r="L371">
-        <v>0</v>
-      </c>
-      <c r="M371">
-        <v>535</v>
-      </c>
-      <c r="N371">
-        <v>54</v>
-      </c>
-      <c r="O371">
-        <v>47</v>
-      </c>
-      <c r="P371">
-        <v>45</v>
-      </c>
-      <c r="Q371">
-        <v>1</v>
-      </c>
-      <c r="R371">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="372" spans="1:18">
-      <c r="A372" t="s">
-        <v>388</v>
-      </c>
-      <c r="B372">
-        <v>371</v>
-      </c>
-      <c r="C372">
-        <v>10927</v>
-      </c>
-      <c r="D372">
-        <v>269</v>
-      </c>
-      <c r="E372">
-        <v>113</v>
-      </c>
-      <c r="F372">
-        <v>0.02461791892</v>
-      </c>
-      <c r="G372">
-        <v>10514</v>
-      </c>
-      <c r="H372">
-        <v>20352</v>
-      </c>
-      <c r="I372">
-        <v>31279</v>
-      </c>
-      <c r="J372">
-        <v>0</v>
-      </c>
-      <c r="K372">
-        <v>535</v>
-      </c>
-      <c r="L372">
-        <v>0</v>
-      </c>
-      <c r="M372">
-        <v>535</v>
-      </c>
-      <c r="N372">
-        <v>0</v>
-      </c>
-      <c r="O372">
-        <v>47</v>
-      </c>
-      <c r="P372">
-        <v>45</v>
-      </c>
-      <c r="Q372">
-        <v>0</v>
-      </c>
-      <c r="R372">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="373" spans="1:18">
-      <c r="A373" t="s">
-        <v>389</v>
-      </c>
-      <c r="B373">
-        <v>372</v>
-      </c>
-      <c r="C373">
-        <v>10959</v>
-      </c>
-      <c r="D373">
-        <v>276</v>
-      </c>
-      <c r="E373">
-        <v>87</v>
-      </c>
-      <c r="F373">
-        <v>0.02518477963</v>
-      </c>
-      <c r="G373">
-        <v>10565</v>
-      </c>
-      <c r="H373">
-        <v>20352</v>
-      </c>
-      <c r="I373">
-        <v>31311</v>
-      </c>
-      <c r="J373">
-        <v>32</v>
-      </c>
-      <c r="K373">
-        <v>538</v>
-      </c>
-      <c r="L373">
-        <v>1</v>
-      </c>
-      <c r="M373">
-        <v>537</v>
-      </c>
-      <c r="N373">
-        <v>32</v>
-      </c>
-      <c r="O373">
-        <v>52</v>
-      </c>
-      <c r="P373">
-        <v>44</v>
-      </c>
-      <c r="Q373">
-        <v>7</v>
-      </c>
-      <c r="R373">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="374" spans="1:18">
-      <c r="A374" t="s">
-        <v>390</v>
-      </c>
-      <c r="B374">
-        <v>373</v>
-      </c>
-      <c r="C374">
-        <v>11045</v>
-      </c>
-      <c r="D374">
-        <v>278</v>
-      </c>
-      <c r="E374">
-        <v>98</v>
-      </c>
-      <c r="F374">
-        <v>0.02516976007</v>
-      </c>
-      <c r="G374">
-        <v>10638</v>
-      </c>
-      <c r="H374">
-        <v>20352</v>
-      </c>
-      <c r="I374">
-        <v>31397</v>
-      </c>
-      <c r="J374">
-        <v>86</v>
-      </c>
-      <c r="K374">
-        <v>578</v>
-      </c>
-      <c r="L374">
-        <v>1</v>
-      </c>
-      <c r="M374">
-        <v>577</v>
-      </c>
-      <c r="N374">
-        <v>86</v>
-      </c>
-      <c r="O374">
-        <v>55</v>
-      </c>
-      <c r="P374">
-        <v>44</v>
-      </c>
-      <c r="Q374">
-        <v>2</v>
-      </c>
-      <c r="R374">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="375" spans="1:18">
-      <c r="A375" t="s">
-        <v>391</v>
-      </c>
-      <c r="B375">
-        <v>374</v>
-      </c>
-      <c r="C375">
-        <v>11206</v>
-      </c>
-      <c r="D375">
-        <v>281</v>
-      </c>
-      <c r="E375">
-        <v>112</v>
-      </c>
-      <c r="F375">
-        <v>0.02507585222</v>
-      </c>
-      <c r="G375">
-        <v>10782</v>
-      </c>
-      <c r="H375">
-        <v>20352</v>
-      </c>
-      <c r="I375">
-        <v>31558</v>
-      </c>
-      <c r="J375">
-        <v>14</v>
-      </c>
-      <c r="K375">
-        <v>563</v>
-      </c>
-      <c r="L375">
-        <v>144</v>
-      </c>
-      <c r="M375">
-        <v>0</v>
-      </c>
-      <c r="N375">
-        <v>161</v>
-      </c>
-      <c r="O375">
-        <v>50</v>
-      </c>
-      <c r="P375">
-        <v>47</v>
-      </c>
-      <c r="Q375">
-        <v>3</v>
-      </c>
-      <c r="R375">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="376" spans="1:18">
-      <c r="A376" t="s">
-        <v>392</v>
-      </c>
-      <c r="B376">
-        <v>375</v>
-      </c>
-      <c r="C376">
-        <v>11253</v>
-      </c>
-      <c r="D376">
-        <v>286</v>
-      </c>
-      <c r="E376">
-        <v>116</v>
-      </c>
-      <c r="F376">
-        <v>0.02541544477</v>
-      </c>
-      <c r="G376">
-        <v>10820</v>
-      </c>
-      <c r="H376">
-        <v>20352</v>
-      </c>
-      <c r="I376">
-        <v>31605</v>
-      </c>
-      <c r="J376">
-        <v>47</v>
-      </c>
-      <c r="K376">
-        <v>621</v>
-      </c>
-      <c r="L376">
-        <v>0</v>
-      </c>
-      <c r="M376">
-        <v>621</v>
-      </c>
-      <c r="N376">
-        <v>47</v>
-      </c>
-      <c r="O376">
-        <v>46</v>
-      </c>
-      <c r="P376">
-        <v>41</v>
-      </c>
-      <c r="Q376">
-        <v>5</v>
-      </c>
-      <c r="R376">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="377" spans="1:18">
-      <c r="A377" t="s">
-        <v>393</v>
-      </c>
-      <c r="B377">
-        <v>376</v>
-      </c>
-      <c r="C377">
-        <v>11350</v>
-      </c>
-      <c r="D377">
-        <v>291</v>
-      </c>
-      <c r="E377">
-        <v>142</v>
-      </c>
-      <c r="F377">
-        <v>0.02563876652</v>
-      </c>
-      <c r="G377">
-        <v>10886</v>
-      </c>
-      <c r="H377">
-        <v>20352</v>
-      </c>
-      <c r="I377">
-        <v>31702</v>
-      </c>
-      <c r="J377">
-        <v>97</v>
-      </c>
-      <c r="K377">
-        <v>541</v>
-      </c>
-      <c r="L377">
-        <v>0</v>
-      </c>
-      <c r="M377">
-        <v>541</v>
-      </c>
-      <c r="N377">
-        <v>97</v>
-      </c>
-      <c r="O377">
-        <v>43</v>
-      </c>
-      <c r="P377">
-        <v>44</v>
-      </c>
-      <c r="Q377">
-        <v>5</v>
-      </c>
-      <c r="R377">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="378" spans="1:18">
-      <c r="A378" t="s">
-        <v>394</v>
-      </c>
-      <c r="B378">
-        <v>377</v>
-      </c>
-      <c r="C378">
-        <v>11411</v>
-      </c>
-      <c r="D378">
-        <v>292</v>
-      </c>
-      <c r="E378">
-        <v>130</v>
-      </c>
-      <c r="F378">
-        <v>0.02558934362</v>
-      </c>
-      <c r="G378">
-        <v>10958</v>
-      </c>
-      <c r="H378">
-        <v>20352</v>
-      </c>
-      <c r="I378">
-        <v>31763</v>
-      </c>
-      <c r="J378">
-        <v>61</v>
-      </c>
-      <c r="K378">
-        <v>441</v>
-      </c>
-      <c r="L378">
-        <v>0</v>
-      </c>
-      <c r="M378">
-        <v>441</v>
-      </c>
-      <c r="N378">
-        <v>61</v>
-      </c>
-      <c r="O378">
-        <v>37</v>
-      </c>
-      <c r="P378">
-        <v>43</v>
-      </c>
-      <c r="Q378">
-        <v>1</v>
-      </c>
-      <c r="R378">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="379" spans="1:18">
-      <c r="A379" t="s">
-        <v>395</v>
-      </c>
-      <c r="B379">
-        <v>378</v>
-      </c>
-      <c r="C379">
-        <v>11420</v>
-      </c>
-      <c r="D379">
-        <v>295</v>
-      </c>
-      <c r="E379">
-        <v>121</v>
-      </c>
-      <c r="F379">
-        <v>0.02583187391</v>
-      </c>
-      <c r="G379">
-        <v>10973</v>
-      </c>
-      <c r="H379">
-        <v>20352</v>
-      </c>
-      <c r="I379">
-        <v>31772</v>
-      </c>
-      <c r="J379">
-        <v>9</v>
-      </c>
-      <c r="K379">
-        <v>432</v>
-      </c>
-      <c r="L379">
-        <v>0</v>
-      </c>
-      <c r="M379">
-        <v>432</v>
-      </c>
-      <c r="N379">
-        <v>9</v>
-      </c>
-      <c r="O379">
-        <v>37</v>
-      </c>
-      <c r="P379">
-        <v>41</v>
-      </c>
-      <c r="Q379">
-        <v>3</v>
-      </c>
-      <c r="R379">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="380" spans="1:18">
-      <c r="A380" t="s">
-        <v>396</v>
-      </c>
-      <c r="B380">
-        <v>379</v>
-      </c>
-      <c r="C380">
-        <v>11461</v>
-      </c>
-      <c r="D380">
-        <v>297</v>
-      </c>
-      <c r="E380">
-        <v>112</v>
-      </c>
-      <c r="F380">
-        <v>0.02591396911</v>
-      </c>
-      <c r="G380">
-        <v>11020</v>
-      </c>
-      <c r="H380">
-        <v>22872</v>
-      </c>
-      <c r="I380">
-        <v>34333</v>
-      </c>
-      <c r="J380">
-        <v>41</v>
-      </c>
-      <c r="K380">
-        <v>309</v>
-      </c>
-      <c r="L380">
-        <v>0</v>
-      </c>
-      <c r="M380">
-        <v>309</v>
-      </c>
-      <c r="N380">
-        <v>2561</v>
-      </c>
-      <c r="O380">
-        <v>42</v>
-      </c>
-      <c r="P380">
-        <v>47</v>
-      </c>
-      <c r="Q380">
-        <v>2</v>
-      </c>
-      <c r="R380">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="381" spans="1:18">
-      <c r="A381" t="s">
-        <v>397</v>
-      </c>
-      <c r="B381">
-        <v>380</v>
-      </c>
-      <c r="C381">
-        <v>11542</v>
-      </c>
-      <c r="D381">
-        <v>299</v>
-      </c>
-      <c r="E381">
-        <v>115</v>
-      </c>
-      <c r="F381">
-        <v>0.02590538901</v>
-      </c>
-      <c r="G381">
-        <v>11096</v>
-      </c>
-      <c r="H381">
-        <v>22872</v>
-      </c>
-      <c r="I381">
-        <v>34414</v>
-      </c>
-      <c r="J381">
-        <v>81</v>
-      </c>
-      <c r="K381">
-        <v>333</v>
-      </c>
-      <c r="L381">
-        <v>1</v>
-      </c>
-      <c r="M381">
-        <v>332</v>
-      </c>
-      <c r="N381">
-        <v>81</v>
-      </c>
-      <c r="O381">
-        <v>32</v>
-      </c>
-      <c r="P381">
-        <v>50</v>
-      </c>
-      <c r="Q381">
-        <v>2</v>
-      </c>
-      <c r="R381">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="382" spans="1:18">
-      <c r="A382" t="s">
-        <v>398</v>
-      </c>
-      <c r="B382">
-        <v>381</v>
-      </c>
-      <c r="C382">
-        <v>11620</v>
-      </c>
-      <c r="D382">
-        <v>303</v>
-      </c>
-      <c r="E382">
-        <v>157</v>
-      </c>
-      <c r="F382">
-        <v>0.0260757315</v>
-      </c>
-      <c r="G382">
-        <v>11127</v>
-      </c>
-      <c r="H382">
-        <v>22872</v>
-      </c>
-      <c r="I382">
-        <v>34492</v>
-      </c>
-      <c r="J382">
-        <v>78</v>
-      </c>
-      <c r="K382">
-        <v>297</v>
-      </c>
-      <c r="L382">
-        <v>1</v>
-      </c>
-      <c r="M382">
-        <v>296</v>
-      </c>
-      <c r="N382">
-        <v>78</v>
-      </c>
-      <c r="O382">
-        <v>29</v>
-      </c>
-      <c r="P382">
-        <v>49</v>
-      </c>
-      <c r="Q382">
-        <v>4</v>
-      </c>
-      <c r="R382">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="383" spans="1:18">
-      <c r="A383" t="s">
-        <v>399</v>
-      </c>
-      <c r="B383">
-        <v>382</v>
-      </c>
-      <c r="C383">
-        <v>11638</v>
-      </c>
-      <c r="D383">
-        <v>305</v>
-      </c>
-      <c r="E383">
-        <v>147</v>
-      </c>
-      <c r="F383">
-        <v>0.02620725211</v>
-      </c>
-      <c r="G383">
-        <v>11153</v>
-      </c>
-      <c r="H383">
-        <v>22872</v>
-      </c>
-      <c r="I383">
-        <v>34510</v>
-      </c>
-      <c r="J383">
-        <v>18</v>
-      </c>
-      <c r="K383">
-        <v>311</v>
-      </c>
-      <c r="L383">
-        <v>2</v>
-      </c>
-      <c r="M383">
-        <v>309</v>
-      </c>
-      <c r="N383">
-        <v>18</v>
-      </c>
-      <c r="O383">
-        <v>33</v>
-      </c>
-      <c r="P383">
-        <v>46</v>
-      </c>
-      <c r="Q383">
-        <v>2</v>
-      </c>
-      <c r="R383">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="384" spans="1:18">
-      <c r="A384" t="s">
-        <v>400</v>
-      </c>
-      <c r="B384">
-        <v>383</v>
-      </c>
-      <c r="C384">
-        <v>11710</v>
-      </c>
-      <c r="D384">
-        <v>306</v>
-      </c>
-      <c r="E384">
-        <v>148</v>
-      </c>
-      <c r="F384">
-        <v>0.02613151153</v>
-      </c>
-      <c r="G384">
-        <v>11221</v>
-      </c>
-      <c r="H384">
-        <v>22872</v>
-      </c>
-      <c r="I384">
-        <v>34582</v>
-      </c>
-      <c r="J384">
-        <v>72</v>
-      </c>
-      <c r="K384">
-        <v>242</v>
-      </c>
-      <c r="L384">
-        <v>1</v>
-      </c>
-      <c r="M384">
-        <v>241</v>
-      </c>
-      <c r="N384">
-        <v>72</v>
-      </c>
-      <c r="O384">
-        <v>37</v>
-      </c>
-      <c r="P384">
-        <v>45</v>
-      </c>
-      <c r="Q384">
-        <v>1</v>
-      </c>
-      <c r="R384">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="385" spans="1:18">
-      <c r="A385" t="s">
-        <v>401</v>
-      </c>
-      <c r="B385">
-        <v>384</v>
-      </c>
-      <c r="C385">
-        <v>11746</v>
-      </c>
-      <c r="D385">
-        <v>309</v>
-      </c>
-      <c r="E385">
-        <v>144</v>
-      </c>
-      <c r="F385">
-        <v>0.02630682786</v>
-      </c>
-      <c r="G385">
-        <v>11258</v>
-      </c>
-      <c r="H385">
-        <v>22872</v>
-      </c>
-      <c r="I385">
-        <v>34618</v>
-      </c>
-      <c r="J385">
-        <v>36</v>
-      </c>
-      <c r="K385">
-        <v>241</v>
-      </c>
-      <c r="L385">
-        <v>0</v>
-      </c>
-      <c r="M385">
-        <v>241</v>
-      </c>
-      <c r="N385">
-        <v>36</v>
-      </c>
-      <c r="O385">
-        <v>38</v>
-      </c>
-      <c r="P385">
-        <v>44</v>
-      </c>
-      <c r="Q385">
-        <v>3</v>
-      </c>
-      <c r="R385">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="386" spans="1:18">
-      <c r="A386" t="s">
-        <v>402</v>
-      </c>
-      <c r="B386">
-        <v>385</v>
-      </c>
-      <c r="C386">
-        <v>11750</v>
-      </c>
-      <c r="D386">
-        <v>310</v>
-      </c>
-      <c r="E386">
-        <v>145</v>
-      </c>
-      <c r="F386">
-        <v>0.02638297872</v>
-      </c>
-      <c r="G386">
-        <v>11260</v>
-      </c>
-      <c r="H386">
-        <v>22872</v>
-      </c>
-      <c r="I386">
-        <v>34622</v>
-      </c>
-      <c r="J386">
-        <v>4</v>
-      </c>
-      <c r="K386">
-        <v>241</v>
-      </c>
-      <c r="L386">
-        <v>0</v>
-      </c>
-      <c r="M386">
-        <v>241</v>
-      </c>
-      <c r="N386">
-        <v>4</v>
-      </c>
-      <c r="O386">
-        <v>39</v>
-      </c>
-      <c r="P386">
-        <v>44</v>
-      </c>
-      <c r="Q386">
-        <v>1</v>
-      </c>
-      <c r="R386">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="387" spans="1:18">
-      <c r="A387" t="s">
-        <v>403</v>
-      </c>
-      <c r="B387">
-        <v>386</v>
-      </c>
-      <c r="C387">
-        <v>11815</v>
-      </c>
-      <c r="D387">
-        <v>313</v>
-      </c>
-      <c r="E387">
-        <v>156</v>
-      </c>
-      <c r="F387">
-        <v>0.02649174778</v>
-      </c>
-      <c r="G387">
-        <v>11311</v>
-      </c>
-      <c r="H387">
-        <v>22872</v>
-      </c>
-      <c r="I387">
-        <v>34687</v>
-      </c>
-      <c r="J387">
-        <v>65</v>
-      </c>
-      <c r="K387">
-        <v>160</v>
-      </c>
-      <c r="L387">
-        <v>0</v>
-      </c>
-      <c r="M387">
-        <v>160</v>
-      </c>
-      <c r="N387">
-        <v>65</v>
-      </c>
-      <c r="O387">
-        <v>42</v>
-      </c>
-      <c r="P387">
-        <v>46</v>
-      </c>
-      <c r="Q387">
-        <v>3</v>
-      </c>
-      <c r="R387">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="388" spans="1:18">
-      <c r="A388" t="s">
-        <v>404</v>
-      </c>
-      <c r="B388">
-        <v>387</v>
-      </c>
-      <c r="C388">
-        <v>11890</v>
-      </c>
-      <c r="D388">
-        <v>313</v>
-      </c>
-      <c r="E388">
-        <v>155</v>
-      </c>
-      <c r="F388">
-        <v>0.02632464256</v>
-      </c>
-      <c r="G388">
-        <v>11387</v>
-      </c>
-      <c r="H388">
-        <v>22872</v>
-      </c>
-      <c r="I388">
-        <v>34762</v>
-      </c>
-      <c r="J388">
-        <v>75</v>
-      </c>
-      <c r="K388">
-        <v>256</v>
-      </c>
-      <c r="L388">
-        <v>0</v>
-      </c>
-      <c r="M388">
-        <v>256</v>
-      </c>
-      <c r="N388">
-        <v>75</v>
-      </c>
-      <c r="O388">
-        <v>42</v>
-      </c>
-      <c r="P388">
-        <v>47</v>
-      </c>
-      <c r="Q388">
-        <v>0</v>
-      </c>
-      <c r="R388">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="389" spans="1:18">
-      <c r="A389" t="s">
-        <v>405</v>
-      </c>
-      <c r="B389">
-        <v>388</v>
-      </c>
-      <c r="C389">
-        <v>11914</v>
-      </c>
-      <c r="D389">
-        <v>314</v>
-      </c>
-      <c r="E389">
-        <v>149</v>
-      </c>
-      <c r="F389">
-        <v>0.02635554809</v>
-      </c>
-      <c r="G389">
-        <v>11416</v>
-      </c>
-      <c r="H389">
-        <v>22872</v>
-      </c>
-      <c r="I389">
-        <v>34786</v>
-      </c>
-      <c r="J389">
-        <v>24</v>
-      </c>
-      <c r="K389">
-        <v>171</v>
-      </c>
-      <c r="L389">
-        <v>0</v>
-      </c>
-      <c r="M389">
-        <v>171</v>
-      </c>
-      <c r="N389">
-        <v>24</v>
-      </c>
-      <c r="O389">
-        <v>44</v>
-      </c>
-      <c r="P389">
-        <v>44</v>
-      </c>
-      <c r="Q389">
-        <v>1</v>
-      </c>
-      <c r="R389">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="390" spans="1:18">
-      <c r="A390" t="s">
-        <v>406</v>
-      </c>
-      <c r="B390">
-        <v>389</v>
-      </c>
-      <c r="C390">
-        <v>11957</v>
-      </c>
-      <c r="D390">
-        <v>315</v>
-      </c>
-      <c r="E390">
-        <v>174</v>
-      </c>
-      <c r="F390">
-        <v>0.02634440077</v>
-      </c>
-      <c r="G390">
-        <v>11431</v>
-      </c>
-      <c r="H390">
-        <v>22872</v>
-      </c>
-      <c r="I390">
-        <v>34829</v>
-      </c>
-      <c r="J390">
-        <v>43</v>
-      </c>
-      <c r="K390">
-        <v>155</v>
-      </c>
-      <c r="L390">
-        <v>0</v>
-      </c>
-      <c r="M390">
-        <v>155</v>
-      </c>
-      <c r="N390">
-        <v>43</v>
-      </c>
-      <c r="O390">
-        <v>48</v>
-      </c>
-      <c r="P390">
-        <v>42</v>
-      </c>
-      <c r="Q390">
-        <v>1</v>
-      </c>
-      <c r="R390">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="391" spans="1:18">
-      <c r="A391" t="s">
-        <v>407</v>
-      </c>
-      <c r="B391">
-        <v>390</v>
-      </c>
-      <c r="C391">
-        <v>12020</v>
-      </c>
-      <c r="D391">
-        <v>315</v>
-      </c>
-      <c r="E391">
-        <v>160</v>
-      </c>
-      <c r="F391">
-        <v>0.0262063228</v>
-      </c>
-      <c r="G391">
-        <v>11508</v>
-      </c>
-      <c r="H391">
-        <v>22872</v>
-      </c>
-      <c r="I391">
-        <v>34892</v>
-      </c>
-      <c r="J391">
-        <v>63</v>
-      </c>
-      <c r="K391">
-        <v>182</v>
-      </c>
-      <c r="L391">
-        <v>0</v>
-      </c>
-      <c r="M391">
-        <v>182</v>
-      </c>
-      <c r="N391">
-        <v>63</v>
-      </c>
-      <c r="O391">
-        <v>45</v>
-      </c>
-      <c r="P391">
-        <v>46</v>
-      </c>
-      <c r="Q391">
-        <v>0</v>
-      </c>
-      <c r="R391">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="392" spans="1:18">
-      <c r="A392" t="s">
-        <v>408</v>
-      </c>
-      <c r="B392">
-        <v>391</v>
-      </c>
-      <c r="C392">
-        <v>12045</v>
-      </c>
-      <c r="D392">
-        <v>319</v>
-      </c>
-      <c r="E392">
-        <v>126</v>
-      </c>
-      <c r="F392">
-        <v>0.02648401826</v>
-      </c>
-      <c r="G392">
-        <v>11563</v>
-      </c>
-      <c r="H392">
-        <v>22872</v>
-      </c>
-      <c r="I392">
-        <v>34917</v>
-      </c>
-      <c r="J392">
-        <v>25</v>
-      </c>
-      <c r="K392">
-        <v>173</v>
-      </c>
-      <c r="L392">
-        <v>0</v>
-      </c>
-      <c r="M392">
-        <v>173</v>
-      </c>
-      <c r="N392">
-        <v>25</v>
-      </c>
-      <c r="O392">
-        <v>47</v>
-      </c>
-      <c r="P392">
-        <v>46</v>
-      </c>
-      <c r="Q392">
-        <v>4</v>
-      </c>
-      <c r="R392">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="393" spans="1:18">
-      <c r="A393" t="s">
-        <v>409</v>
-      </c>
-      <c r="B393">
-        <v>392</v>
-      </c>
-      <c r="C393">
-        <v>12048</v>
-      </c>
-      <c r="D393">
-        <v>321</v>
-      </c>
-      <c r="E393">
-        <v>125</v>
-      </c>
-      <c r="F393">
-        <v>0.02664342629</v>
-      </c>
-      <c r="G393">
-        <v>11565</v>
-      </c>
-      <c r="H393">
-        <v>22872</v>
-      </c>
-      <c r="I393">
-        <v>34920</v>
-      </c>
-      <c r="J393">
-        <v>3</v>
-      </c>
-      <c r="K393">
-        <v>173</v>
-      </c>
-      <c r="L393">
-        <v>0</v>
-      </c>
-      <c r="M393">
-        <v>173</v>
-      </c>
-      <c r="N393">
-        <v>3</v>
-      </c>
-      <c r="O393">
-        <v>47</v>
-      </c>
-      <c r="P393">
-        <v>44</v>
-      </c>
-      <c r="Q393">
-        <v>2</v>
-      </c>
-      <c r="R393">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="394" spans="1:18">
-      <c r="A394" t="s">
-        <v>410</v>
-      </c>
-      <c r="B394">
-        <v>393</v>
-      </c>
-      <c r="C394">
-        <v>12130</v>
-      </c>
-      <c r="D394">
-        <v>324</v>
-      </c>
-      <c r="E394">
-        <v>141</v>
-      </c>
-      <c r="F394">
-        <v>0.02671063479</v>
-      </c>
-      <c r="G394">
-        <v>11628</v>
-      </c>
-      <c r="H394">
-        <v>22872</v>
-      </c>
-      <c r="I394">
-        <v>35002</v>
-      </c>
-      <c r="J394">
-        <v>82</v>
-      </c>
-      <c r="K394">
-        <v>135</v>
-      </c>
-      <c r="L394">
-        <v>0</v>
-      </c>
-      <c r="M394">
-        <v>135</v>
-      </c>
-      <c r="N394">
-        <v>82</v>
-      </c>
-      <c r="O394">
-        <v>47</v>
-      </c>
-      <c r="P394">
-        <v>43</v>
-      </c>
-      <c r="Q394">
-        <v>3</v>
-      </c>
-      <c r="R394">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="395" spans="1:18">
-      <c r="A395" t="s">
-        <v>411</v>
-      </c>
-      <c r="B395">
-        <v>394</v>
-      </c>
-      <c r="C395">
-        <v>12224</v>
-      </c>
-      <c r="D395">
-        <v>324</v>
-      </c>
-      <c r="E395">
-        <v>183</v>
-      </c>
-      <c r="F395">
-        <v>0.0265052356</v>
-      </c>
-      <c r="G395">
-        <v>11680</v>
-      </c>
-      <c r="H395">
-        <v>22872</v>
-      </c>
-      <c r="I395">
-        <v>35096</v>
-      </c>
-      <c r="J395">
-        <v>94</v>
-      </c>
-      <c r="K395">
-        <v>181</v>
-      </c>
-      <c r="L395">
-        <v>0</v>
-      </c>
-      <c r="M395">
-        <v>181</v>
-      </c>
-      <c r="N395">
-        <v>94</v>
-      </c>
-      <c r="O395">
-        <v>49</v>
-      </c>
-      <c r="P395">
-        <v>46</v>
-      </c>
-      <c r="Q395">
-        <v>0</v>
-      </c>
-      <c r="R395">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="396" spans="1:18">
-      <c r="A396" t="s">
-        <v>412</v>
-      </c>
-      <c r="B396">
-        <v>395</v>
-      </c>
-      <c r="C396">
-        <v>12285</v>
-      </c>
-      <c r="D396">
-        <v>327</v>
-      </c>
-      <c r="E396">
-        <v>189</v>
-      </c>
-      <c r="F396">
-        <v>0.02661782662</v>
-      </c>
-      <c r="G396">
-        <v>11732</v>
-      </c>
-      <c r="H396">
-        <v>22872</v>
-      </c>
-      <c r="I396">
-        <v>35157</v>
-      </c>
-      <c r="J396">
-        <v>61</v>
-      </c>
-      <c r="K396">
-        <v>202</v>
-      </c>
-      <c r="L396">
-        <v>0</v>
-      </c>
-      <c r="M396">
-        <v>202</v>
-      </c>
-      <c r="N396">
-        <v>61</v>
-      </c>
-      <c r="O396">
-        <v>48</v>
-      </c>
-      <c r="P396">
-        <v>45</v>
-      </c>
-      <c r="Q396">
-        <v>3</v>
-      </c>
-      <c r="R396">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="397" spans="1:18">
-      <c r="A397" t="s">
-        <v>413</v>
-      </c>
-      <c r="B397">
-        <v>396</v>
-      </c>
-      <c r="C397">
-        <v>12311</v>
-      </c>
-      <c r="D397">
-        <v>328</v>
-      </c>
-      <c r="E397">
-        <v>170</v>
-      </c>
-      <c r="F397">
-        <v>0.02664283974</v>
-      </c>
-      <c r="G397">
-        <v>11775</v>
-      </c>
-      <c r="H397">
-        <v>22872</v>
-      </c>
-      <c r="I397">
-        <v>35183</v>
-      </c>
-      <c r="J397">
-        <v>26</v>
-      </c>
-      <c r="K397">
-        <v>240</v>
-      </c>
-      <c r="L397">
-        <v>0</v>
-      </c>
-      <c r="M397">
-        <v>240</v>
-      </c>
-      <c r="N397">
-        <v>26</v>
-      </c>
-      <c r="O397">
-        <v>39</v>
-      </c>
-      <c r="P397">
-        <v>44</v>
-      </c>
-      <c r="Q397">
-        <v>1</v>
-      </c>
-      <c r="R397">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="398" spans="1:18">
-      <c r="A398" t="s">
-        <v>414</v>
-      </c>
-      <c r="B398">
-        <v>397</v>
-      </c>
-      <c r="C398">
-        <v>12330</v>
-      </c>
-      <c r="D398">
-        <v>330</v>
-      </c>
-      <c r="E398">
-        <v>156</v>
-      </c>
-      <c r="F398">
-        <v>0.02676399027</v>
-      </c>
-      <c r="G398">
-        <v>11806</v>
-      </c>
-      <c r="H398">
-        <v>22872</v>
-      </c>
-      <c r="I398">
-        <v>35202</v>
-      </c>
-      <c r="J398">
-        <v>19</v>
-      </c>
-      <c r="K398">
-        <v>297</v>
-      </c>
-      <c r="L398">
-        <v>0</v>
-      </c>
-      <c r="M398">
-        <v>297</v>
-      </c>
-      <c r="N398">
-        <v>19</v>
-      </c>
-      <c r="O398">
-        <v>41</v>
-      </c>
-      <c r="P398">
-        <v>46</v>
-      </c>
-      <c r="Q398">
-        <v>2</v>
-      </c>
-      <c r="R398">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="399" spans="1:18">
-      <c r="A399" t="s">
-        <v>415</v>
-      </c>
-      <c r="B399">
-        <v>398</v>
-      </c>
-      <c r="C399">
-        <v>12330</v>
-      </c>
-      <c r="D399">
-        <v>330</v>
-      </c>
-      <c r="E399">
-        <v>156</v>
-      </c>
-      <c r="F399">
-        <v>0.02676399027</v>
-      </c>
-      <c r="G399">
-        <v>11806</v>
-      </c>
-      <c r="H399">
-        <v>22872</v>
-      </c>
-      <c r="I399">
-        <v>35202</v>
-      </c>
-      <c r="J399">
-        <v>0</v>
-      </c>
-      <c r="K399">
-        <v>297</v>
-      </c>
-      <c r="L399">
-        <v>0</v>
-      </c>
-      <c r="M399">
-        <v>297</v>
-      </c>
-      <c r="N399">
-        <v>0</v>
-      </c>
-      <c r="O399">
-        <v>41</v>
-      </c>
-      <c r="P399">
-        <v>46</v>
-      </c>
-      <c r="Q399">
-        <v>0</v>
-      </c>
-      <c r="R399">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="400" spans="1:18">
-      <c r="A400" t="s">
-        <v>416</v>
-      </c>
-      <c r="B400">
-        <v>399</v>
-      </c>
-      <c r="C400">
-        <v>12330</v>
-      </c>
-      <c r="D400">
-        <v>330</v>
-      </c>
-      <c r="E400">
-        <v>156</v>
-      </c>
-      <c r="F400">
-        <v>0.02676399027</v>
-      </c>
-      <c r="G400">
-        <v>11806</v>
-      </c>
-      <c r="H400">
-        <v>22872</v>
-      </c>
-      <c r="I400">
-        <v>35202</v>
-      </c>
-      <c r="J400">
-        <v>0</v>
-      </c>
-      <c r="K400">
-        <v>297</v>
-      </c>
-      <c r="L400">
-        <v>0</v>
-      </c>
-      <c r="M400">
-        <v>297</v>
-      </c>
-      <c r="N400">
-        <v>0</v>
-      </c>
-      <c r="O400">
-        <v>41</v>
-      </c>
-      <c r="P400">
-        <v>46</v>
-      </c>
-      <c r="Q400">
-        <v>0</v>
-      </c>
-      <c r="R400">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="401" spans="1:18">
-      <c r="A401" t="s">
-        <v>417</v>
-      </c>
-      <c r="B401">
-        <v>400</v>
-      </c>
-      <c r="C401">
-        <v>12357</v>
-      </c>
-      <c r="D401">
-        <v>344</v>
-      </c>
-      <c r="E401">
-        <v>96</v>
-      </c>
-      <c r="F401">
-        <v>0.02783847212</v>
-      </c>
-      <c r="G401">
-        <v>11878</v>
-      </c>
-      <c r="H401">
-        <v>22872</v>
-      </c>
-      <c r="I401">
-        <v>35229</v>
-      </c>
-      <c r="J401">
-        <v>27</v>
-      </c>
-      <c r="K401">
-        <v>307</v>
-      </c>
-      <c r="L401">
-        <v>0</v>
-      </c>
-      <c r="M401">
-        <v>307</v>
-      </c>
-      <c r="N401">
-        <v>27</v>
-      </c>
-      <c r="O401">
-        <v>37</v>
-      </c>
-      <c r="P401">
-        <v>36</v>
-      </c>
-      <c r="Q401">
-        <v>14</v>
-      </c>
-      <c r="R401">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="402" spans="1:18">
-      <c r="A402" t="s">
-        <v>418</v>
-      </c>
-      <c r="B402">
-        <v>401</v>
-      </c>
-      <c r="C402">
-        <v>12434</v>
-      </c>
-      <c r="D402">
-        <v>345</v>
-      </c>
-      <c r="E402">
-        <v>122</v>
-      </c>
-      <c r="F402">
-        <v>0.02774650153</v>
-      </c>
-      <c r="G402">
-        <v>11928</v>
-      </c>
-      <c r="H402">
-        <v>22872</v>
-      </c>
-      <c r="I402">
-        <v>35306</v>
-      </c>
-      <c r="J402">
-        <v>77</v>
-      </c>
-      <c r="K402">
-        <v>342</v>
-      </c>
-      <c r="L402">
-        <v>0</v>
-      </c>
-      <c r="M402">
-        <v>342</v>
-      </c>
-      <c r="N402">
-        <v>77</v>
-      </c>
-      <c r="O402">
-        <v>34</v>
-      </c>
-      <c r="P402">
-        <v>44</v>
-      </c>
-      <c r="Q402">
-        <v>1</v>
-      </c>
-      <c r="R402">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="403" spans="1:18">
-      <c r="A403" t="s">
-        <v>419</v>
-      </c>
-      <c r="B403">
-        <v>402</v>
-      </c>
-      <c r="C403">
-        <v>12482</v>
-      </c>
-      <c r="D403">
-        <v>350</v>
-      </c>
-      <c r="E403">
-        <v>135</v>
-      </c>
-      <c r="F403">
-        <v>0.02804037814</v>
-      </c>
-      <c r="G403">
-        <v>11958</v>
-      </c>
-      <c r="H403">
-        <v>22872</v>
-      </c>
-      <c r="I403">
-        <v>35354</v>
-      </c>
-      <c r="J403">
-        <v>48</v>
-      </c>
-      <c r="K403">
-        <v>335</v>
-      </c>
-      <c r="L403">
-        <v>0</v>
-      </c>
-      <c r="M403">
-        <v>335</v>
-      </c>
-      <c r="N403">
-        <v>48</v>
-      </c>
-      <c r="O403">
-        <v>33</v>
-      </c>
-      <c r="P403">
-        <v>40</v>
-      </c>
-      <c r="Q403">
-        <v>5</v>
-      </c>
-      <c r="R403">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="404" spans="1:18">
-      <c r="A404" t="s">
-        <v>420</v>
-      </c>
-      <c r="B404">
-        <v>403</v>
-      </c>
-      <c r="C404">
-        <v>12513</v>
-      </c>
-      <c r="D404">
-        <v>353</v>
-      </c>
-      <c r="E404">
-        <v>143</v>
-      </c>
-      <c r="F404">
-        <v>0.02821066091</v>
-      </c>
-      <c r="G404">
-        <v>11978</v>
-      </c>
-      <c r="H404">
-        <v>22872</v>
-      </c>
-      <c r="I404">
-        <v>35385</v>
-      </c>
-      <c r="J404">
-        <v>31</v>
-      </c>
-      <c r="K404">
-        <v>230</v>
-      </c>
-      <c r="L404">
-        <v>0</v>
-      </c>
-      <c r="M404">
-        <v>230</v>
-      </c>
-      <c r="N404">
-        <v>31</v>
-      </c>
-      <c r="O404">
-        <v>36</v>
-      </c>
-      <c r="P404">
-        <v>44</v>
-      </c>
-      <c r="Q404">
-        <v>3</v>
-      </c>
-      <c r="R404">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="405" spans="1:18">
-      <c r="A405" t="s">
-        <v>421</v>
-      </c>
-      <c r="B405">
-        <v>404</v>
-      </c>
-      <c r="C405">
-        <v>12594</v>
-      </c>
-      <c r="D405">
-        <v>355</v>
-      </c>
-      <c r="E405">
-        <v>136</v>
-      </c>
-      <c r="F405">
-        <v>0.02818802604</v>
-      </c>
-      <c r="G405">
-        <v>12064</v>
-      </c>
-      <c r="H405">
-        <v>22872</v>
-      </c>
-      <c r="I405">
-        <v>35466</v>
-      </c>
-      <c r="J405">
-        <v>81</v>
-      </c>
-      <c r="K405">
-        <v>229</v>
-      </c>
-      <c r="L405">
-        <v>1</v>
-      </c>
-      <c r="M405">
-        <v>228</v>
-      </c>
-      <c r="N405">
-        <v>81</v>
-      </c>
-      <c r="O405">
-        <v>40</v>
-      </c>
-      <c r="P405">
-        <v>42</v>
-      </c>
-      <c r="Q405">
-        <v>2</v>
-      </c>
-      <c r="R405">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="406" spans="1:18">
-      <c r="A406" t="s">
-        <v>422</v>
-      </c>
-      <c r="B406">
-        <v>405</v>
-      </c>
-      <c r="C406">
-        <v>12632</v>
-      </c>
-      <c r="D406">
-        <v>355</v>
-      </c>
-      <c r="E406">
-        <v>137</v>
-      </c>
-      <c r="F406">
-        <v>0.02810322988999999</v>
-      </c>
-      <c r="G406">
-        <v>12101</v>
-      </c>
-      <c r="H406">
-        <v>22872</v>
-      </c>
-      <c r="I406">
-        <v>35504</v>
-      </c>
-      <c r="J406">
-        <v>38</v>
-      </c>
-      <c r="K406">
-        <v>209</v>
-      </c>
-      <c r="L406">
-        <v>1</v>
-      </c>
-      <c r="M406">
-        <v>208</v>
-      </c>
-      <c r="N406">
-        <v>38</v>
-      </c>
-      <c r="O406">
-        <v>37</v>
-      </c>
-      <c r="P406">
-        <v>42</v>
-      </c>
-      <c r="Q406">
-        <v>0</v>
-      </c>
-      <c r="R406">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="407" spans="1:18">
-      <c r="A407" t="s">
-        <v>423</v>
-      </c>
-      <c r="B407">
-        <v>406</v>
-      </c>
-      <c r="C407">
-        <v>12649</v>
-      </c>
-      <c r="D407">
-        <v>355</v>
-      </c>
-      <c r="E407">
-        <v>149</v>
-      </c>
-      <c r="F407">
-        <v>0.02806545972</v>
-      </c>
-      <c r="G407">
-        <v>12102</v>
-      </c>
-      <c r="H407">
-        <v>22872</v>
-      </c>
-      <c r="I407">
-        <v>35521</v>
-      </c>
-      <c r="J407">
-        <v>17</v>
-      </c>
-      <c r="K407">
-        <v>211</v>
-      </c>
-      <c r="L407">
-        <v>1</v>
-      </c>
-      <c r="M407">
-        <v>210</v>
-      </c>
-      <c r="N407">
-        <v>17</v>
-      </c>
-      <c r="O407">
-        <v>39</v>
-      </c>
-      <c r="P407">
-        <v>42</v>
-      </c>
-      <c r="Q407">
-        <v>0</v>
-      </c>
-      <c r="R407">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="408" spans="1:18">
-      <c r="A408" t="s">
-        <v>424</v>
-      </c>
-      <c r="B408">
-        <v>407</v>
-      </c>
-      <c r="C408">
-        <v>12719</v>
-      </c>
-      <c r="D408">
-        <v>356</v>
-      </c>
-      <c r="E408">
-        <v>133</v>
-      </c>
-      <c r="F408">
-        <v>0.02798962183</v>
-      </c>
-      <c r="G408">
-        <v>12191</v>
-      </c>
-      <c r="H408">
-        <v>22872</v>
-      </c>
-      <c r="I408">
-        <v>35591</v>
-      </c>
-      <c r="J408">
-        <v>70</v>
-      </c>
-      <c r="K408">
-        <v>95</v>
-      </c>
-      <c r="L408">
-        <v>1</v>
-      </c>
-      <c r="M408">
-        <v>94</v>
-      </c>
-      <c r="N408">
-        <v>70</v>
-      </c>
-      <c r="O408">
-        <v>40</v>
-      </c>
-      <c r="P408">
-        <v>42</v>
-      </c>
-      <c r="Q408">
-        <v>1</v>
-      </c>
-      <c r="R408">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="409" spans="1:18">
-      <c r="A409" t="s">
-        <v>425</v>
-      </c>
-      <c r="B409">
-        <v>408</v>
-      </c>
-      <c r="C409">
-        <v>12769</v>
-      </c>
-      <c r="D409">
-        <v>362</v>
-      </c>
-      <c r="E409">
-        <v>130</v>
-      </c>
-      <c r="F409">
-        <v>0.02834990994</v>
-      </c>
-      <c r="G409">
-        <v>12237</v>
-      </c>
-      <c r="H409">
-        <v>22872</v>
-      </c>
-      <c r="I409">
-        <v>35641</v>
-      </c>
-      <c r="J409">
-        <v>50</v>
-      </c>
-      <c r="K409">
-        <v>138</v>
-      </c>
-      <c r="L409">
-        <v>0</v>
-      </c>
-      <c r="M409">
-        <v>138</v>
-      </c>
-      <c r="N409">
-        <v>50</v>
-      </c>
-      <c r="O409">
-        <v>34</v>
-      </c>
-      <c r="P409">
-        <v>42</v>
-      </c>
-      <c r="Q409">
-        <v>6</v>
-      </c>
-      <c r="R409">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="410" spans="1:18">
-      <c r="A410" t="s">
-        <v>426</v>
-      </c>
-      <c r="B410">
-        <v>409</v>
-      </c>
-      <c r="C410">
-        <v>12811</v>
-      </c>
-      <c r="D410">
-        <v>362</v>
-      </c>
-      <c r="E410">
-        <v>140</v>
-      </c>
-      <c r="F410">
-        <v>0.02825696667</v>
-      </c>
-      <c r="G410">
-        <v>12238</v>
-      </c>
-      <c r="H410">
-        <v>22872</v>
-      </c>
-      <c r="I410">
-        <v>35683</v>
-      </c>
-      <c r="J410">
-        <v>42</v>
-      </c>
-      <c r="K410">
-        <v>202</v>
-      </c>
-      <c r="L410">
-        <v>0</v>
-      </c>
-      <c r="M410">
-        <v>202</v>
-      </c>
-      <c r="N410">
-        <v>42</v>
-      </c>
-      <c r="O410">
-        <v>32</v>
-      </c>
-      <c r="P410">
-        <v>42</v>
-      </c>
-      <c r="Q410">
-        <v>0</v>
-      </c>
-      <c r="R410">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="411" spans="1:18">
-      <c r="A411" t="s">
-        <v>427</v>
-      </c>
-      <c r="B411">
-        <v>410</v>
-      </c>
-      <c r="C411">
-        <v>12941</v>
-      </c>
-      <c r="D411">
-        <v>362</v>
-      </c>
-      <c r="E411">
-        <v>190</v>
-      </c>
-      <c r="F411">
-        <v>0.02797310872</v>
-      </c>
-      <c r="G411">
-        <v>12349</v>
-      </c>
-      <c r="H411">
-        <v>22872</v>
-      </c>
-      <c r="I411">
-        <v>35813</v>
-      </c>
-      <c r="J411">
-        <v>130</v>
-      </c>
-      <c r="K411">
-        <v>270</v>
-      </c>
-      <c r="L411">
-        <v>1</v>
-      </c>
-      <c r="M411">
-        <v>269</v>
-      </c>
-      <c r="N411">
-        <v>130</v>
-      </c>
-      <c r="O411">
-        <v>29</v>
-      </c>
-      <c r="P411">
-        <v>44</v>
-      </c>
-      <c r="Q411">
-        <v>0</v>
-      </c>
-      <c r="R411">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="412" spans="1:18">
-      <c r="A412" t="s">
-        <v>428</v>
-      </c>
-      <c r="B412">
-        <v>411</v>
-      </c>
-      <c r="C412">
-        <v>13061</v>
-      </c>
-      <c r="D412">
-        <v>366</v>
-      </c>
-      <c r="E412">
-        <v>236</v>
-      </c>
-      <c r="F412">
-        <v>0.02802235663</v>
-      </c>
-      <c r="G412">
-        <v>12419</v>
-      </c>
-      <c r="H412">
-        <v>22872</v>
-      </c>
-      <c r="I412">
-        <v>35933</v>
-      </c>
-      <c r="J412">
-        <v>120</v>
-      </c>
-      <c r="K412">
-        <v>325</v>
-      </c>
-      <c r="L412">
-        <v>0</v>
-      </c>
-      <c r="M412">
-        <v>325</v>
-      </c>
-      <c r="N412">
-        <v>120</v>
-      </c>
-      <c r="O412">
-        <v>40</v>
-      </c>
-      <c r="P412">
-        <v>39</v>
-      </c>
-      <c r="Q412">
-        <v>4</v>
-      </c>
-      <c r="R412">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="413" spans="1:18">
-      <c r="A413" t="s">
-        <v>429</v>
-      </c>
-      <c r="B413">
-        <v>412</v>
-      </c>
-      <c r="C413">
-        <v>13075</v>
-      </c>
-      <c r="D413">
-        <v>368</v>
-      </c>
-      <c r="E413">
-        <v>219</v>
-      </c>
-      <c r="F413">
-        <v>0.02814531549</v>
-      </c>
-      <c r="G413">
-        <v>12447</v>
-      </c>
-      <c r="H413">
-        <v>22872</v>
-      </c>
-      <c r="I413">
-        <v>35947</v>
-      </c>
-      <c r="J413">
-        <v>14</v>
-      </c>
-      <c r="K413">
-        <v>323</v>
-      </c>
-      <c r="L413">
-        <v>0</v>
-      </c>
-      <c r="M413">
-        <v>323</v>
-      </c>
-      <c r="N413">
-        <v>14</v>
-      </c>
-      <c r="O413">
-        <v>46</v>
-      </c>
-      <c r="P413">
-        <v>39</v>
-      </c>
-      <c r="Q413">
-        <v>2</v>
-      </c>
-      <c r="R413">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="414" spans="1:18">
-      <c r="A414" t="s">
-        <v>430</v>
-      </c>
-      <c r="B414">
-        <v>413</v>
-      </c>
-      <c r="C414">
-        <v>13084</v>
-      </c>
-      <c r="D414">
-        <v>368</v>
-      </c>
-      <c r="E414">
-        <v>223</v>
-      </c>
-      <c r="F414">
-        <v>0.02812595537</v>
-      </c>
-      <c r="G414">
-        <v>12452</v>
-      </c>
-      <c r="H414">
-        <v>25700</v>
-      </c>
-      <c r="I414">
-        <v>38784</v>
-      </c>
-      <c r="J414">
-        <v>9</v>
-      </c>
-      <c r="K414">
-        <v>324</v>
-      </c>
-      <c r="L414">
-        <v>0</v>
-      </c>
-      <c r="M414">
-        <v>324</v>
-      </c>
-      <c r="N414">
-        <v>2837</v>
-      </c>
-      <c r="O414">
-        <v>46</v>
-      </c>
-      <c r="P414">
-        <v>40</v>
-      </c>
-      <c r="Q414">
-        <v>0</v>
-      </c>
-      <c r="R414">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="415" spans="1:18">
-      <c r="A415" t="s">
-        <v>431</v>
-      </c>
-      <c r="B415">
-        <v>414</v>
-      </c>
-      <c r="C415">
-        <v>13204</v>
-      </c>
-      <c r="D415">
-        <v>369</v>
-      </c>
-      <c r="E415">
-        <v>244</v>
-      </c>
-      <c r="F415">
-        <v>0.02794607695</v>
-      </c>
-      <c r="G415">
-        <v>12550</v>
-      </c>
-      <c r="H415">
-        <v>25700</v>
-      </c>
-      <c r="I415">
-        <v>38904</v>
-      </c>
-      <c r="J415">
-        <v>120</v>
-      </c>
-      <c r="K415">
-        <v>217</v>
-      </c>
-      <c r="L415">
-        <v>0</v>
-      </c>
-      <c r="M415">
-        <v>217</v>
-      </c>
-      <c r="N415">
-        <v>120</v>
-      </c>
-      <c r="O415">
-        <v>53</v>
-      </c>
-      <c r="P415">
-        <v>39</v>
-      </c>
-      <c r="Q415">
-        <v>1</v>
-      </c>
-      <c r="R415">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="416" spans="1:18">
-      <c r="A416" t="s">
-        <v>432</v>
-      </c>
-      <c r="B416">
-        <v>415</v>
-      </c>
-      <c r="C416">
-        <v>13255</v>
-      </c>
-      <c r="D416">
-        <v>371</v>
-      </c>
-      <c r="E416">
-        <v>240</v>
-      </c>
-      <c r="F416">
-        <v>0.02798943795</v>
-      </c>
-      <c r="G416">
-        <v>12602</v>
-      </c>
-      <c r="H416">
-        <v>25700</v>
-      </c>
-      <c r="I416">
-        <v>38955</v>
-      </c>
-      <c r="J416">
-        <v>51</v>
-      </c>
-      <c r="K416">
-        <v>285</v>
-      </c>
-      <c r="L416">
-        <v>0</v>
-      </c>
-      <c r="M416">
-        <v>285</v>
-      </c>
-      <c r="N416">
-        <v>51</v>
-      </c>
-      <c r="O416">
-        <v>53</v>
-      </c>
-      <c r="P416">
-        <v>37</v>
-      </c>
-      <c r="Q416">
-        <v>2</v>
-      </c>
-      <c r="R416">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="417" spans="1:18">
-      <c r="A417" t="s">
-        <v>433</v>
-      </c>
-      <c r="B417">
-        <v>416</v>
-      </c>
-      <c r="C417">
-        <v>13379</v>
-      </c>
-      <c r="D417">
-        <v>372</v>
-      </c>
-      <c r="E417">
-        <v>279</v>
-      </c>
-      <c r="F417">
-        <v>0.02780476867</v>
-      </c>
-      <c r="G417">
-        <v>12686</v>
-      </c>
-      <c r="H417">
-        <v>25700</v>
-      </c>
-      <c r="I417">
-        <v>39079</v>
-      </c>
-      <c r="J417">
-        <v>124</v>
-      </c>
-      <c r="K417">
-        <v>342</v>
-      </c>
-      <c r="L417">
-        <v>1</v>
-      </c>
-      <c r="M417">
-        <v>341</v>
-      </c>
-      <c r="N417">
-        <v>124</v>
-      </c>
-      <c r="O417">
-        <v>51</v>
-      </c>
-      <c r="P417">
-        <v>37</v>
-      </c>
-      <c r="Q417">
-        <v>1</v>
-      </c>
-      <c r="R417">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="418" spans="1:18">
-      <c r="A418" t="s">
-        <v>434</v>
-      </c>
-      <c r="B418">
-        <v>417</v>
-      </c>
-      <c r="C418">
-        <v>13544</v>
-      </c>
-      <c r="D418">
-        <v>374</v>
-      </c>
-      <c r="E418">
-        <v>333</v>
-      </c>
-      <c r="F418">
-        <v>0.02761370348</v>
-      </c>
-      <c r="G418">
-        <v>12794</v>
-      </c>
-      <c r="H418">
-        <v>25700</v>
-      </c>
-      <c r="I418">
-        <v>39244</v>
-      </c>
-      <c r="J418">
-        <v>165</v>
-      </c>
-      <c r="K418">
-        <v>433</v>
-      </c>
-      <c r="L418">
-        <v>2</v>
-      </c>
-      <c r="M418">
-        <v>431</v>
-      </c>
-      <c r="N418">
-        <v>165</v>
-      </c>
-      <c r="O418">
-        <v>54</v>
-      </c>
-      <c r="P418">
-        <v>38</v>
-      </c>
-      <c r="Q418">
-        <v>2</v>
-      </c>
-      <c r="R418">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="419" spans="1:18">
-      <c r="A419" t="s">
-        <v>435</v>
-      </c>
-      <c r="B419">
-        <v>418</v>
-      </c>
-      <c r="C419">
-        <v>13668</v>
-      </c>
-      <c r="D419">
-        <v>376</v>
-      </c>
-      <c r="E419">
-        <v>342</v>
-      </c>
-      <c r="F419">
-        <v>0.02750951127</v>
-      </c>
-      <c r="G419">
-        <v>12906</v>
-      </c>
-      <c r="H419">
-        <v>25700</v>
-      </c>
-      <c r="I419">
-        <v>39368</v>
-      </c>
-      <c r="J419">
-        <v>124</v>
-      </c>
-      <c r="K419">
-        <v>420</v>
-      </c>
-      <c r="L419">
-        <v>1</v>
-      </c>
-      <c r="M419">
-        <v>419</v>
-      </c>
-      <c r="N419">
-        <v>124</v>
-      </c>
-      <c r="O419">
-        <v>50</v>
-      </c>
-      <c r="P419">
-        <v>41</v>
-      </c>
-      <c r="Q419">
-        <v>2</v>
-      </c>
-      <c r="R419">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="420" spans="1:18">
-      <c r="A420" t="s">
-        <v>436</v>
-      </c>
-      <c r="B420">
-        <v>419</v>
-      </c>
-      <c r="C420">
-        <v>13753</v>
-      </c>
-      <c r="D420">
-        <v>378</v>
-      </c>
-      <c r="E420">
-        <v>331</v>
-      </c>
-      <c r="F420">
-        <v>0.02748491238</v>
-      </c>
-      <c r="G420">
-        <v>12998</v>
-      </c>
-      <c r="H420">
-        <v>25700</v>
-      </c>
-      <c r="I420">
-        <v>39453</v>
-      </c>
-      <c r="J420">
-        <v>85</v>
-      </c>
-      <c r="K420">
-        <v>281</v>
-      </c>
-      <c r="L420">
-        <v>1</v>
-      </c>
-      <c r="M420">
-        <v>280</v>
-      </c>
-      <c r="N420">
-        <v>85</v>
-      </c>
-      <c r="O420">
-        <v>57</v>
-      </c>
-      <c r="P420">
-        <v>41</v>
-      </c>
-      <c r="Q420">
-        <v>2</v>
-      </c>
-      <c r="R420">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="421" spans="1:18">
-      <c r="A421" t="s">
-        <v>437</v>
-      </c>
-      <c r="B421">
-        <v>420</v>
-      </c>
-      <c r="C421">
-        <v>13758</v>
-      </c>
-      <c r="D421">
-        <v>381</v>
-      </c>
-      <c r="E421">
-        <v>332</v>
-      </c>
-      <c r="F421">
-        <v>0.02769297863</v>
-      </c>
-      <c r="G421">
-        <v>12998</v>
-      </c>
-      <c r="H421">
-        <v>25700</v>
-      </c>
-      <c r="I421">
-        <v>39458</v>
-      </c>
-      <c r="J421">
-        <v>5</v>
-      </c>
-      <c r="K421">
-        <v>285</v>
-      </c>
-      <c r="L421">
-        <v>1</v>
-      </c>
-      <c r="M421">
-        <v>284</v>
-      </c>
-      <c r="N421">
-        <v>5</v>
-      </c>
-      <c r="O421">
-        <v>61</v>
-      </c>
-      <c r="P421">
-        <v>40</v>
-      </c>
-      <c r="Q421">
-        <v>3</v>
-      </c>
-      <c r="R421">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="422" spans="1:18">
-      <c r="A422" t="s">
-        <v>438</v>
-      </c>
-      <c r="B422">
-        <v>421</v>
-      </c>
-      <c r="C422">
-        <v>13820</v>
-      </c>
-      <c r="D422">
-        <v>384</v>
-      </c>
-      <c r="E422">
-        <v>241</v>
-      </c>
-      <c r="F422">
-        <v>0.02778581766</v>
-      </c>
-      <c r="G422">
-        <v>13148</v>
-      </c>
-      <c r="H422">
-        <v>25700</v>
-      </c>
-      <c r="I422">
-        <v>39520</v>
-      </c>
-      <c r="J422">
-        <v>62</v>
-      </c>
-      <c r="K422">
-        <v>307</v>
-      </c>
-      <c r="L422">
-        <v>2</v>
-      </c>
-      <c r="M422">
-        <v>305</v>
-      </c>
-      <c r="N422">
-        <v>62</v>
-      </c>
-      <c r="O422">
-        <v>59</v>
-      </c>
-      <c r="P422">
-        <v>41</v>
-      </c>
-      <c r="Q422">
-        <v>3</v>
-      </c>
-      <c r="R422">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="423" spans="1:18">
-      <c r="A423" t="s">
-        <v>439</v>
-      </c>
-      <c r="B423">
-        <v>422</v>
-      </c>
-      <c r="C423">
-        <v>13911</v>
-      </c>
-      <c r="D423">
-        <v>385</v>
-      </c>
-      <c r="E423">
-        <v>237</v>
-      </c>
-      <c r="F423">
-        <v>0.0276759399</v>
-      </c>
-      <c r="G423">
-        <v>13242</v>
-      </c>
-      <c r="H423">
-        <v>25700</v>
-      </c>
-      <c r="I423">
-        <v>39611</v>
-      </c>
-      <c r="J423">
-        <v>91</v>
-      </c>
-      <c r="K423">
-        <v>370</v>
-      </c>
-      <c r="L423">
-        <v>3</v>
-      </c>
-      <c r="M423">
-        <v>367</v>
-      </c>
-      <c r="N423">
-        <v>91</v>
-      </c>
-      <c r="O423">
-        <v>63</v>
-      </c>
-      <c r="P423">
-        <v>44</v>
-      </c>
-      <c r="Q423">
-        <v>1</v>
-      </c>
-      <c r="R423">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="424" spans="1:18">
-      <c r="A424" t="s">
-        <v>440</v>
-      </c>
-      <c r="B424">
-        <v>423</v>
-      </c>
-      <c r="C424">
-        <v>13960</v>
-      </c>
-      <c r="D424">
-        <v>388</v>
-      </c>
-      <c r="E424">
-        <v>213</v>
-      </c>
-      <c r="F424">
-        <v>0.02779369628</v>
-      </c>
-      <c r="G424">
-        <v>13312</v>
-      </c>
-      <c r="H424">
-        <v>25700</v>
-      </c>
-      <c r="I424">
-        <v>39660</v>
-      </c>
-      <c r="J424">
-        <v>49</v>
-      </c>
-      <c r="K424">
-        <v>432</v>
-      </c>
-      <c r="L424">
-        <v>3</v>
-      </c>
-      <c r="M424">
-        <v>429</v>
-      </c>
-      <c r="N424">
-        <v>49</v>
-      </c>
-      <c r="O424">
-        <v>56</v>
-      </c>
-      <c r="P424">
-        <v>48</v>
-      </c>
-      <c r="Q424">
-        <v>3</v>
-      </c>
-      <c r="R424">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="425" spans="1:18">
-      <c r="A425" t="s">
-        <v>441</v>
-      </c>
-      <c r="B425">
-        <v>424</v>
-      </c>
-      <c r="C425">
-        <v>14056</v>
-      </c>
-      <c r="D425">
-        <v>390</v>
-      </c>
-      <c r="E425">
-        <v>220</v>
-      </c>
-      <c r="F425">
-        <v>0.02774615822</v>
-      </c>
-      <c r="G425">
-        <v>13399</v>
-      </c>
-      <c r="H425">
-        <v>25700</v>
-      </c>
-      <c r="I425">
-        <v>39756</v>
-      </c>
-      <c r="J425">
-        <v>96</v>
-      </c>
-      <c r="K425">
-        <v>345</v>
-      </c>
-      <c r="L425">
-        <v>3</v>
-      </c>
-      <c r="M425">
-        <v>342</v>
-      </c>
-      <c r="N425">
-        <v>96</v>
-      </c>
-      <c r="O425">
-        <v>54</v>
-      </c>
-      <c r="P425">
-        <v>48</v>
-      </c>
-      <c r="Q425">
-        <v>2</v>
-      </c>
-      <c r="R425">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="426" spans="1:18">
-      <c r="A426" t="s">
-        <v>442</v>
-      </c>
-      <c r="B426">
-        <v>425</v>
-      </c>
-      <c r="C426">
-        <v>14138</v>
-      </c>
-      <c r="D426">
-        <v>397</v>
-      </c>
-      <c r="E426">
-        <v>198</v>
-      </c>
-      <c r="F426">
-        <v>0.02808035083</v>
-      </c>
-      <c r="G426">
-        <v>13496</v>
-      </c>
-      <c r="H426">
-        <v>25700</v>
-      </c>
-      <c r="I426">
-        <v>39838</v>
-      </c>
-      <c r="J426">
-        <v>82</v>
-      </c>
-      <c r="K426">
-        <v>347</v>
-      </c>
-      <c r="L426">
-        <v>2</v>
-      </c>
-      <c r="M426">
-        <v>345</v>
-      </c>
-      <c r="N426">
-        <v>82</v>
-      </c>
-      <c r="O426">
-        <v>68</v>
-      </c>
-      <c r="P426">
-        <v>45</v>
-      </c>
-      <c r="Q426">
-        <v>7</v>
-      </c>
-      <c r="R426">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="427" spans="1:18">
-      <c r="A427" t="s">
-        <v>443</v>
-      </c>
-      <c r="B427">
-        <v>426</v>
-      </c>
-      <c r="C427">
-        <v>14196</v>
-      </c>
-      <c r="D427">
-        <v>401</v>
-      </c>
-      <c r="E427">
-        <v>210</v>
-      </c>
-      <c r="F427">
-        <v>0.02824739363</v>
-      </c>
-      <c r="G427">
-        <v>13538</v>
-      </c>
-      <c r="H427">
-        <v>25700</v>
-      </c>
-      <c r="I427">
-        <v>39896</v>
-      </c>
-      <c r="J427">
-        <v>58</v>
-      </c>
-      <c r="K427">
-        <v>291</v>
-      </c>
-      <c r="L427">
-        <v>2</v>
-      </c>
-      <c r="M427">
-        <v>289</v>
-      </c>
-      <c r="N427">
-        <v>58</v>
-      </c>
-      <c r="O427">
-        <v>65</v>
-      </c>
-      <c r="P427">
-        <v>44</v>
-      </c>
-      <c r="Q427">
-        <v>4</v>
-      </c>
-      <c r="R427">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="428" spans="1:18">
-      <c r="A428" t="s">
-        <v>444</v>
-      </c>
-      <c r="B428">
-        <v>427</v>
-      </c>
-      <c r="C428">
-        <v>14199</v>
-      </c>
-      <c r="D428">
-        <v>404</v>
-      </c>
-      <c r="E428">
-        <v>208</v>
-      </c>
-      <c r="F428">
-        <v>0.02845270794</v>
-      </c>
-      <c r="G428">
-        <v>13540</v>
-      </c>
-      <c r="H428">
-        <v>25700</v>
-      </c>
-      <c r="I428">
-        <v>39899</v>
-      </c>
-      <c r="J428">
-        <v>3</v>
-      </c>
-      <c r="K428">
-        <v>293</v>
-      </c>
-      <c r="L428">
-        <v>2</v>
-      </c>
-      <c r="M428">
-        <v>291</v>
-      </c>
-      <c r="N428">
-        <v>3</v>
-      </c>
-      <c r="O428">
-        <v>66</v>
-      </c>
-      <c r="P428">
-        <v>43</v>
-      </c>
-      <c r="Q428">
-        <v>3</v>
-      </c>
-      <c r="R428">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="429" spans="1:18">
-      <c r="A429" t="s">
-        <v>445</v>
-      </c>
-      <c r="B429">
-        <v>428</v>
-      </c>
-      <c r="C429">
-        <v>14227</v>
-      </c>
-      <c r="D429">
-        <v>407</v>
-      </c>
-      <c r="E429">
-        <v>158</v>
-      </c>
-      <c r="F429">
-        <v>0.02860757714</v>
-      </c>
-      <c r="G429">
-        <v>13615</v>
-      </c>
-      <c r="H429">
-        <v>25700</v>
-      </c>
-      <c r="I429">
-        <v>39927</v>
-      </c>
-      <c r="J429">
-        <v>28</v>
-      </c>
-      <c r="K429">
-        <v>430</v>
-      </c>
-      <c r="L429">
-        <v>4</v>
-      </c>
-      <c r="M429">
-        <v>426</v>
-      </c>
-      <c r="N429">
-        <v>28</v>
-      </c>
-      <c r="O429">
-        <v>58</v>
-      </c>
-      <c r="P429">
-        <v>46</v>
-      </c>
-      <c r="Q429">
-        <v>3</v>
-      </c>
-      <c r="R429">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="430" spans="1:18">
-      <c r="A430" t="s">
-        <v>446</v>
-      </c>
-      <c r="B430">
-        <v>429</v>
-      </c>
-      <c r="C430">
-        <v>14378</v>
-      </c>
-      <c r="D430">
-        <v>410</v>
-      </c>
-      <c r="E430">
-        <v>180</v>
-      </c>
-      <c r="F430">
-        <v>0.02851578801</v>
-      </c>
-      <c r="G430">
-        <v>13740</v>
-      </c>
-      <c r="H430">
-        <v>25700</v>
-      </c>
-      <c r="I430">
-        <v>40078</v>
-      </c>
-      <c r="J430">
-        <v>151</v>
-      </c>
-      <c r="K430">
-        <v>324</v>
-      </c>
-      <c r="L430">
-        <v>4</v>
-      </c>
-      <c r="M430">
-        <v>320</v>
-      </c>
-      <c r="N430">
-        <v>151</v>
-      </c>
-      <c r="O430">
-        <v>65</v>
-      </c>
-      <c r="P430">
-        <v>45</v>
-      </c>
-      <c r="Q430">
-        <v>3</v>
-      </c>
-      <c r="R430">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="431" spans="1:18">
-      <c r="A431" t="s">
-        <v>447</v>
-      </c>
-      <c r="B431">
-        <v>430</v>
-      </c>
-      <c r="C431">
-        <v>14550</v>
-      </c>
-      <c r="D431">
-        <v>415</v>
-      </c>
-      <c r="E431">
-        <v>185</v>
-      </c>
-      <c r="F431">
-        <v>0.02852233677</v>
-      </c>
-      <c r="G431">
-        <v>13902</v>
-      </c>
-      <c r="H431">
-        <v>25700</v>
-      </c>
-      <c r="I431">
-        <v>40250</v>
-      </c>
-      <c r="J431">
-        <v>172</v>
-      </c>
-      <c r="K431">
-        <v>526</v>
-      </c>
-      <c r="L431">
-        <v>4</v>
-      </c>
-      <c r="M431">
-        <v>522</v>
-      </c>
-      <c r="N431">
-        <v>172</v>
-      </c>
-      <c r="O431">
-        <v>56</v>
-      </c>
-      <c r="P431">
-        <v>56</v>
-      </c>
-      <c r="Q431">
-        <v>5</v>
-      </c>
-      <c r="R431">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="432" spans="1:18">
-      <c r="A432" t="s">
-        <v>448</v>
-      </c>
-      <c r="B432">
-        <v>431</v>
-      </c>
-      <c r="C432">
-        <v>14634</v>
-      </c>
-      <c r="D432">
-        <v>416</v>
-      </c>
-      <c r="E432">
-        <v>197</v>
-      </c>
-      <c r="F432">
-        <v>0.02842695094</v>
-      </c>
-      <c r="G432">
-        <v>13971</v>
-      </c>
-      <c r="H432">
-        <v>25700</v>
-      </c>
-      <c r="I432">
-        <v>40334</v>
-      </c>
-      <c r="J432">
-        <v>84</v>
-      </c>
-      <c r="K432">
-        <v>571</v>
-      </c>
-      <c r="L432">
-        <v>4</v>
-      </c>
-      <c r="M432">
-        <v>567</v>
-      </c>
-      <c r="N432">
-        <v>84</v>
-      </c>
-      <c r="O432">
-        <v>57</v>
-      </c>
-      <c r="P432">
-        <v>58</v>
-      </c>
-      <c r="Q432">
-        <v>1</v>
-      </c>
-      <c r="R432">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="433" spans="1:18">
-      <c r="A433" t="s">
-        <v>449</v>
-      </c>
-      <c r="B433">
-        <v>432</v>
-      </c>
-      <c r="C433">
-        <v>14714</v>
-      </c>
-      <c r="D433">
-        <v>419</v>
-      </c>
-      <c r="E433">
-        <v>188</v>
-      </c>
-      <c r="F433">
-        <v>0.02847628109</v>
-      </c>
-      <c r="G433">
-        <v>14057</v>
-      </c>
-      <c r="H433">
-        <v>25700</v>
-      </c>
-      <c r="I433">
-        <v>40414</v>
-      </c>
-      <c r="J433">
-        <v>80</v>
-      </c>
-      <c r="K433">
-        <v>660</v>
-      </c>
-      <c r="L433">
-        <v>4</v>
-      </c>
-      <c r="M433">
-        <v>656</v>
-      </c>
-      <c r="N433">
-        <v>80</v>
-      </c>
-      <c r="O433">
-        <v>65</v>
-      </c>
-      <c r="P433">
-        <v>58</v>
-      </c>
-      <c r="Q433">
-        <v>3</v>
-      </c>
-      <c r="R433">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="434" spans="1:18">
-      <c r="A434" t="s">
-        <v>450</v>
-      </c>
-      <c r="B434">
-        <v>433</v>
-      </c>
-      <c r="C434">
-        <v>14755</v>
-      </c>
-      <c r="D434">
-        <v>420</v>
-      </c>
-      <c r="E434">
-        <v>220</v>
-      </c>
-      <c r="F434">
-        <v>0.02846492714</v>
-      </c>
-      <c r="G434">
-        <v>14065</v>
-      </c>
-      <c r="H434">
-        <v>25700</v>
-      </c>
-      <c r="I434">
-        <v>40455</v>
-      </c>
-      <c r="J434">
-        <v>41</v>
-      </c>
-      <c r="K434">
-        <v>633</v>
-      </c>
-      <c r="L434">
-        <v>4</v>
-      </c>
-      <c r="M434">
-        <v>629</v>
-      </c>
-      <c r="N434">
-        <v>41</v>
-      </c>
-      <c r="O434">
-        <v>67</v>
-      </c>
-      <c r="P434">
-        <v>61</v>
-      </c>
-      <c r="Q434">
-        <v>1</v>
-      </c>
-      <c r="R434">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="435" spans="1:18">
-      <c r="A435" t="s">
-        <v>451</v>
-      </c>
-      <c r="B435">
-        <v>434</v>
-      </c>
-      <c r="C435">
-        <v>14759</v>
-      </c>
-      <c r="D435">
-        <v>422</v>
-      </c>
-      <c r="E435">
-        <v>179</v>
-      </c>
-      <c r="F435">
-        <v>0.02859272308</v>
-      </c>
-      <c r="G435">
-        <v>14108</v>
-      </c>
-      <c r="H435">
-        <v>25700</v>
-      </c>
-      <c r="I435">
-        <v>40459</v>
-      </c>
-      <c r="J435">
-        <v>4</v>
-      </c>
-      <c r="K435">
-        <v>631</v>
-      </c>
-      <c r="L435">
-        <v>4</v>
-      </c>
-      <c r="M435">
-        <v>627</v>
-      </c>
-      <c r="N435">
-        <v>4</v>
-      </c>
-      <c r="O435">
-        <v>61</v>
-      </c>
-      <c r="P435">
-        <v>61</v>
-      </c>
-      <c r="Q435">
-        <v>2</v>
-      </c>
-      <c r="R435">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="436" spans="1:18">
-      <c r="A436" t="s">
-        <v>452</v>
-      </c>
-      <c r="B436">
-        <v>435</v>
-      </c>
-      <c r="C436">
-        <v>14801</v>
-      </c>
-      <c r="D436">
-        <v>429</v>
-      </c>
-      <c r="E436">
-        <v>128</v>
-      </c>
-      <c r="F436">
-        <v>0.02898452807</v>
-      </c>
-      <c r="G436">
-        <v>14192</v>
-      </c>
-      <c r="H436">
-        <v>25700</v>
-      </c>
-      <c r="I436">
-        <v>40501</v>
-      </c>
-      <c r="J436">
-        <v>42</v>
-      </c>
-      <c r="K436">
-        <v>717</v>
-      </c>
-      <c r="L436">
-        <v>2</v>
-      </c>
-      <c r="M436">
-        <v>715</v>
-      </c>
-      <c r="N436">
-        <v>42</v>
-      </c>
-      <c r="O436">
-        <v>68</v>
-      </c>
-      <c r="P436">
-        <v>59</v>
-      </c>
-      <c r="Q436">
-        <v>7</v>
-      </c>
-      <c r="R436">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="437" spans="1:18">
-      <c r="A437" t="s">
-        <v>453</v>
-      </c>
-      <c r="B437">
-        <v>436</v>
-      </c>
-      <c r="C437">
-        <v>14939</v>
-      </c>
-      <c r="D437">
-        <v>432</v>
-      </c>
-      <c r="E437">
-        <v>150</v>
-      </c>
-      <c r="F437">
-        <v>0.02891759823</v>
-      </c>
-      <c r="G437">
-        <v>14305</v>
-      </c>
-      <c r="H437">
-        <v>25700</v>
-      </c>
-      <c r="I437">
-        <v>40639</v>
-      </c>
-      <c r="J437">
-        <v>138</v>
-      </c>
-      <c r="K437">
-        <v>570</v>
-      </c>
-      <c r="L437">
-        <v>2</v>
-      </c>
-      <c r="M437">
-        <v>568</v>
-      </c>
-      <c r="N437">
-        <v>138</v>
-      </c>
-      <c r="O437">
-        <v>61</v>
-      </c>
-      <c r="P437">
-        <v>60</v>
-      </c>
-      <c r="Q437">
-        <v>3</v>
-      </c>
-      <c r="R437">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="438" spans="1:18">
-      <c r="A438" t="s">
-        <v>454</v>
-      </c>
-      <c r="B438">
-        <v>437</v>
-      </c>
-      <c r="C438">
-        <v>15126</v>
-      </c>
-      <c r="D438">
-        <v>435</v>
-      </c>
-      <c r="E438">
-        <v>160</v>
-      </c>
-      <c r="F438">
-        <v>0.02875842919</v>
-      </c>
-      <c r="G438">
-        <v>14479</v>
-      </c>
-      <c r="H438">
-        <v>25700</v>
-      </c>
-      <c r="I438">
-        <v>40826</v>
-      </c>
-      <c r="J438">
-        <v>187</v>
-      </c>
-      <c r="K438">
-        <v>525</v>
-      </c>
-      <c r="L438">
-        <v>2</v>
-      </c>
-      <c r="M438">
-        <v>523</v>
-      </c>
-      <c r="N438">
-        <v>187</v>
-      </c>
-      <c r="O438">
-        <v>67</v>
-      </c>
-      <c r="P438">
-        <v>56</v>
-      </c>
-      <c r="Q438">
-        <v>3</v>
-      </c>
-      <c r="R438">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="439" spans="1:18">
-      <c r="A439" t="s">
-        <v>455</v>
-      </c>
-      <c r="B439">
-        <v>438</v>
-      </c>
-      <c r="C439">
-        <v>15285</v>
-      </c>
-      <c r="D439">
-        <v>439</v>
-      </c>
-      <c r="E439">
-        <v>189</v>
-      </c>
-      <c r="F439">
-        <v>0.02872096827</v>
-      </c>
-      <c r="G439">
-        <v>14604</v>
-      </c>
-      <c r="H439">
-        <v>25700</v>
-      </c>
-      <c r="I439">
-        <v>40985</v>
-      </c>
-      <c r="J439">
-        <v>159</v>
-      </c>
-      <c r="K439">
-        <v>589</v>
-      </c>
-      <c r="L439">
-        <v>1</v>
-      </c>
-      <c r="M439">
-        <v>588</v>
-      </c>
-      <c r="N439">
-        <v>159</v>
-      </c>
-      <c r="O439">
-        <v>75</v>
-      </c>
-      <c r="P439">
-        <v>57</v>
-      </c>
-      <c r="Q439">
-        <v>4</v>
-      </c>
-      <c r="R439">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="440" spans="1:18">
-      <c r="A440" t="s">
-        <v>456</v>
-      </c>
-      <c r="B440">
-        <v>439</v>
-      </c>
-      <c r="C440">
-        <v>15465</v>
-      </c>
-      <c r="D440">
-        <v>442</v>
-      </c>
-      <c r="E440">
-        <v>205</v>
-      </c>
-      <c r="F440">
-        <v>0.02858066602</v>
-      </c>
-      <c r="G440">
-        <v>14765</v>
-      </c>
-      <c r="H440">
-        <v>25700</v>
-      </c>
-      <c r="I440">
-        <v>41165</v>
-      </c>
-      <c r="J440">
-        <v>180</v>
-      </c>
-      <c r="K440">
-        <v>674</v>
-      </c>
-      <c r="L440">
-        <v>2</v>
-      </c>
-      <c r="M440">
-        <v>672</v>
-      </c>
-      <c r="N440">
-        <v>180</v>
-      </c>
-      <c r="O440">
-        <v>71</v>
-      </c>
-      <c r="P440">
-        <v>58</v>
-      </c>
-      <c r="Q440">
-        <v>3</v>
-      </c>
-      <c r="R440">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="441" spans="1:18">
-      <c r="A441" t="s">
-        <v>457</v>
-      </c>
-      <c r="B441">
-        <v>440</v>
-      </c>
-      <c r="C441">
-        <v>15546</v>
-      </c>
-      <c r="D441">
-        <v>443</v>
-      </c>
-      <c r="E441">
-        <v>181</v>
-      </c>
-      <c r="F441">
-        <v>0.02849607616</v>
-      </c>
-      <c r="G441">
-        <v>14869</v>
-      </c>
-      <c r="H441">
-        <v>25700</v>
-      </c>
-      <c r="I441">
-        <v>41246</v>
-      </c>
-      <c r="J441">
-        <v>81</v>
-      </c>
-      <c r="K441">
-        <v>610</v>
-      </c>
-      <c r="L441">
-        <v>2</v>
-      </c>
-      <c r="M441">
-        <v>608</v>
-      </c>
-      <c r="N441">
-        <v>81</v>
-      </c>
-      <c r="O441">
-        <v>71</v>
-      </c>
-      <c r="P441">
-        <v>58</v>
-      </c>
-      <c r="Q441">
-        <v>1</v>
-      </c>
-      <c r="R441">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="442" spans="1:18">
-      <c r="A442" t="s">
-        <v>458</v>
-      </c>
-      <c r="B442">
-        <v>441</v>
-      </c>
-      <c r="C442">
-        <v>15554</v>
-      </c>
-      <c r="D442">
-        <v>449</v>
-      </c>
-      <c r="E442">
-        <v>181</v>
-      </c>
-      <c r="F442">
-        <v>0.02886717243</v>
-      </c>
-      <c r="G442">
-        <v>14871</v>
-      </c>
-      <c r="H442">
-        <v>25700</v>
-      </c>
-      <c r="I442">
-        <v>41254</v>
-      </c>
-      <c r="J442">
-        <v>8</v>
-      </c>
-      <c r="K442">
-        <v>611</v>
-      </c>
-      <c r="L442">
-        <v>2</v>
-      </c>
-      <c r="M442">
-        <v>609</v>
-      </c>
-      <c r="N442">
-        <v>8</v>
-      </c>
-      <c r="O442">
-        <v>70</v>
-      </c>
-      <c r="P442">
-        <v>54</v>
-      </c>
-      <c r="Q442">
-        <v>6</v>
-      </c>
-      <c r="R442">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="443" spans="1:18">
-      <c r="A443" t="s">
-        <v>459</v>
-      </c>
-      <c r="B443">
-        <v>442</v>
-      </c>
-      <c r="C443">
-        <v>15730</v>
-      </c>
-      <c r="D443">
-        <v>452</v>
-      </c>
-      <c r="E443">
-        <v>226</v>
-      </c>
-      <c r="F443">
-        <v>0.02873490146</v>
-      </c>
-      <c r="G443">
-        <v>14999</v>
-      </c>
-      <c r="H443">
-        <v>27040</v>
-      </c>
-      <c r="I443">
-        <v>42770</v>
-      </c>
-      <c r="J443">
-        <v>176</v>
-      </c>
-      <c r="K443">
-        <v>528</v>
-      </c>
-      <c r="L443">
-        <v>4</v>
-      </c>
-      <c r="M443">
-        <v>524</v>
-      </c>
-      <c r="N443">
-        <v>1516</v>
-      </c>
-      <c r="O443">
-        <v>68</v>
-      </c>
-      <c r="P443">
-        <v>58</v>
-      </c>
-      <c r="Q443">
-        <v>3</v>
-      </c>
-      <c r="R443">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="444" spans="1:18">
-      <c r="A444" t="s">
-        <v>460</v>
-      </c>
-      <c r="B444">
-        <v>443</v>
-      </c>
-      <c r="C444">
-        <v>15941</v>
-      </c>
-      <c r="D444">
-        <v>458</v>
-      </c>
-      <c r="E444">
-        <v>226</v>
-      </c>
-      <c r="F444">
-        <v>0.02873094536</v>
-      </c>
-      <c r="G444">
-        <v>15204</v>
-      </c>
-      <c r="H444">
-        <v>27040</v>
-      </c>
-      <c r="I444">
-        <v>42981</v>
-      </c>
-      <c r="J444">
-        <v>211</v>
-      </c>
-      <c r="K444">
-        <v>601</v>
-      </c>
-      <c r="L444">
-        <v>3</v>
-      </c>
-      <c r="M444">
-        <v>598</v>
-      </c>
-      <c r="N444">
-        <v>211</v>
-      </c>
-      <c r="O444">
-        <v>70</v>
-      </c>
-      <c r="P444">
-        <v>58</v>
-      </c>
-      <c r="Q444">
-        <v>6</v>
-      </c>
-      <c r="R444">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="445" spans="1:18">
-      <c r="A445" t="s">
-        <v>461</v>
-      </c>
-      <c r="B445">
-        <v>444</v>
-      </c>
-      <c r="C445">
-        <v>16176</v>
-      </c>
-      <c r="D445">
-        <v>466</v>
-      </c>
-      <c r="E445">
-        <v>194</v>
-      </c>
-      <c r="F445">
-        <v>0.02880811078</v>
-      </c>
-      <c r="G445">
-        <v>15463</v>
-      </c>
-      <c r="H445">
-        <v>27040</v>
-      </c>
-      <c r="I445">
-        <v>43216</v>
-      </c>
-      <c r="J445">
-        <v>235</v>
-      </c>
-      <c r="K445">
-        <v>711</v>
-      </c>
-      <c r="L445">
-        <v>3</v>
-      </c>
-      <c r="M445">
-        <v>708</v>
-      </c>
-      <c r="N445">
-        <v>235</v>
-      </c>
-      <c r="O445">
-        <v>72</v>
-      </c>
-      <c r="P445">
-        <v>60</v>
-      </c>
-      <c r="Q445">
-        <v>8</v>
-      </c>
-      <c r="R445">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="446" spans="1:18">
-      <c r="A446" t="s">
-        <v>462</v>
-      </c>
-      <c r="B446">
-        <v>445</v>
-      </c>
-      <c r="C446">
-        <v>16379</v>
-      </c>
-      <c r="D446">
-        <v>469</v>
-      </c>
-      <c r="E446">
-        <v>228</v>
-      </c>
-      <c r="F446">
-        <v>0.02863422675</v>
-      </c>
-      <c r="G446">
-        <v>15269</v>
-      </c>
-      <c r="H446">
-        <v>27040</v>
-      </c>
-      <c r="I446">
-        <v>43419</v>
-      </c>
-      <c r="J446">
-        <v>203</v>
-      </c>
-      <c r="K446">
-        <v>859</v>
-      </c>
-      <c r="L446">
-        <v>2</v>
-      </c>
-      <c r="M446">
-        <v>857</v>
-      </c>
-      <c r="N446">
-        <v>203</v>
-      </c>
-      <c r="O446">
-        <v>62</v>
-      </c>
-      <c r="P446">
-        <v>59</v>
-      </c>
-      <c r="Q446">
-        <v>3</v>
-      </c>
-      <c r="R446">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="447" spans="1:18">
-      <c r="A447" t="s">
-        <v>463</v>
-      </c>
-      <c r="B447">
-        <v>446</v>
-      </c>
-      <c r="C447">
-        <v>16571</v>
-      </c>
-      <c r="D447">
-        <v>472</v>
-      </c>
-      <c r="E447">
-        <v>225</v>
-      </c>
-      <c r="F447">
-        <v>0.02848349526</v>
-      </c>
-      <c r="G447">
-        <v>15801</v>
-      </c>
-      <c r="H447">
-        <v>27040</v>
-      </c>
-      <c r="I447">
-        <v>43611</v>
-      </c>
-      <c r="J447">
-        <v>192</v>
-      </c>
-      <c r="K447">
-        <v>721</v>
-      </c>
-      <c r="L447">
-        <v>2</v>
-      </c>
-      <c r="M447">
-        <v>719</v>
-      </c>
-      <c r="N447">
-        <v>192</v>
-      </c>
-      <c r="O447">
-        <v>65</v>
-      </c>
-      <c r="P447">
-        <v>61</v>
-      </c>
-      <c r="Q447">
-        <v>3</v>
-      </c>
-      <c r="R447">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="448" spans="1:18">
-      <c r="A448" t="s">
-        <v>464</v>
-      </c>
-      <c r="B448">
-        <v>447</v>
-      </c>
-      <c r="C448">
-        <v>16635</v>
-      </c>
-      <c r="D448">
-        <v>479</v>
-      </c>
-      <c r="E448">
-        <v>197</v>
-      </c>
-      <c r="F448">
-        <v>0.02879470995</v>
-      </c>
-      <c r="G448">
-        <v>15906</v>
-      </c>
-      <c r="H448">
-        <v>27040</v>
-      </c>
-      <c r="I448">
-        <v>43675</v>
-      </c>
-      <c r="J448">
-        <v>64</v>
-      </c>
-      <c r="K448">
-        <v>717</v>
-      </c>
-      <c r="L448">
-        <v>1</v>
-      </c>
-      <c r="M448">
-        <v>716</v>
-      </c>
-      <c r="N448">
-        <v>64</v>
-      </c>
-      <c r="O448">
-        <v>65</v>
-      </c>
-      <c r="P448">
-        <v>63</v>
-      </c>
-      <c r="Q448">
-        <v>7</v>
-      </c>
-      <c r="R448">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="449" spans="1:18">
-      <c r="A449" t="s">
-        <v>465</v>
-      </c>
-      <c r="B449">
-        <v>448</v>
-      </c>
-      <c r="C449">
-        <v>16637</v>
-      </c>
-      <c r="D449">
-        <v>480</v>
-      </c>
-      <c r="E449">
-        <v>196</v>
-      </c>
-      <c r="F449">
-        <v>0.9561820040000001</v>
-      </c>
-      <c r="G449">
-        <v>15908</v>
-      </c>
-      <c r="H449">
-        <v>27040</v>
-      </c>
-      <c r="I449">
-        <v>43677</v>
-      </c>
-      <c r="J449">
-        <v>2</v>
-      </c>
-      <c r="K449">
-        <v>718</v>
-      </c>
-      <c r="L449">
-        <v>1</v>
-      </c>
-      <c r="M449">
-        <v>717</v>
-      </c>
-      <c r="N449">
-        <v>2</v>
-      </c>
-      <c r="O449">
-        <v>66</v>
-      </c>
-      <c r="P449">
-        <v>63</v>
-      </c>
-      <c r="Q449">
-        <v>1</v>
-      </c>
-      <c r="R449">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="450" spans="1:18">
-      <c r="A450" t="s">
-        <v>466</v>
-      </c>
-      <c r="B450">
-        <v>449</v>
-      </c>
-      <c r="C450">
-        <v>16788</v>
-      </c>
-      <c r="D450">
-        <v>482</v>
-      </c>
-      <c r="E450">
-        <v>169</v>
-      </c>
-      <c r="F450">
-        <v>0.02871098403999999</v>
-      </c>
-      <c r="G450">
-        <v>16084</v>
-      </c>
-      <c r="H450">
-        <v>27040</v>
-      </c>
-      <c r="I450">
-        <v>43828</v>
-      </c>
-      <c r="J450">
-        <v>151</v>
-      </c>
-      <c r="K450">
-        <v>683</v>
-      </c>
-      <c r="L450">
-        <v>1</v>
-      </c>
-      <c r="M450">
-        <v>682</v>
-      </c>
-      <c r="N450">
-        <v>151</v>
-      </c>
-      <c r="O450">
-        <v>65</v>
-      </c>
-      <c r="P450">
-        <v>64</v>
-      </c>
-      <c r="Q450">
-        <v>2</v>
-      </c>
-      <c r="R450">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="451" spans="1:18">
-      <c r="A451" t="s">
-        <v>467</v>
-      </c>
-      <c r="B451">
-        <v>450</v>
-      </c>
-      <c r="C451">
-        <v>16950</v>
-      </c>
-      <c r="D451">
-        <v>483</v>
-      </c>
-      <c r="E451">
-        <v>167</v>
-      </c>
-      <c r="F451">
-        <v>0.02849557522</v>
-      </c>
-      <c r="G451">
-        <v>16247</v>
-      </c>
-      <c r="H451">
-        <v>27040</v>
-      </c>
-      <c r="I451">
-        <v>43990</v>
-      </c>
-      <c r="J451">
-        <v>162</v>
-      </c>
-      <c r="K451">
-        <v>751</v>
-      </c>
-      <c r="L451">
-        <v>1</v>
-      </c>
-      <c r="M451">
-        <v>750</v>
-      </c>
-      <c r="N451">
-        <v>162</v>
-      </c>
-      <c r="O451">
-        <v>60</v>
-      </c>
-      <c r="P451">
-        <v>65</v>
-      </c>
-      <c r="Q451">
-        <v>1</v>
-      </c>
-      <c r="R451">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="452" spans="1:18">
-      <c r="A452" t="s">
-        <v>468</v>
-      </c>
-      <c r="B452">
-        <v>451</v>
-      </c>
-      <c r="C452">
-        <v>17095</v>
-      </c>
-      <c r="D452">
-        <v>489</v>
-      </c>
-      <c r="E452">
-        <v>193</v>
-      </c>
-      <c r="F452">
-        <v>0.02860485522</v>
-      </c>
-      <c r="G452">
-        <v>16360</v>
-      </c>
-      <c r="H452">
-        <v>27040</v>
-      </c>
-      <c r="I452">
-        <v>44135</v>
-      </c>
-      <c r="J452">
-        <v>145</v>
-      </c>
-      <c r="K452">
-        <v>773</v>
-      </c>
-      <c r="L452">
-        <v>1</v>
-      </c>
-      <c r="M452">
-        <v>772</v>
-      </c>
-      <c r="N452">
-        <v>145</v>
-      </c>
-      <c r="O452">
-        <v>57</v>
-      </c>
-      <c r="P452">
-        <v>63</v>
-      </c>
-      <c r="Q452">
-        <v>6</v>
-      </c>
-      <c r="R452">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="453" spans="1:18">
-      <c r="A453" t="s">
-        <v>469</v>
-      </c>
-      <c r="B453">
-        <v>452</v>
-      </c>
-      <c r="C453">
-        <v>17232</v>
-      </c>
-      <c r="D453">
-        <v>491</v>
-      </c>
-      <c r="E453">
-        <v>244</v>
-      </c>
-      <c r="F453">
-        <v>0.02849350046</v>
-      </c>
-      <c r="G453">
-        <v>16444</v>
-      </c>
-      <c r="H453">
-        <v>27040</v>
-      </c>
-      <c r="I453">
-        <v>44272</v>
-      </c>
-      <c r="J453">
-        <v>137</v>
-      </c>
-      <c r="K453">
-        <v>799</v>
-      </c>
-      <c r="L453">
-        <v>1</v>
-      </c>
-      <c r="M453">
-        <v>798</v>
-      </c>
-      <c r="N453">
-        <v>137</v>
-      </c>
-      <c r="O453">
-        <v>58</v>
-      </c>
-      <c r="P453">
-        <v>63</v>
-      </c>
-      <c r="Q453">
-        <v>2</v>
-      </c>
-      <c r="R453">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="454" spans="1:18">
-      <c r="A454" t="s">
-        <v>470</v>
-      </c>
-      <c r="B454">
-        <v>453</v>
-      </c>
-      <c r="C454">
-        <v>17406</v>
-      </c>
-      <c r="D454">
-        <v>496</v>
-      </c>
-      <c r="E454">
-        <v>276</v>
-      </c>
-      <c r="F454">
-        <v>0.02849592095</v>
-      </c>
-      <c r="G454">
-        <v>16581</v>
-      </c>
-      <c r="H454">
-        <v>27040</v>
-      </c>
-      <c r="I454">
-        <v>44446</v>
-      </c>
-      <c r="J454">
-        <v>174</v>
-      </c>
-      <c r="K454">
-        <v>791</v>
-      </c>
-      <c r="L454">
-        <v>1</v>
-      </c>
-      <c r="M454">
-        <v>790</v>
-      </c>
-      <c r="N454">
-        <v>174</v>
-      </c>
-      <c r="O454">
-        <v>55</v>
-      </c>
-      <c r="P454">
-        <v>62</v>
-      </c>
-      <c r="Q454">
-        <v>5</v>
-      </c>
-      <c r="R454">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="455" spans="1:18">
-      <c r="A455" t="s">
-        <v>471</v>
-      </c>
-      <c r="B455">
-        <v>454</v>
-      </c>
-      <c r="C455">
-        <v>17478</v>
-      </c>
-      <c r="D455">
-        <v>496</v>
-      </c>
-      <c r="E455">
-        <v>202</v>
-      </c>
-      <c r="F455">
-        <v>0.02837853301000001</v>
-      </c>
-      <c r="G455">
-        <v>16727</v>
-      </c>
-      <c r="H455">
-        <v>27040</v>
-      </c>
-      <c r="I455">
-        <v>44518</v>
-      </c>
-      <c r="J455">
-        <v>72</v>
-      </c>
-      <c r="K455">
-        <v>585</v>
-      </c>
-      <c r="L455">
-        <v>1</v>
-      </c>
-      <c r="M455">
-        <v>584</v>
-      </c>
-      <c r="N455">
-        <v>72</v>
-      </c>
-      <c r="O455">
-        <v>52</v>
-      </c>
-      <c r="P455">
-        <v>60</v>
-      </c>
-      <c r="Q455">
-        <v>0</v>
-      </c>
-      <c r="R455">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="456" spans="1:18">
-      <c r="A456" t="s">
-        <v>472</v>
-      </c>
-      <c r="B456">
-        <v>455</v>
-      </c>
-      <c r="C456">
-        <v>17493</v>
-      </c>
-      <c r="D456">
-        <v>497</v>
-      </c>
-      <c r="E456">
-        <v>197</v>
-      </c>
-      <c r="F456">
-        <v>0.02841136455</v>
-      </c>
-      <c r="G456">
-        <v>16746</v>
-      </c>
-      <c r="H456">
-        <v>27040</v>
-      </c>
-      <c r="I456">
-        <v>44533</v>
-      </c>
-      <c r="J456">
-        <v>15</v>
-      </c>
-      <c r="K456">
-        <v>572</v>
-      </c>
-      <c r="L456">
-        <v>1</v>
-      </c>
-      <c r="M456">
-        <v>571</v>
-      </c>
-      <c r="N456">
-        <v>15</v>
-      </c>
-      <c r="O456">
-        <v>51</v>
-      </c>
-      <c r="P456">
-        <v>60</v>
-      </c>
-      <c r="Q456">
-        <v>1</v>
-      </c>
-      <c r="R456">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="457" spans="1:18">
-      <c r="A457" t="s">
-        <v>473</v>
-      </c>
-      <c r="B457">
-        <v>456</v>
-      </c>
-      <c r="C457">
-        <v>17646</v>
-      </c>
-      <c r="D457">
-        <v>506</v>
-      </c>
-      <c r="E457">
-        <v>190</v>
-      </c>
-      <c r="F457">
-        <v>0.02867505384</v>
-      </c>
-      <c r="G457">
-        <v>16897</v>
-      </c>
-      <c r="H457">
-        <v>27040</v>
-      </c>
-      <c r="I457">
-        <v>44686</v>
-      </c>
-      <c r="J457">
-        <v>153</v>
-      </c>
-      <c r="K457">
-        <v>565</v>
-      </c>
-      <c r="L457">
-        <v>2</v>
-      </c>
-      <c r="M457">
-        <v>563</v>
-      </c>
-      <c r="N457">
-        <v>153</v>
-      </c>
-      <c r="O457">
-        <v>42</v>
-      </c>
-      <c r="P457">
-        <v>60</v>
-      </c>
-      <c r="Q457">
-        <v>9</v>
-      </c>
-      <c r="R457">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="458" spans="1:18">
-      <c r="A458" t="s">
-        <v>474</v>
-      </c>
-      <c r="B458">
-        <v>457</v>
-      </c>
-      <c r="C458">
-        <v>17775</v>
-      </c>
-      <c r="D458">
-        <v>509</v>
-      </c>
-      <c r="E458">
-        <v>184</v>
-      </c>
-      <c r="F458">
-        <v>0.02863572433</v>
-      </c>
-      <c r="G458">
-        <v>17029</v>
-      </c>
-      <c r="H458">
-        <v>27040</v>
-      </c>
-      <c r="I458">
-        <v>44815</v>
-      </c>
-      <c r="J458">
-        <v>129</v>
-      </c>
-      <c r="K458">
-        <v>529</v>
-      </c>
-      <c r="L458">
-        <v>4</v>
-      </c>
-      <c r="M458">
-        <v>525</v>
-      </c>
-      <c r="N458">
-        <v>129</v>
-      </c>
-      <c r="O458">
-        <v>49</v>
-      </c>
-      <c r="P458">
-        <v>58</v>
-      </c>
-      <c r="Q458">
-        <v>3</v>
-      </c>
-      <c r="R458">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="459" spans="1:18">
-      <c r="A459" t="s">
-        <v>475</v>
-      </c>
-      <c r="B459">
-        <v>459</v>
-      </c>
-      <c r="C459">
-        <v>17892</v>
-      </c>
-      <c r="D459">
-        <v>509</v>
-      </c>
-      <c r="E459">
-        <v>182</v>
-      </c>
-      <c r="F459">
-        <v>0.02844846859</v>
-      </c>
-      <c r="G459">
-        <v>17148</v>
-      </c>
-      <c r="H459">
-        <v>27040</v>
-      </c>
-      <c r="I459">
-        <v>44932</v>
-      </c>
-      <c r="J459">
-        <v>117</v>
-      </c>
-      <c r="K459">
-        <v>566</v>
-      </c>
-      <c r="L459">
-        <v>2</v>
-      </c>
-      <c r="M459">
-        <v>564</v>
-      </c>
-      <c r="N459">
-        <v>117</v>
-      </c>
-      <c r="O459">
-        <v>42</v>
-      </c>
-      <c r="P459">
-        <v>59</v>
-      </c>
-      <c r="Q459">
-        <v>0</v>
-      </c>
-      <c r="R459">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/dados_dygraph2.xlsx
+++ b/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t>Data</t>
   </si>
@@ -1145,6 +1145,303 @@
   </si>
   <si>
     <t>2021/03/23</t>
+  </si>
+  <si>
+    <t>2021/03/24</t>
+  </si>
+  <si>
+    <t>2021/03/25</t>
+  </si>
+  <si>
+    <t>2021/03/26</t>
+  </si>
+  <si>
+    <t>2021/03/27</t>
+  </si>
+  <si>
+    <t>2021/03/28</t>
+  </si>
+  <si>
+    <t>2021/03/29</t>
+  </si>
+  <si>
+    <t>2021/03/30</t>
+  </si>
+  <si>
+    <t>2021/03/31</t>
+  </si>
+  <si>
+    <t>2021/04/01</t>
+  </si>
+  <si>
+    <t>2021/04/02</t>
+  </si>
+  <si>
+    <t>2021/04/03</t>
+  </si>
+  <si>
+    <t>2021/04/04</t>
+  </si>
+  <si>
+    <t>2021/04/05</t>
+  </si>
+  <si>
+    <t>2021/04/06</t>
+  </si>
+  <si>
+    <t>2021/04/07</t>
+  </si>
+  <si>
+    <t>2021/04/08</t>
+  </si>
+  <si>
+    <t>2021/04/09</t>
+  </si>
+  <si>
+    <t>2021/04/10</t>
+  </si>
+  <si>
+    <t>2021/04/11</t>
+  </si>
+  <si>
+    <t>2021/04/12</t>
+  </si>
+  <si>
+    <t>2021/04/13</t>
+  </si>
+  <si>
+    <t>2021/04/14</t>
+  </si>
+  <si>
+    <t>2021/04/15</t>
+  </si>
+  <si>
+    <t>2021/04/16</t>
+  </si>
+  <si>
+    <t>2021/04/17</t>
+  </si>
+  <si>
+    <t>2021/04/18</t>
+  </si>
+  <si>
+    <t>2021/04/19</t>
+  </si>
+  <si>
+    <t>2021/04/20</t>
+  </si>
+  <si>
+    <t>2021/04/21</t>
+  </si>
+  <si>
+    <t>2021/04/22</t>
+  </si>
+  <si>
+    <t>2021/04/23</t>
+  </si>
+  <si>
+    <t>2021/04/24</t>
+  </si>
+  <si>
+    <t>2021/04/25</t>
+  </si>
+  <si>
+    <t>2021/04/26</t>
+  </si>
+  <si>
+    <t>2021/04/27</t>
+  </si>
+  <si>
+    <t>2021/04/28</t>
+  </si>
+  <si>
+    <t>2021/04/29</t>
+  </si>
+  <si>
+    <t>2021/04/30</t>
+  </si>
+  <si>
+    <t>2021/05/01</t>
+  </si>
+  <si>
+    <t>2021/05/02</t>
+  </si>
+  <si>
+    <t>2021/05/03</t>
+  </si>
+  <si>
+    <t>2021/05/04</t>
+  </si>
+  <si>
+    <t>2021/05/05</t>
+  </si>
+  <si>
+    <t>2021/05/06</t>
+  </si>
+  <si>
+    <t>2021/05/07</t>
+  </si>
+  <si>
+    <t>2021/05/08</t>
+  </si>
+  <si>
+    <t>2021/05/09</t>
+  </si>
+  <si>
+    <t>2021/05/10</t>
+  </si>
+  <si>
+    <t>2021/05/11</t>
+  </si>
+  <si>
+    <t>2021/05/12</t>
+  </si>
+  <si>
+    <t>2021/05/13</t>
+  </si>
+  <si>
+    <t>2021/05/14</t>
+  </si>
+  <si>
+    <t>2021/05/15</t>
+  </si>
+  <si>
+    <t>2021/05/16</t>
+  </si>
+  <si>
+    <t>2021/05/17</t>
+  </si>
+  <si>
+    <t>2021/05/18</t>
+  </si>
+  <si>
+    <t>2021/05/19</t>
+  </si>
+  <si>
+    <t>2021/05/20</t>
+  </si>
+  <si>
+    <t>2021/05/21</t>
+  </si>
+  <si>
+    <t>2021/05/22</t>
+  </si>
+  <si>
+    <t>2021/05/23</t>
+  </si>
+  <si>
+    <t>2021/05/24</t>
+  </si>
+  <si>
+    <t>2021/05/25</t>
+  </si>
+  <si>
+    <t>2021/05/26</t>
+  </si>
+  <si>
+    <t>2021/05/27</t>
+  </si>
+  <si>
+    <t>2021/05/28</t>
+  </si>
+  <si>
+    <t>2021/05/29</t>
+  </si>
+  <si>
+    <t>2021/05/30</t>
+  </si>
+  <si>
+    <t>2021/05/31</t>
+  </si>
+  <si>
+    <t>2021/06/01</t>
+  </si>
+  <si>
+    <t>2021/06/02</t>
+  </si>
+  <si>
+    <t>2021/06/03</t>
+  </si>
+  <si>
+    <t>2021/06/04</t>
+  </si>
+  <si>
+    <t>2021/06/05</t>
+  </si>
+  <si>
+    <t>2021/06/06</t>
+  </si>
+  <si>
+    <t>2021/06/07</t>
+  </si>
+  <si>
+    <t>2021/06/08</t>
+  </si>
+  <si>
+    <t>2021/06/09</t>
+  </si>
+  <si>
+    <t>2021/06/10</t>
+  </si>
+  <si>
+    <t>2021/06/11</t>
+  </si>
+  <si>
+    <t>2021/06/12</t>
+  </si>
+  <si>
+    <t>2021/06/13</t>
+  </si>
+  <si>
+    <t>2021/06/14</t>
+  </si>
+  <si>
+    <t>2021/06/15</t>
+  </si>
+  <si>
+    <t>2021/06/16</t>
+  </si>
+  <si>
+    <t>2021/06/17</t>
+  </si>
+  <si>
+    <t>2021/06/18</t>
+  </si>
+  <si>
+    <t>2021/06/19</t>
+  </si>
+  <si>
+    <t>2021/06/20</t>
+  </si>
+  <si>
+    <t>2021/06/21</t>
+  </si>
+  <si>
+    <t>2021/06/22</t>
+  </si>
+  <si>
+    <t>2021/06/23</t>
+  </si>
+  <si>
+    <t>2021/06/24</t>
+  </si>
+  <si>
+    <t>2021/06/25</t>
+  </si>
+  <si>
+    <t>2021/06/26</t>
+  </si>
+  <si>
+    <t>2021/06/27</t>
+  </si>
+  <si>
+    <t>2021/06/28</t>
+  </si>
+  <si>
+    <t>2021/06/29</t>
+  </si>
+  <si>
+    <t>2021/06/30</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R360"/>
+  <dimension ref="A1:R459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3436,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>0.02941176470588235</v>
+        <v>0.02941176471</v>
       </c>
       <c r="G37">
         <v>31</v>
@@ -3492,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>0.02857142857142857</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -3548,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>0.02857142857142857</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G39">
         <v>32</v>
@@ -3604,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>0.02857142857142857</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G40">
         <v>32</v>
@@ -3660,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>0.02702702702702703</v>
+        <v>0.02702702703</v>
       </c>
       <c r="G41">
         <v>33</v>
@@ -3716,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>0.02702702702702703</v>
+        <v>0.02702702703</v>
       </c>
       <c r="G42">
         <v>33</v>
@@ -3772,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>0.02631578947368421</v>
+        <v>0.02631578947</v>
       </c>
       <c r="G43">
         <v>34</v>
@@ -3828,7 +4125,7 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>0.02380952380952381</v>
+        <v>0.02380952381</v>
       </c>
       <c r="G44">
         <v>35</v>
@@ -3884,7 +4181,7 @@
         <v>6</v>
       </c>
       <c r="F45">
-        <v>0.04651162790697674</v>
+        <v>0.04651162791</v>
       </c>
       <c r="G45">
         <v>35</v>
@@ -3940,7 +4237,7 @@
         <v>8</v>
       </c>
       <c r="F46">
-        <v>0.04444444444444445</v>
+        <v>0.04444444444</v>
       </c>
       <c r="G46">
         <v>35</v>
@@ -3996,7 +4293,7 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>0.04347826086956522</v>
+        <v>0.04347826087</v>
       </c>
       <c r="G47">
         <v>35</v>
@@ -4052,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="F48">
-        <v>0.0392156862745098</v>
+        <v>0.03921568627</v>
       </c>
       <c r="G48">
         <v>36</v>
@@ -4108,7 +4405,7 @@
         <v>13</v>
       </c>
       <c r="F49">
-        <v>0.03846153846153846</v>
+        <v>0.03846153846000001</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -4164,7 +4461,7 @@
         <v>14</v>
       </c>
       <c r="F50">
-        <v>0.03773584905660377</v>
+        <v>0.03773584906000001</v>
       </c>
       <c r="G50">
         <v>37</v>
@@ -4220,7 +4517,7 @@
         <v>15</v>
       </c>
       <c r="F51">
-        <v>0.05263157894736842</v>
+        <v>0.05263157894999999</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -4276,7 +4573,7 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>0.05263157894736842</v>
+        <v>0.05263157894999999</v>
       </c>
       <c r="G52">
         <v>39</v>
@@ -4332,7 +4629,7 @@
         <v>14</v>
       </c>
       <c r="F53">
-        <v>0.06666666666666667</v>
+        <v>0.06666666667</v>
       </c>
       <c r="G53">
         <v>42</v>
@@ -4388,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="F54">
-        <v>0.06060606060606061</v>
+        <v>0.06060606061000001</v>
       </c>
       <c r="G54">
         <v>42</v>
@@ -4444,7 +4741,7 @@
         <v>25</v>
       </c>
       <c r="F55">
-        <v>0.05333333333333334</v>
+        <v>0.05333333333</v>
       </c>
       <c r="G55">
         <v>48</v>
@@ -4556,7 +4853,7 @@
         <v>24</v>
       </c>
       <c r="F57">
-        <v>0.04938271604938271</v>
+        <v>0.04938271605</v>
       </c>
       <c r="G57">
         <v>53</v>
@@ -4612,7 +4909,7 @@
         <v>32</v>
       </c>
       <c r="F58">
-        <v>0.04444444444444445</v>
+        <v>0.04444444444</v>
       </c>
       <c r="G58">
         <v>54</v>
@@ -4668,7 +4965,7 @@
         <v>30</v>
       </c>
       <c r="F59">
-        <v>0.04040404040404041</v>
+        <v>0.0404040404</v>
       </c>
       <c r="G59">
         <v>65</v>
@@ -4724,7 +5021,7 @@
         <v>35</v>
       </c>
       <c r="F60">
-        <v>0.03571428571428571</v>
+        <v>0.03571428571</v>
       </c>
       <c r="G60">
         <v>73</v>
@@ -4780,7 +5077,7 @@
         <v>33</v>
       </c>
       <c r="F61">
-        <v>0.03448275862068965</v>
+        <v>0.03448275862</v>
       </c>
       <c r="G61">
         <v>79</v>
@@ -4836,7 +5133,7 @@
         <v>40</v>
       </c>
       <c r="F62">
-        <v>0.0291970802919708</v>
+        <v>0.02919708029</v>
       </c>
       <c r="G62">
         <v>93</v>
@@ -4892,7 +5189,7 @@
         <v>32</v>
       </c>
       <c r="F63">
-        <v>0.0291970802919708</v>
+        <v>0.02919708029</v>
       </c>
       <c r="G63">
         <v>101</v>
@@ -4948,7 +5245,7 @@
         <v>24</v>
       </c>
       <c r="F64">
-        <v>0.02898550724637681</v>
+        <v>0.02898550725</v>
       </c>
       <c r="G64">
         <v>110</v>
@@ -5004,7 +5301,7 @@
         <v>27</v>
       </c>
       <c r="F65">
-        <v>0.0273972602739726</v>
+        <v>0.02739726027</v>
       </c>
       <c r="G65">
         <v>115</v>
@@ -5060,7 +5357,7 @@
         <v>27</v>
       </c>
       <c r="F66">
-        <v>0.02649006622516556</v>
+        <v>0.02649006623</v>
       </c>
       <c r="G66">
         <v>120</v>
@@ -5116,7 +5413,7 @@
         <v>26</v>
       </c>
       <c r="F67">
-        <v>0.02531645569620253</v>
+        <v>0.0253164557</v>
       </c>
       <c r="G67">
         <v>128</v>
@@ -5172,7 +5469,7 @@
         <v>31</v>
       </c>
       <c r="F68">
-        <v>0.02366863905325444</v>
+        <v>0.02366863905</v>
       </c>
       <c r="G68">
         <v>134</v>
@@ -5228,7 +5525,7 @@
         <v>28</v>
       </c>
       <c r="F69">
-        <v>0.02259887005649718</v>
+        <v>0.02259887006</v>
       </c>
       <c r="G69">
         <v>144</v>
@@ -5284,7 +5581,7 @@
         <v>33</v>
       </c>
       <c r="F70">
-        <v>0.02173913043478261</v>
+        <v>0.02173913043</v>
       </c>
       <c r="G70">
         <v>146</v>
@@ -5340,7 +5637,7 @@
         <v>37</v>
       </c>
       <c r="F71">
-        <v>0.02604166666666667</v>
+        <v>0.02604166667</v>
       </c>
       <c r="G71">
         <v>149</v>
@@ -5396,7 +5693,7 @@
         <v>37</v>
       </c>
       <c r="F72">
-        <v>0.02439024390243903</v>
+        <v>0.0243902439</v>
       </c>
       <c r="G72">
         <v>162</v>
@@ -5452,7 +5749,7 @@
         <v>49</v>
       </c>
       <c r="F73">
-        <v>0.02643171806167401</v>
+        <v>0.02643171806</v>
       </c>
       <c r="G73">
         <v>171</v>
@@ -5508,7 +5805,7 @@
         <v>46</v>
       </c>
       <c r="F74">
-        <v>0.02531645569620253</v>
+        <v>0.0253164557</v>
       </c>
       <c r="G74">
         <v>184</v>
@@ -5564,7 +5861,7 @@
         <v>42</v>
       </c>
       <c r="F75">
-        <v>0.02845528455284553</v>
+        <v>0.02845528455</v>
       </c>
       <c r="G75">
         <v>196</v>
@@ -5620,7 +5917,7 @@
         <v>36</v>
       </c>
       <c r="F76">
-        <v>0.02766798418972332</v>
+        <v>0.02766798419</v>
       </c>
       <c r="G76">
         <v>209</v>
@@ -5676,7 +5973,7 @@
         <v>41</v>
       </c>
       <c r="F77">
-        <v>0.03358208955223881</v>
+        <v>0.03358208955</v>
       </c>
       <c r="G77">
         <v>217</v>
@@ -5732,7 +6029,7 @@
         <v>35</v>
       </c>
       <c r="F78">
-        <v>0.03690036900369004</v>
+        <v>0.036900369</v>
       </c>
       <c r="G78">
         <v>225</v>
@@ -5788,7 +6085,7 @@
         <v>36</v>
       </c>
       <c r="F79">
-        <v>0.03985507246376811</v>
+        <v>0.03985507246</v>
       </c>
       <c r="G79">
         <v>228</v>
@@ -5844,7 +6141,7 @@
         <v>48</v>
       </c>
       <c r="F80">
-        <v>0.04081632653061224</v>
+        <v>0.04081632653</v>
       </c>
       <c r="G80">
         <v>233</v>
@@ -5900,7 +6197,7 @@
         <v>55</v>
       </c>
       <c r="F81">
-        <v>0.04024767801857585</v>
+        <v>0.04024767802</v>
       </c>
       <c r="G81">
         <v>253</v>
@@ -5956,7 +6253,7 @@
         <v>62</v>
       </c>
       <c r="F82">
-        <v>0.04093567251461988</v>
+        <v>0.04093567251</v>
       </c>
       <c r="G82">
         <v>264</v>
@@ -6012,7 +6309,7 @@
         <v>73</v>
       </c>
       <c r="F83">
-        <v>0.03814713896457766</v>
+        <v>0.03814713896</v>
       </c>
       <c r="G83">
         <v>278</v>
@@ -6068,7 +6365,7 @@
         <v>92</v>
       </c>
       <c r="F84">
-        <v>0.03759398496240601</v>
+        <v>0.03759398496</v>
       </c>
       <c r="G84">
         <v>290</v>
@@ -6124,7 +6421,7 @@
         <v>94</v>
       </c>
       <c r="F85">
-        <v>0.03676470588235294</v>
+        <v>0.03676470588</v>
       </c>
       <c r="G85">
         <v>297</v>
@@ -6180,7 +6477,7 @@
         <v>93</v>
       </c>
       <c r="F86">
-        <v>0.03764705882352941</v>
+        <v>0.03764705882</v>
       </c>
       <c r="G86">
         <v>314</v>
@@ -6236,7 +6533,7 @@
         <v>100</v>
       </c>
       <c r="F87">
-        <v>0.03524229074889868</v>
+        <v>0.03524229075</v>
       </c>
       <c r="G87">
         <v>334</v>
@@ -6292,7 +6589,7 @@
         <v>120</v>
       </c>
       <c r="F88">
-        <v>0.03232323232323232</v>
+        <v>0.03232323232</v>
       </c>
       <c r="G88">
         <v>355</v>
@@ -6348,7 +6645,7 @@
         <v>124</v>
       </c>
       <c r="F89">
-        <v>0.03345724907063197</v>
+        <v>0.03345724906999999</v>
       </c>
       <c r="G89">
         <v>393</v>
@@ -6404,7 +6701,7 @@
         <v>163</v>
       </c>
       <c r="F90">
-        <v>0.03010033444816054</v>
+        <v>0.03010033445</v>
       </c>
       <c r="G90">
         <v>414</v>
@@ -6460,7 +6757,7 @@
         <v>149</v>
       </c>
       <c r="F91">
-        <v>0.02852614896988907</v>
+        <v>0.02852614897</v>
       </c>
       <c r="G91">
         <v>461</v>
@@ -6516,7 +6813,7 @@
         <v>132</v>
       </c>
       <c r="F92">
-        <v>0.02790697674418605</v>
+        <v>0.02790697674</v>
       </c>
       <c r="G92">
         <v>492</v>
@@ -6572,7 +6869,7 @@
         <v>109</v>
       </c>
       <c r="F93">
-        <v>0.02702702702702703</v>
+        <v>0.02702702703</v>
       </c>
       <c r="G93">
         <v>536</v>
@@ -6628,7 +6925,7 @@
         <v>112</v>
       </c>
       <c r="F94">
-        <v>0.02710413694721826</v>
+        <v>0.02710413695</v>
       </c>
       <c r="G94">
         <v>567</v>
@@ -6684,7 +6981,7 @@
         <v>126</v>
       </c>
       <c r="F95">
-        <v>0.0286493860845839</v>
+        <v>0.02864938608</v>
       </c>
       <c r="G95">
         <v>583</v>
@@ -6740,7 +7037,7 @@
         <v>117</v>
       </c>
       <c r="F96">
-        <v>0.02864583333333333</v>
+        <v>0.02864583333</v>
       </c>
       <c r="G96">
         <v>626</v>
@@ -6796,7 +7093,7 @@
         <v>131</v>
       </c>
       <c r="F97">
-        <v>0.0273972602739726</v>
+        <v>0.02739726027</v>
       </c>
       <c r="G97">
         <v>647</v>
@@ -6852,7 +7149,7 @@
         <v>139</v>
       </c>
       <c r="F98">
-        <v>0.02573099415204678</v>
+        <v>0.02573099415</v>
       </c>
       <c r="G98">
         <v>691</v>
@@ -6908,7 +7205,7 @@
         <v>122</v>
       </c>
       <c r="F99">
-        <v>0.02566964285714286</v>
+        <v>0.02566964286</v>
       </c>
       <c r="G99">
         <v>748</v>
@@ -6964,7 +7261,7 @@
         <v>124</v>
       </c>
       <c r="F100">
-        <v>0.02611534276387378</v>
+        <v>0.02611534276</v>
       </c>
       <c r="G100">
         <v>767</v>
@@ -7020,7 +7317,7 @@
         <v>119</v>
       </c>
       <c r="F101">
-        <v>0.02534318901795143</v>
+        <v>0.02534318902</v>
       </c>
       <c r="G101">
         <v>800</v>
@@ -7076,7 +7373,7 @@
         <v>111</v>
       </c>
       <c r="F102">
-        <v>0.02476780185758514</v>
+        <v>0.02476780186</v>
       </c>
       <c r="G102">
         <v>831</v>
@@ -7132,7 +7429,7 @@
         <v>120</v>
       </c>
       <c r="F103">
-        <v>0.02559055118110236</v>
+        <v>0.02559055118</v>
       </c>
       <c r="G103">
         <v>866</v>
@@ -7244,7 +7541,7 @@
         <v>103</v>
       </c>
       <c r="F105">
-        <v>0.02583732057416268</v>
+        <v>0.02583732057</v>
       </c>
       <c r="G105">
         <v>911</v>
@@ -7300,7 +7597,7 @@
         <v>101</v>
       </c>
       <c r="F106">
-        <v>0.02756653992395437</v>
+        <v>0.02756653992</v>
       </c>
       <c r="G106">
         <v>917</v>
@@ -7356,7 +7653,7 @@
         <v>87</v>
       </c>
       <c r="F107">
-        <v>0.02827521206409048</v>
+        <v>0.02827521206</v>
       </c>
       <c r="G107">
         <v>939</v>
@@ -7412,7 +7709,7 @@
         <v>92</v>
       </c>
       <c r="F108">
-        <v>0.02752293577981652</v>
+        <v>0.02752293578</v>
       </c>
       <c r="G108">
         <v>963</v>
@@ -7468,7 +7765,7 @@
         <v>90</v>
       </c>
       <c r="F109">
-        <v>0.0274822695035461</v>
+        <v>0.0274822695</v>
       </c>
       <c r="G109">
         <v>1002</v>
@@ -7524,7 +7821,7 @@
         <v>91</v>
       </c>
       <c r="F110">
-        <v>0.02857142857142857</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G110">
         <v>1025</v>
@@ -7580,7 +7877,7 @@
         <v>91</v>
       </c>
       <c r="F111">
-        <v>0.02791878172588833</v>
+        <v>0.02791878173</v>
       </c>
       <c r="G111">
         <v>1052</v>
@@ -7692,7 +7989,7 @@
         <v>91</v>
       </c>
       <c r="F113">
-        <v>0.03042763157894737</v>
+        <v>0.03042763158</v>
       </c>
       <c r="G113">
         <v>1082</v>
@@ -7748,7 +8045,7 @@
         <v>85</v>
       </c>
       <c r="F114">
-        <v>0.03086921202274574</v>
+        <v>0.03086921202</v>
       </c>
       <c r="G114">
         <v>1102</v>
@@ -7804,7 +8101,7 @@
         <v>101</v>
       </c>
       <c r="F115">
-        <v>0.02966432474629196</v>
+        <v>0.02966432475</v>
       </c>
       <c r="G115">
         <v>1135</v>
@@ -7860,7 +8157,7 @@
         <v>100</v>
       </c>
       <c r="F116">
-        <v>0.02947845804988662</v>
+        <v>0.02947845805</v>
       </c>
       <c r="G116">
         <v>1176</v>
@@ -7916,7 +8213,7 @@
         <v>119</v>
       </c>
       <c r="F117">
-        <v>0.03076923076923077</v>
+        <v>0.03076923077</v>
       </c>
       <c r="G117">
         <v>1196</v>
@@ -7972,7 +8269,7 @@
         <v>120</v>
       </c>
       <c r="F118">
-        <v>0.03060498220640569</v>
+        <v>0.03060498221</v>
       </c>
       <c r="G118">
         <v>1234</v>
@@ -8028,7 +8325,7 @@
         <v>122</v>
       </c>
       <c r="F119">
-        <v>0.03114186851211072</v>
+        <v>0.03114186851</v>
       </c>
       <c r="G119">
         <v>1270</v>
@@ -8084,7 +8381,7 @@
         <v>104</v>
       </c>
       <c r="F120">
-        <v>0.03170227429359063</v>
+        <v>0.03170227429</v>
       </c>
       <c r="G120">
         <v>1293</v>
@@ -8140,7 +8437,7 @@
         <v>108</v>
       </c>
       <c r="F121">
-        <v>0.03179972936400541</v>
+        <v>0.03179972936</v>
       </c>
       <c r="G121">
         <v>1314</v>
@@ -8196,7 +8493,7 @@
         <v>108</v>
       </c>
       <c r="F122">
-        <v>0.03079947575360419</v>
+        <v>0.03079947575</v>
       </c>
       <c r="G122">
         <v>1361</v>
@@ -8252,7 +8549,7 @@
         <v>109</v>
       </c>
       <c r="F123">
-        <v>0.02987921169739352</v>
+        <v>0.0298792117</v>
       </c>
       <c r="G123">
         <v>1407</v>
@@ -8308,7 +8605,7 @@
         <v>106</v>
       </c>
       <c r="F124">
-        <v>0.02972136222910217</v>
+        <v>0.02972136223</v>
       </c>
       <c r="G124">
         <v>1451</v>
@@ -8364,7 +8661,7 @@
         <v>102</v>
       </c>
       <c r="F125">
-        <v>0.02900302114803625</v>
+        <v>0.02900302115</v>
       </c>
       <c r="G125">
         <v>1495</v>
@@ -8420,7 +8717,7 @@
         <v>103</v>
       </c>
       <c r="F126">
-        <v>0.02865671641791045</v>
+        <v>0.02865671642</v>
       </c>
       <c r="G126">
         <v>1514</v>
@@ -8476,7 +8773,7 @@
         <v>94</v>
       </c>
       <c r="F127">
-        <v>0.02857142857142857</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G127">
         <v>1528</v>
@@ -8532,7 +8829,7 @@
         <v>82</v>
       </c>
       <c r="F128">
-        <v>0.02823529411764706</v>
+        <v>0.02823529412</v>
       </c>
       <c r="G128">
         <v>1560</v>
@@ -8588,7 +8885,7 @@
         <v>76</v>
       </c>
       <c r="F129">
-        <v>0.02825836216839677</v>
+        <v>0.02825836217</v>
       </c>
       <c r="G129">
         <v>1598</v>
@@ -8644,7 +8941,7 @@
         <v>68</v>
       </c>
       <c r="F130">
-        <v>0.02894438138479001</v>
+        <v>0.02894438138</v>
       </c>
       <c r="G130">
         <v>1632</v>
@@ -8700,7 +8997,7 @@
         <v>73</v>
       </c>
       <c r="F131">
-        <v>0.02853945159485171</v>
+        <v>0.02853945159</v>
       </c>
       <c r="G131">
         <v>1652</v>
@@ -8756,7 +9053,7 @@
         <v>74</v>
       </c>
       <c r="F132">
-        <v>0.02874516307352128</v>
+        <v>0.02874516307</v>
       </c>
       <c r="G132">
         <v>1672</v>
@@ -8812,7 +9109,7 @@
         <v>68</v>
       </c>
       <c r="F133">
-        <v>0.028555738605162</v>
+        <v>0.02855573861</v>
       </c>
       <c r="G133">
         <v>1690</v>
@@ -8868,7 +9165,7 @@
         <v>65</v>
       </c>
       <c r="F134">
-        <v>0.02854006586169045</v>
+        <v>0.02854006586</v>
       </c>
       <c r="G134">
         <v>1694</v>
@@ -8924,7 +9221,7 @@
         <v>67</v>
       </c>
       <c r="F135">
-        <v>0.02827623708537249</v>
+        <v>0.02827623709</v>
       </c>
       <c r="G135">
         <v>1709</v>
@@ -8980,7 +9277,7 @@
         <v>61</v>
       </c>
       <c r="F136">
-        <v>0.02791196994095545</v>
+        <v>0.02791196994</v>
       </c>
       <c r="G136">
         <v>1739</v>
@@ -9036,7 +9333,7 @@
         <v>62</v>
       </c>
       <c r="F137">
-        <v>0.02925531914893617</v>
+        <v>0.02925531915</v>
       </c>
       <c r="G137">
         <v>1752</v>
@@ -9092,7 +9389,7 @@
         <v>63</v>
       </c>
       <c r="F138">
-        <v>0.02899314707432788</v>
+        <v>0.02899314707</v>
       </c>
       <c r="G138">
         <v>1768</v>
@@ -9148,7 +9445,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>0.02967204580947423</v>
+        <v>0.02967204581</v>
       </c>
       <c r="G139">
         <v>1786</v>
@@ -9204,7 +9501,7 @@
         <v>53</v>
       </c>
       <c r="F140">
-        <v>0.02951838425686173</v>
+        <v>0.02951838426000001</v>
       </c>
       <c r="G140">
         <v>1810</v>
@@ -9260,7 +9557,7 @@
         <v>49</v>
       </c>
       <c r="F141">
-        <v>0.03000517330574237</v>
+        <v>0.03000517331</v>
       </c>
       <c r="G141">
         <v>1815</v>
@@ -9316,7 +9613,7 @@
         <v>40</v>
       </c>
       <c r="F142">
-        <v>0.02980472764645426</v>
+        <v>0.02980472765</v>
       </c>
       <c r="G142">
         <v>1836</v>
@@ -9372,7 +9669,7 @@
         <v>47</v>
       </c>
       <c r="F143">
-        <v>0.02947154471544716</v>
+        <v>0.02947154472</v>
       </c>
       <c r="G143">
         <v>1851</v>
@@ -9428,7 +9725,7 @@
         <v>51</v>
       </c>
       <c r="F144">
-        <v>0.0291018564977421</v>
+        <v>0.0291018565</v>
       </c>
       <c r="G144">
         <v>1872</v>
@@ -9484,7 +9781,7 @@
         <v>63</v>
       </c>
       <c r="F145">
-        <v>0.02875557759048091</v>
+        <v>0.02875557759</v>
       </c>
       <c r="G145">
         <v>1884</v>
@@ -9540,7 +9837,7 @@
         <v>60</v>
       </c>
       <c r="F146">
-        <v>0.02858551010349926</v>
+        <v>0.0285855101</v>
       </c>
       <c r="G146">
         <v>1899</v>
@@ -9596,7 +9893,7 @@
         <v>62</v>
       </c>
       <c r="F147">
-        <v>0.02838962310327949</v>
+        <v>0.0283896231</v>
       </c>
       <c r="G147">
         <v>1911</v>
@@ -9708,7 +10005,7 @@
         <v>49</v>
       </c>
       <c r="F149">
-        <v>0.0290838584585555</v>
+        <v>0.02908385846</v>
       </c>
       <c r="G149">
         <v>1942</v>
@@ -9764,7 +10061,7 @@
         <v>43</v>
       </c>
       <c r="F150">
-        <v>0.02884615384615385</v>
+        <v>0.02884615385</v>
       </c>
       <c r="G150">
         <v>1964</v>
@@ -9820,7 +10117,7 @@
         <v>39</v>
       </c>
       <c r="F151">
-        <v>0.02956604673342871</v>
+        <v>0.02956604673</v>
       </c>
       <c r="G151">
         <v>1983</v>
@@ -9876,7 +10173,7 @@
         <v>40</v>
       </c>
       <c r="F152">
-        <v>0.02985781990521327</v>
+        <v>0.02985781991</v>
       </c>
       <c r="G152">
         <v>1994</v>
@@ -9932,7 +10229,7 @@
         <v>45</v>
       </c>
       <c r="F153">
-        <v>0.0294392523364486</v>
+        <v>0.02943925234</v>
       </c>
       <c r="G153">
         <v>2019</v>
@@ -9988,7 +10285,7 @@
         <v>43</v>
       </c>
       <c r="F154">
-        <v>0.02938432835820896</v>
+        <v>0.02938432836</v>
       </c>
       <c r="G154">
         <v>2025</v>
@@ -10044,7 +10341,7 @@
         <v>42</v>
       </c>
       <c r="F155">
-        <v>0.0297536029753603</v>
+        <v>0.02975360298</v>
       </c>
       <c r="G155">
         <v>2032</v>
@@ -10100,7 +10397,7 @@
         <v>38</v>
       </c>
       <c r="F156">
-        <v>0.03038674033149171</v>
+        <v>0.03038674033</v>
       </c>
       <c r="G156">
         <v>2055</v>
@@ -10156,7 +10453,7 @@
         <v>40</v>
       </c>
       <c r="F157">
-        <v>0.03015075376884422</v>
+        <v>0.03015075377</v>
       </c>
       <c r="G157">
         <v>2070</v>
@@ -10212,7 +10509,7 @@
         <v>49</v>
       </c>
       <c r="F158">
-        <v>0.03033046627433228</v>
+        <v>0.03033046627</v>
       </c>
       <c r="G158">
         <v>2076</v>
@@ -10268,7 +10565,7 @@
         <v>43</v>
       </c>
       <c r="F159">
-        <v>0.03050695379093764</v>
+        <v>0.03050695379</v>
       </c>
       <c r="G159">
         <v>2105</v>
@@ -10324,7 +10621,7 @@
         <v>47</v>
       </c>
       <c r="F160">
-        <v>0.03022222222222222</v>
+        <v>0.03022222222</v>
       </c>
       <c r="G160">
         <v>2122</v>
@@ -10380,7 +10677,7 @@
         <v>44</v>
       </c>
       <c r="F161">
-        <v>0.03018197958277852</v>
+        <v>0.03018197958</v>
       </c>
       <c r="G161">
         <v>2128</v>
@@ -10436,7 +10733,7 @@
         <v>36</v>
       </c>
       <c r="F162">
-        <v>0.03059866962305987</v>
+        <v>0.03059866962</v>
       </c>
       <c r="G162">
         <v>2137</v>
@@ -10492,7 +10789,7 @@
         <v>29</v>
       </c>
       <c r="F163">
-        <v>0.03059866962305987</v>
+        <v>0.03059866962</v>
       </c>
       <c r="G163">
         <v>2144</v>
@@ -10548,7 +10845,7 @@
         <v>37</v>
       </c>
       <c r="F164">
-        <v>0.03038309114927345</v>
+        <v>0.03038309115</v>
       </c>
       <c r="G164">
         <v>2152</v>
@@ -10604,7 +10901,7 @@
         <v>33</v>
       </c>
       <c r="F165">
-        <v>0.03066141042487954</v>
+        <v>0.03066141042</v>
       </c>
       <c r="G165">
         <v>2167</v>
@@ -10660,7 +10957,7 @@
         <v>50</v>
       </c>
       <c r="F166">
-        <v>0.03025064822817632</v>
+        <v>0.03025064823</v>
       </c>
       <c r="G166">
         <v>2181</v>
@@ -10716,7 +11013,7 @@
         <v>53</v>
       </c>
       <c r="F167">
-        <v>0.02995293110825845</v>
+        <v>0.02995293111</v>
       </c>
       <c r="G167">
         <v>2201</v>
@@ -10772,7 +11069,7 @@
         <v>53</v>
       </c>
       <c r="F168">
-        <v>0.02982530890498509</v>
+        <v>0.0298253089</v>
       </c>
       <c r="G168">
         <v>2211</v>
@@ -10828,7 +11125,7 @@
         <v>51</v>
       </c>
       <c r="F169">
-        <v>0.02982530890498509</v>
+        <v>0.0298253089</v>
       </c>
       <c r="G169">
         <v>2213</v>
@@ -10884,7 +11181,7 @@
         <v>48</v>
       </c>
       <c r="F170">
-        <v>0.02958579881656805</v>
+        <v>0.02958579882</v>
       </c>
       <c r="G170">
         <v>2235</v>
@@ -10940,7 +11237,7 @@
         <v>54</v>
       </c>
       <c r="F171">
-        <v>0.02923976608187134</v>
+        <v>0.02923976608</v>
       </c>
       <c r="G171">
         <v>2257</v>
@@ -10996,7 +11293,7 @@
         <v>65</v>
       </c>
       <c r="F172">
-        <v>0.0288421920065925</v>
+        <v>0.02884219201</v>
       </c>
       <c r="G172">
         <v>2279</v>
@@ -11052,7 +11349,7 @@
         <v>75</v>
       </c>
       <c r="F173">
-        <v>0.02858309514087383</v>
+        <v>0.02858309514</v>
       </c>
       <c r="G173">
         <v>2291</v>
@@ -11108,7 +11405,7 @@
         <v>83</v>
       </c>
       <c r="F174">
-        <v>0.02871006874241811</v>
+        <v>0.02871006874</v>
       </c>
       <c r="G174">
         <v>2306</v>
@@ -11164,7 +11461,7 @@
         <v>79</v>
       </c>
       <c r="F175">
-        <v>0.02888086642599278</v>
+        <v>0.02888086643</v>
       </c>
       <c r="G175">
         <v>2329</v>
@@ -11220,7 +11517,7 @@
         <v>73</v>
       </c>
       <c r="F176">
-        <v>0.02888086642599278</v>
+        <v>0.02888086643</v>
       </c>
       <c r="G176">
         <v>2335</v>
@@ -11276,7 +11573,7 @@
         <v>79</v>
       </c>
       <c r="F177">
-        <v>0.02853745541022592</v>
+        <v>0.02853745541</v>
       </c>
       <c r="G177">
         <v>2359</v>
@@ -11332,7 +11629,7 @@
         <v>77</v>
       </c>
       <c r="F178">
-        <v>0.02829076620825147</v>
+        <v>0.02829076621</v>
       </c>
       <c r="G178">
         <v>2383</v>
@@ -11388,7 +11685,7 @@
         <v>74</v>
       </c>
       <c r="F179">
-        <v>0.02816901408450704</v>
+        <v>0.02816901408</v>
       </c>
       <c r="G179">
         <v>2397</v>
@@ -11444,7 +11741,7 @@
         <v>86</v>
       </c>
       <c r="F180">
-        <v>0.02780996523754345</v>
+        <v>0.02780996524</v>
       </c>
       <c r="G180">
         <v>2418</v>
@@ -11500,7 +11797,7 @@
         <v>92</v>
       </c>
       <c r="F181">
-        <v>0.02827665265571265</v>
+        <v>0.02827665266</v>
       </c>
       <c r="G181">
         <v>2438</v>
@@ -11556,7 +11853,7 @@
         <v>91</v>
       </c>
       <c r="F182">
-        <v>0.0287660862982589</v>
+        <v>0.0287660863</v>
       </c>
       <c r="G182">
         <v>2462</v>
@@ -11612,7 +11909,7 @@
         <v>88</v>
       </c>
       <c r="F183">
-        <v>0.02874432677760968</v>
+        <v>0.02874432678</v>
       </c>
       <c r="G183">
         <v>2467</v>
@@ -11668,7 +11965,7 @@
         <v>86</v>
       </c>
       <c r="F184">
-        <v>0.02878504672897196</v>
+        <v>0.02878504673</v>
       </c>
       <c r="G184">
         <v>2499</v>
@@ -11724,7 +12021,7 @@
         <v>92</v>
       </c>
       <c r="F185">
-        <v>0.02861389817911557</v>
+        <v>0.02861389818</v>
       </c>
       <c r="G185">
         <v>2509</v>
@@ -11780,7 +12077,7 @@
         <v>96</v>
       </c>
       <c r="F186">
-        <v>0.0284028033935817</v>
+        <v>0.02840280339</v>
       </c>
       <c r="G186">
         <v>2524</v>
@@ -11836,7 +12133,7 @@
         <v>112</v>
       </c>
       <c r="F187">
-        <v>0.02847754654983571</v>
+        <v>0.02847754655</v>
       </c>
       <c r="G187">
         <v>2537</v>
@@ -11892,7 +12189,7 @@
         <v>89</v>
       </c>
       <c r="F188">
-        <v>0.02872727272727273</v>
+        <v>0.02872727273</v>
       </c>
       <c r="G188">
         <v>2569</v>
@@ -11948,7 +12245,7 @@
         <v>71</v>
       </c>
       <c r="F189">
-        <v>0.02905920813657828</v>
+        <v>0.02905920814</v>
       </c>
       <c r="G189">
         <v>2589</v>
@@ -12004,7 +12301,7 @@
         <v>66</v>
       </c>
       <c r="F190">
-        <v>0.02942244823828551</v>
+        <v>0.02942244824</v>
       </c>
       <c r="G190">
         <v>2593</v>
@@ -12060,7 +12357,7 @@
         <v>46</v>
       </c>
       <c r="F191">
-        <v>0.02927358149620528</v>
+        <v>0.0292735815</v>
       </c>
       <c r="G191">
         <v>2627</v>
@@ -12116,7 +12413,7 @@
         <v>62</v>
       </c>
       <c r="F192">
-        <v>0.02894924946390279</v>
+        <v>0.02894924946</v>
       </c>
       <c r="G192">
         <v>2642</v>
@@ -12172,7 +12469,7 @@
         <v>86</v>
       </c>
       <c r="F193">
-        <v>0.02847100175746924</v>
+        <v>0.02847100176</v>
       </c>
       <c r="G193">
         <v>2665</v>
@@ -12228,7 +12525,7 @@
         <v>83</v>
       </c>
       <c r="F194">
-        <v>0.02870143507175359</v>
+        <v>0.02870143507</v>
       </c>
       <c r="G194">
         <v>2679</v>
@@ -12284,7 +12581,7 @@
         <v>71</v>
       </c>
       <c r="F195">
-        <v>0.02851182197496523</v>
+        <v>0.02851182197</v>
       </c>
       <c r="G195">
         <v>2710</v>
@@ -12340,7 +12637,7 @@
         <v>72</v>
       </c>
       <c r="F196">
-        <v>0.02835408022130014</v>
+        <v>0.02835408022</v>
       </c>
       <c r="G196">
         <v>2725</v>
@@ -12396,7 +12693,7 @@
         <v>64</v>
       </c>
       <c r="F197">
-        <v>0.02834427929484964</v>
+        <v>0.02834427929</v>
       </c>
       <c r="G197">
         <v>2734</v>
@@ -12452,7 +12749,7 @@
         <v>51</v>
       </c>
       <c r="F198">
-        <v>0.02834427929484964</v>
+        <v>0.02834427929</v>
       </c>
       <c r="G198">
         <v>2747</v>
@@ -12508,7 +12805,7 @@
         <v>52</v>
       </c>
       <c r="F199">
-        <v>0.02806297056810404</v>
+        <v>0.02806297057</v>
       </c>
       <c r="G199">
         <v>2775</v>
@@ -12564,7 +12861,7 @@
         <v>63</v>
       </c>
       <c r="F200">
-        <v>0.02781546811397557</v>
+        <v>0.02781546811</v>
       </c>
       <c r="G200">
         <v>2790</v>
@@ -12620,7 +12917,7 @@
         <v>50</v>
       </c>
       <c r="F201">
-        <v>0.0277027027027027</v>
+        <v>0.0277027027</v>
       </c>
       <c r="G201">
         <v>2815</v>
@@ -12676,7 +12973,7 @@
         <v>48</v>
       </c>
       <c r="F202">
-        <v>0.02826379542395693</v>
+        <v>0.02826379542</v>
       </c>
       <c r="G202">
         <v>2872</v>
@@ -12732,7 +13029,7 @@
         <v>70</v>
       </c>
       <c r="F203">
-        <v>0.02865711429523492</v>
+        <v>0.0286571143</v>
       </c>
       <c r="G203">
         <v>2831</v>
@@ -12788,7 +13085,7 @@
         <v>64</v>
       </c>
       <c r="F204">
-        <v>0.02865711429523492</v>
+        <v>0.0286571143</v>
       </c>
       <c r="G204">
         <v>2838</v>
@@ -12844,7 +13141,7 @@
         <v>80</v>
       </c>
       <c r="F205">
-        <v>0.02844856103208733</v>
+        <v>0.02844856103</v>
       </c>
       <c r="G205">
         <v>2841</v>
@@ -12900,7 +13197,7 @@
         <v>80</v>
       </c>
       <c r="F206">
-        <v>0.02836411609498681</v>
+        <v>0.02836411609</v>
       </c>
       <c r="G206">
         <v>2853</v>
@@ -12956,7 +13253,7 @@
         <v>81</v>
       </c>
       <c r="F207">
-        <v>0.02815057283142389</v>
+        <v>0.02815057283</v>
       </c>
       <c r="G207">
         <v>2875</v>
@@ -13012,7 +13309,7 @@
         <v>77</v>
       </c>
       <c r="F208">
-        <v>0.02796747967479675</v>
+        <v>0.02796747967</v>
       </c>
       <c r="G208">
         <v>2899</v>
@@ -13068,7 +13365,7 @@
         <v>77</v>
       </c>
       <c r="F209">
-        <v>0.02796747967479675</v>
+        <v>0.02796747967</v>
       </c>
       <c r="G209">
         <v>2899</v>
@@ -13124,7 +13421,7 @@
         <v>99</v>
       </c>
       <c r="F210">
-        <v>0.02776005105296745</v>
+        <v>0.02776005105</v>
       </c>
       <c r="G210">
         <v>2935</v>
@@ -13180,7 +13477,7 @@
         <v>99</v>
       </c>
       <c r="F211">
-        <v>0.02776005105296745</v>
+        <v>0.02776005105</v>
       </c>
       <c r="G211">
         <v>2935</v>
@@ -13236,7 +13533,7 @@
         <v>104</v>
       </c>
       <c r="F212">
-        <v>0.02769908718917218</v>
+        <v>0.02769908719</v>
       </c>
       <c r="G212">
         <v>2970</v>
@@ -13292,7 +13589,7 @@
         <v>87</v>
       </c>
       <c r="F213">
-        <v>0.02783859868626838</v>
+        <v>0.02783859869</v>
       </c>
       <c r="G213">
         <v>3006</v>
@@ -13348,7 +13645,7 @@
         <v>82</v>
       </c>
       <c r="F214">
-        <v>0.02777777777777778</v>
+        <v>0.02777777778</v>
       </c>
       <c r="G214">
         <v>3017</v>
@@ -13404,7 +13701,7 @@
         <v>85</v>
       </c>
       <c r="F215">
-        <v>0.02758834469931804</v>
+        <v>0.0275883447</v>
       </c>
       <c r="G215">
         <v>3036</v>
@@ -13460,7 +13757,7 @@
         <v>76</v>
       </c>
       <c r="F216">
-        <v>0.02742681047765794</v>
+        <v>0.02742681048</v>
       </c>
       <c r="G216">
         <v>3064</v>
@@ -13516,7 +13813,7 @@
         <v>51</v>
       </c>
       <c r="F217">
-        <v>0.02716727716727717</v>
+        <v>0.02716727717</v>
       </c>
       <c r="G217">
         <v>3120</v>
@@ -13572,7 +13869,7 @@
         <v>53</v>
       </c>
       <c r="F218">
-        <v>0.02696969696969697</v>
+        <v>0.02696969697</v>
       </c>
       <c r="G218">
         <v>3142</v>
@@ -13628,7 +13925,7 @@
         <v>47</v>
       </c>
       <c r="F219">
-        <v>0.02677496991576414</v>
+        <v>0.02677496992</v>
       </c>
       <c r="G219">
         <v>3172</v>
@@ -13684,7 +13981,7 @@
         <v>47</v>
       </c>
       <c r="F220">
-        <v>0.02662279389769668</v>
+        <v>0.0266227939</v>
       </c>
       <c r="G220">
         <v>3191</v>
@@ -13740,7 +14037,7 @@
         <v>48</v>
       </c>
       <c r="F221">
-        <v>0.02676977989292088</v>
+        <v>0.02676977989</v>
       </c>
       <c r="G221">
         <v>3208</v>
@@ -13796,7 +14093,7 @@
         <v>44</v>
       </c>
       <c r="F222">
-        <v>0.02663509914175792</v>
+        <v>0.02663509914</v>
       </c>
       <c r="G222">
         <v>3229</v>
@@ -13852,7 +14149,7 @@
         <v>41</v>
       </c>
       <c r="F223">
-        <v>0.02658003544004725</v>
+        <v>0.02658003544</v>
       </c>
       <c r="G223">
         <v>3239</v>
@@ -13908,7 +14205,7 @@
         <v>38</v>
       </c>
       <c r="F224">
-        <v>0.02678045909358446</v>
+        <v>0.02678045909</v>
       </c>
       <c r="G224">
         <v>3253</v>
@@ -13964,7 +14261,7 @@
         <v>27</v>
       </c>
       <c r="F225">
-        <v>0.02707474985285462</v>
+        <v>0.02707474985</v>
       </c>
       <c r="G225">
         <v>3263</v>
@@ -14020,7 +14317,7 @@
         <v>28</v>
       </c>
       <c r="F226">
-        <v>0.02697156259161536</v>
+        <v>0.02697156259</v>
       </c>
       <c r="G226">
         <v>3275</v>
@@ -14076,7 +14373,7 @@
         <v>31</v>
       </c>
       <c r="F227">
-        <v>0.02707423580786026</v>
+        <v>0.02707423581</v>
       </c>
       <c r="G227">
         <v>3295</v>
@@ -14132,7 +14429,7 @@
         <v>35</v>
       </c>
       <c r="F228">
-        <v>0.0268630849220104</v>
+        <v>0.02686308492</v>
       </c>
       <c r="G228">
         <v>3318</v>
@@ -14188,7 +14485,7 @@
         <v>41</v>
       </c>
       <c r="F229">
-        <v>0.02670111972437554</v>
+        <v>0.02670111972</v>
       </c>
       <c r="G229">
         <v>3333</v>
@@ -14244,7 +14541,7 @@
         <v>35</v>
       </c>
       <c r="F230">
-        <v>0.02652595550484883</v>
+        <v>0.0265259555</v>
       </c>
       <c r="G230">
         <v>3362</v>
@@ -14300,7 +14597,7 @@
         <v>35</v>
       </c>
       <c r="F231">
-        <v>0.02652595550484883</v>
+        <v>0.0265259555</v>
       </c>
       <c r="G231">
         <v>3362</v>
@@ -14356,7 +14653,7 @@
         <v>28</v>
       </c>
       <c r="F232">
-        <v>0.02633814783347494</v>
+        <v>0.02633814783</v>
       </c>
       <c r="G232">
         <v>3394</v>
@@ -14412,7 +14709,7 @@
         <v>42</v>
       </c>
       <c r="F233">
-        <v>0.02605771924908938</v>
+        <v>0.02605771925</v>
       </c>
       <c r="G233">
         <v>3418</v>
@@ -14468,7 +14765,7 @@
         <v>46</v>
       </c>
       <c r="F234">
-        <v>0.02591973244147157</v>
+        <v>0.02591973244</v>
       </c>
       <c r="G234">
         <v>3433</v>
@@ -14524,7 +14821,7 @@
         <v>48</v>
       </c>
       <c r="F235">
-        <v>0.02574750830564784</v>
+        <v>0.02574750831</v>
       </c>
       <c r="G235">
         <v>3454</v>
@@ -14580,7 +14877,7 @@
         <v>55</v>
       </c>
       <c r="F236">
-        <v>0.0256198347107438</v>
+        <v>0.02561983471</v>
       </c>
       <c r="G236">
         <v>3465</v>
@@ -14636,7 +14933,7 @@
         <v>42</v>
       </c>
       <c r="F237">
-        <v>0.0263085776925185</v>
+        <v>0.02630857769</v>
       </c>
       <c r="G237">
         <v>3495</v>
@@ -14692,7 +14989,7 @@
         <v>37</v>
       </c>
       <c r="F238">
-        <v>0.02627977005201204</v>
+        <v>0.02627977005</v>
       </c>
       <c r="G238">
         <v>3503</v>
@@ -14748,7 +15045,7 @@
         <v>31</v>
       </c>
       <c r="F239">
-        <v>0.02654625068418172</v>
+        <v>0.02654625068</v>
       </c>
       <c r="G239">
         <v>3509</v>
@@ -14804,7 +15101,7 @@
         <v>38</v>
       </c>
       <c r="F240">
-        <v>0.02685838307107976</v>
+        <v>0.02685838307</v>
       </c>
       <c r="G240">
         <v>3532</v>
@@ -14860,7 +15157,7 @@
         <v>37</v>
       </c>
       <c r="F241">
-        <v>0.02681473456121343</v>
+        <v>0.02681473456</v>
       </c>
       <c r="G241">
         <v>3539</v>
@@ -14916,7 +15213,7 @@
         <v>34</v>
       </c>
       <c r="F242">
-        <v>0.02667025862068965</v>
+        <v>0.02667025862</v>
       </c>
       <c r="G242">
         <v>3562</v>
@@ -14972,7 +15269,7 @@
         <v>38</v>
       </c>
       <c r="F243">
-        <v>0.02651312265666845</v>
+        <v>0.02651312266</v>
       </c>
       <c r="G243">
         <v>3580</v>
@@ -15028,7 +15325,7 @@
         <v>52</v>
       </c>
       <c r="F244">
-        <v>0.02648305084745763</v>
+        <v>0.02648305085</v>
       </c>
       <c r="G244">
         <v>3607</v>
@@ -15084,7 +15381,7 @@
         <v>42</v>
       </c>
       <c r="F245">
-        <v>0.02624671916010499</v>
+        <v>0.02624671916</v>
       </c>
       <c r="G245">
         <v>3651</v>
@@ -15140,7 +15437,7 @@
         <v>42</v>
       </c>
       <c r="F246">
-        <v>0.02618486514794449</v>
+        <v>0.02618486515</v>
       </c>
       <c r="G246">
         <v>3660</v>
@@ -15196,7 +15493,7 @@
         <v>37</v>
       </c>
       <c r="F247">
-        <v>0.02598077422707197</v>
+        <v>0.02598077423</v>
       </c>
       <c r="G247">
         <v>3695</v>
@@ -15252,7 +15549,7 @@
         <v>60</v>
       </c>
       <c r="F248">
-        <v>0.02577319587628866</v>
+        <v>0.02577319588</v>
       </c>
       <c r="G248">
         <v>3703</v>
@@ -15308,7 +15605,7 @@
         <v>57</v>
       </c>
       <c r="F249">
-        <v>0.02566076469078779</v>
+        <v>0.02566076469</v>
       </c>
       <c r="G249">
         <v>3723</v>
@@ -15364,7 +15661,7 @@
         <v>56</v>
       </c>
       <c r="F250">
-        <v>0.0254841997961264</v>
+        <v>0.0254841998</v>
       </c>
       <c r="G250">
         <v>3751</v>
@@ -15420,7 +15717,7 @@
         <v>81</v>
       </c>
       <c r="F251">
-        <v>0.0252016129032258</v>
+        <v>0.0252016129</v>
       </c>
       <c r="G251">
         <v>3770</v>
@@ -15476,7 +15773,7 @@
         <v>58</v>
       </c>
       <c r="F252">
-        <v>0.02495632642874969</v>
+        <v>0.02495632643</v>
       </c>
       <c r="G252">
         <v>3832</v>
@@ -15532,7 +15829,7 @@
         <v>48</v>
       </c>
       <c r="F253">
-        <v>0.02482005460412013</v>
+        <v>0.0248200546</v>
       </c>
       <c r="G253">
         <v>3864</v>
@@ -15588,7 +15885,7 @@
         <v>35</v>
       </c>
       <c r="F254">
-        <v>0.02469745616201531</v>
+        <v>0.02469745616</v>
       </c>
       <c r="G254">
         <v>3897</v>
@@ -15644,7 +15941,7 @@
         <v>41</v>
       </c>
       <c r="F255">
-        <v>0.02453385672227674</v>
+        <v>0.02453385672</v>
       </c>
       <c r="G255">
         <v>3918</v>
@@ -15700,7 +15997,7 @@
         <v>46</v>
       </c>
       <c r="F256">
-        <v>0.0244081034903588</v>
+        <v>0.02440810349</v>
       </c>
       <c r="G256">
         <v>3934</v>
@@ -15756,7 +16053,7 @@
         <v>59</v>
       </c>
       <c r="F257">
-        <v>0.02414875633904854</v>
+        <v>0.02414875634</v>
       </c>
       <c r="G257">
         <v>3965</v>
@@ -15812,7 +16109,7 @@
         <v>66</v>
       </c>
       <c r="F258">
-        <v>0.02416267942583732</v>
+        <v>0.02416267943</v>
       </c>
       <c r="G258">
         <v>3996</v>
@@ -15868,7 +16165,7 @@
         <v>66</v>
       </c>
       <c r="F259">
-        <v>0.02416267942583732</v>
+        <v>0.02416267943</v>
       </c>
       <c r="G259">
         <v>3996</v>
@@ -15924,7 +16221,7 @@
         <v>33</v>
       </c>
       <c r="F260">
-        <v>0.02413381123058542</v>
+        <v>0.02413381123</v>
       </c>
       <c r="G260">
         <v>4034</v>
@@ -15980,7 +16277,7 @@
         <v>33</v>
       </c>
       <c r="F261">
-        <v>0.02413381123058542</v>
+        <v>0.02413381123</v>
       </c>
       <c r="G261">
         <v>4034</v>
@@ -16036,7 +16333,7 @@
         <v>36</v>
       </c>
       <c r="F262">
-        <v>0.02412488174077578</v>
+        <v>0.02412488174</v>
       </c>
       <c r="G262">
         <v>4073</v>
@@ -16092,7 +16389,7 @@
         <v>38</v>
       </c>
       <c r="F263">
-        <v>0.02393242609103707</v>
+        <v>0.02393242609</v>
       </c>
       <c r="G263">
         <v>4105</v>
@@ -16148,7 +16445,7 @@
         <v>46</v>
       </c>
       <c r="F264">
-        <v>0.02356202356202356</v>
+        <v>0.02356202356</v>
       </c>
       <c r="G264">
         <v>4164</v>
@@ -16204,7 +16501,7 @@
         <v>46</v>
       </c>
       <c r="F265">
-        <v>0.02322933272603052</v>
+        <v>0.02322933273</v>
       </c>
       <c r="G265">
         <v>4226</v>
@@ -16260,7 +16557,7 @@
         <v>46</v>
       </c>
       <c r="F266">
-        <v>0.02322933272603052</v>
+        <v>0.02322933273</v>
       </c>
       <c r="G266">
         <v>4226</v>
@@ -16316,7 +16613,7 @@
         <v>31</v>
       </c>
       <c r="F267">
-        <v>0.02308736985061114</v>
+        <v>0.02308736985</v>
       </c>
       <c r="G267">
         <v>4265</v>
@@ -16372,7 +16669,7 @@
         <v>65</v>
       </c>
       <c r="F268">
-        <v>0.02327663384064458</v>
+        <v>0.02327663384</v>
       </c>
       <c r="G268">
         <v>4283</v>
@@ -16428,7 +16725,7 @@
         <v>61</v>
       </c>
       <c r="F269">
-        <v>0.02310597644967785</v>
+        <v>0.02310597645</v>
       </c>
       <c r="G269">
         <v>4318</v>
@@ -16484,7 +16781,7 @@
         <v>61</v>
       </c>
       <c r="F270">
-        <v>0.02310597644967785</v>
+        <v>0.02310597645</v>
       </c>
       <c r="G270">
         <v>4318</v>
@@ -16540,7 +16837,7 @@
         <v>75</v>
       </c>
       <c r="F271">
-        <v>0.02276669557675629</v>
+        <v>0.02276669558</v>
       </c>
       <c r="G271">
         <v>4414</v>
@@ -16596,7 +16893,7 @@
         <v>75</v>
       </c>
       <c r="F272">
-        <v>0.02276669557675629</v>
+        <v>0.02276669558</v>
       </c>
       <c r="G272">
         <v>4414</v>
@@ -16652,7 +16949,7 @@
         <v>54</v>
       </c>
       <c r="F273">
-        <v>0.02315516122051504</v>
+        <v>0.02315516122</v>
       </c>
       <c r="G273">
         <v>4442</v>
@@ -16708,7 +17005,7 @@
         <v>55</v>
       </c>
       <c r="F274">
-        <v>0.02315015144958892</v>
+        <v>0.02315015145</v>
       </c>
       <c r="G274">
         <v>4444</v>
@@ -16764,7 +17061,7 @@
         <v>68</v>
       </c>
       <c r="F275">
-        <v>0.02276595744680851</v>
+        <v>0.02276595745</v>
       </c>
       <c r="G275">
         <v>4507</v>
@@ -16820,7 +17117,7 @@
         <v>72</v>
       </c>
       <c r="F276">
-        <v>0.02254530130636325</v>
+        <v>0.02254530131</v>
       </c>
       <c r="G276">
         <v>4549</v>
@@ -16876,7 +17173,7 @@
         <v>74</v>
       </c>
       <c r="F277">
-        <v>0.02276049279599081</v>
+        <v>0.0227604928</v>
       </c>
       <c r="G277">
         <v>4588</v>
@@ -16932,7 +17229,7 @@
         <v>65</v>
       </c>
       <c r="F278">
-        <v>0.02265170407315046</v>
+        <v>0.02265170407</v>
       </c>
       <c r="G278">
         <v>4620</v>
@@ -16988,7 +17285,7 @@
         <v>65</v>
       </c>
       <c r="F279">
-        <v>0.02265170407315046</v>
+        <v>0.02265170407</v>
       </c>
       <c r="G279">
         <v>4620</v>
@@ -17044,7 +17341,7 @@
         <v>65</v>
       </c>
       <c r="F280">
-        <v>0.02265170407315046</v>
+        <v>0.02265170407</v>
       </c>
       <c r="G280">
         <v>4620</v>
@@ -17100,7 +17397,7 @@
         <v>65</v>
       </c>
       <c r="F281">
-        <v>0.02265170407315046</v>
+        <v>0.02265170407</v>
       </c>
       <c r="G281">
         <v>4620</v>
@@ -17156,7 +17453,7 @@
         <v>55</v>
       </c>
       <c r="F282">
-        <v>0.02284420662687796</v>
+        <v>0.02284420663</v>
       </c>
       <c r="G282">
         <v>4675</v>
@@ -17212,7 +17509,7 @@
         <v>73</v>
       </c>
       <c r="F283">
-        <v>0.02253807106598985</v>
+        <v>0.02253807107</v>
       </c>
       <c r="G283">
         <v>4723</v>
@@ -17268,7 +17565,7 @@
         <v>74</v>
       </c>
       <c r="F284">
-        <v>0.02261904761904762</v>
+        <v>0.02261904762</v>
       </c>
       <c r="G284">
         <v>4833</v>
@@ -17324,7 +17621,7 @@
         <v>109</v>
       </c>
       <c r="F285">
-        <v>0.02263414634146341</v>
+        <v>0.02263414634</v>
       </c>
       <c r="G285">
         <v>4882</v>
@@ -17380,7 +17677,7 @@
         <v>161</v>
       </c>
       <c r="F286">
-        <v>0.02303262955854127</v>
+        <v>0.02303262956</v>
       </c>
       <c r="G286">
         <v>4911</v>
@@ -17436,7 +17733,7 @@
         <v>133</v>
       </c>
       <c r="F287">
-        <v>0.02284843869002285</v>
+        <v>0.02284843869</v>
       </c>
       <c r="G287">
         <v>4981</v>
@@ -17492,7 +17789,7 @@
         <v>108</v>
       </c>
       <c r="F288">
-        <v>0.02279202279202279</v>
+        <v>0.02279202279</v>
       </c>
       <c r="G288">
         <v>5019</v>
@@ -17548,7 +17845,7 @@
         <v>119</v>
       </c>
       <c r="F289">
-        <v>0.02257336343115124</v>
+        <v>0.02257336343</v>
       </c>
       <c r="G289">
         <v>5059</v>
@@ -17604,7 +17901,7 @@
         <v>154</v>
       </c>
       <c r="F290">
-        <v>0.02236480293308891</v>
+        <v>0.02236480293</v>
       </c>
       <c r="G290">
         <v>5161</v>
@@ -17660,7 +17957,7 @@
         <v>135</v>
       </c>
       <c r="F291">
-        <v>0.02229068503080826</v>
+        <v>0.02229068503</v>
       </c>
       <c r="G291">
         <v>5242</v>
@@ -17716,7 +18013,7 @@
         <v>143</v>
       </c>
       <c r="F292">
-        <v>0.02231419830843981</v>
+        <v>0.02231419831</v>
       </c>
       <c r="G292">
         <v>5272</v>
@@ -17772,7 +18069,7 @@
         <v>175</v>
       </c>
       <c r="F293">
-        <v>0.02204052612868823</v>
+        <v>0.02204052613</v>
       </c>
       <c r="G293">
         <v>5309</v>
@@ -17828,7 +18125,7 @@
         <v>83</v>
       </c>
       <c r="F294">
-        <v>0.02184252245904527</v>
+        <v>0.02184252246</v>
       </c>
       <c r="G294">
         <v>5452</v>
@@ -17884,7 +18181,7 @@
         <v>74</v>
       </c>
       <c r="F295">
-        <v>0.0218646143082036</v>
+        <v>0.02186461431</v>
       </c>
       <c r="G295">
         <v>5500</v>
@@ -17940,7 +18237,7 @@
         <v>109</v>
       </c>
       <c r="F296">
-        <v>0.02141511050197019</v>
+        <v>0.0214151105</v>
       </c>
       <c r="G296">
         <v>5584</v>
@@ -17996,7 +18293,7 @@
         <v>125</v>
       </c>
       <c r="F297">
-        <v>0.02123356926188069</v>
+        <v>0.02123356926</v>
       </c>
       <c r="G297">
         <v>5664</v>
@@ -18052,7 +18349,7 @@
         <v>130</v>
       </c>
       <c r="F298">
-        <v>0.02084712111184646</v>
+        <v>0.02084712111</v>
       </c>
       <c r="G298">
         <v>5769</v>
@@ -18108,7 +18405,7 @@
         <v>117</v>
       </c>
       <c r="F299">
-        <v>0.02069985214391326</v>
+        <v>0.02069985214</v>
       </c>
       <c r="G299">
         <v>5825</v>
@@ -18164,7 +18461,7 @@
         <v>134</v>
       </c>
       <c r="F300">
-        <v>0.02047448813779655</v>
+        <v>0.02047448814</v>
       </c>
       <c r="G300">
         <v>5875</v>
@@ -18220,7 +18517,7 @@
         <v>128</v>
       </c>
       <c r="F301">
-        <v>0.02031275189424472</v>
+        <v>0.02031275189</v>
       </c>
       <c r="G301">
         <v>5927</v>
@@ -18276,7 +18573,7 @@
         <v>118</v>
       </c>
       <c r="F302">
-        <v>0.02077294685990338</v>
+        <v>0.02077294686</v>
       </c>
       <c r="G302">
         <v>5944</v>
@@ -18332,7 +18629,7 @@
         <v>118</v>
       </c>
       <c r="F303">
-        <v>0.02068746021642266</v>
+        <v>0.02068746022</v>
       </c>
       <c r="G303">
         <v>6017</v>
@@ -18388,7 +18685,7 @@
         <v>131</v>
       </c>
       <c r="F304">
-        <v>0.02028714107365793</v>
+        <v>0.02028714107</v>
       </c>
       <c r="G304">
         <v>6128</v>
@@ -18444,7 +18741,7 @@
         <v>177</v>
       </c>
       <c r="F305">
-        <v>0.02027338350483797</v>
+        <v>0.0202733835</v>
       </c>
       <c r="G305">
         <v>6183</v>
@@ -18500,7 +18797,7 @@
         <v>194</v>
       </c>
       <c r="F306">
-        <v>0.02007299270072993</v>
+        <v>0.0200729927</v>
       </c>
       <c r="G306">
         <v>6231</v>
@@ -18556,7 +18853,7 @@
         <v>133</v>
       </c>
       <c r="F307">
-        <v>0.02027331431145818</v>
+        <v>0.02027331431</v>
       </c>
       <c r="G307">
         <v>6372</v>
@@ -18612,7 +18909,7 @@
         <v>153</v>
       </c>
       <c r="F308">
-        <v>0.02010050251256281</v>
+        <v>0.02010050251</v>
       </c>
       <c r="G308">
         <v>6458</v>
@@ -18668,7 +18965,7 @@
         <v>117</v>
       </c>
       <c r="F309">
-        <v>0.02027920646583395</v>
+        <v>0.02027920647</v>
       </c>
       <c r="G309">
         <v>6531</v>
@@ -18724,7 +19021,7 @@
         <v>140</v>
       </c>
       <c r="F310">
-        <v>0.01998551774076756</v>
+        <v>0.01998551774</v>
       </c>
       <c r="G310">
         <v>6608</v>
@@ -18780,7 +19077,7 @@
         <v>142</v>
       </c>
       <c r="F311">
-        <v>0.01984863629872912</v>
+        <v>0.0198486363</v>
       </c>
       <c r="G311">
         <v>6703</v>
@@ -18836,7 +19133,7 @@
         <v>140</v>
       </c>
       <c r="F312">
-        <v>0.01988353926999006</v>
+        <v>0.01988353927</v>
       </c>
       <c r="G312">
         <v>6742</v>
@@ -18892,7 +19189,7 @@
         <v>153</v>
       </c>
       <c r="F313">
-        <v>0.019971870604782</v>
+        <v>0.0199718706</v>
       </c>
       <c r="G313">
         <v>6796</v>
@@ -18948,7 +19245,7 @@
         <v>177</v>
       </c>
       <c r="F314">
-        <v>0.01965942129309151</v>
+        <v>0.01965942129</v>
       </c>
       <c r="G314">
         <v>6884</v>
@@ -19004,7 +19301,7 @@
         <v>168</v>
       </c>
       <c r="F315">
-        <v>0.01953232462173315</v>
+        <v>0.01953232462</v>
       </c>
       <c r="G315">
         <v>6940</v>
@@ -19060,7 +19357,7 @@
         <v>132</v>
       </c>
       <c r="F316">
-        <v>0.01949478308621637</v>
+        <v>0.01949478309</v>
       </c>
       <c r="G316">
         <v>6990</v>
@@ -19116,7 +19413,7 @@
         <v>143</v>
       </c>
       <c r="F317">
-        <v>0.01993174061433447</v>
+        <v>0.01993174061</v>
       </c>
       <c r="G317">
         <v>7016</v>
@@ -19172,7 +19469,7 @@
         <v>172</v>
       </c>
       <c r="F318">
-        <v>0.0198127289998643</v>
+        <v>0.019812729</v>
       </c>
       <c r="G318">
         <v>7030</v>
@@ -19228,7 +19525,7 @@
         <v>117</v>
       </c>
       <c r="F319">
-        <v>0.01994340385392804</v>
+        <v>0.01994340385</v>
       </c>
       <c r="G319">
         <v>7135</v>
@@ -19284,7 +19581,7 @@
         <v>109</v>
       </c>
       <c r="F320">
-        <v>0.01999463231347289</v>
+        <v>0.01999463231</v>
       </c>
       <c r="G320">
         <v>7173</v>
@@ -19340,7 +19637,7 @@
         <v>86</v>
       </c>
       <c r="F321">
-        <v>0.02006111332536203</v>
+        <v>0.02006111333</v>
       </c>
       <c r="G321">
         <v>7269</v>
@@ -19396,7 +19693,7 @@
         <v>118</v>
       </c>
       <c r="F322">
-        <v>0.02012363540707615</v>
+        <v>0.02012363541</v>
       </c>
       <c r="G322">
         <v>7311</v>
@@ -19452,7 +19749,7 @@
         <v>87</v>
       </c>
       <c r="F323">
-        <v>0.02025249868490268</v>
+        <v>0.02025249868</v>
       </c>
       <c r="G323">
         <v>7342</v>
@@ -19508,7 +19805,7 @@
         <v>98</v>
       </c>
       <c r="F324">
-        <v>0.02024555903866249</v>
+        <v>0.02024555904</v>
       </c>
       <c r="G324">
         <v>7382</v>
@@ -19564,7 +19861,7 @@
         <v>173</v>
       </c>
       <c r="F325">
-        <v>0.02077922077922078</v>
+        <v>0.02077922078</v>
       </c>
       <c r="G325">
         <v>7345</v>
@@ -19620,7 +19917,7 @@
         <v>114</v>
       </c>
       <c r="F326">
-        <v>0.02075858534085085</v>
+        <v>0.02075858534</v>
       </c>
       <c r="G326">
         <v>7506</v>
@@ -19676,7 +19973,7 @@
         <v>178</v>
       </c>
       <c r="F327">
-        <v>0.02063813623702203</v>
+        <v>0.02063813624</v>
       </c>
       <c r="G327">
         <v>7535</v>
@@ -19732,7 +20029,7 @@
         <v>157</v>
       </c>
       <c r="F328">
-        <v>0.02067835077543815</v>
+        <v>0.02067835078</v>
       </c>
       <c r="G328">
         <v>7588</v>
@@ -19788,7 +20085,7 @@
         <v>158</v>
       </c>
       <c r="F329">
-        <v>0.02086213397008923</v>
+        <v>0.02086213397</v>
       </c>
       <c r="G329">
         <v>7611</v>
@@ -19844,7 +20141,7 @@
         <v>139</v>
       </c>
       <c r="F330">
-        <v>0.0209719954790908</v>
+        <v>0.02097199548</v>
       </c>
       <c r="G330">
         <v>7635</v>
@@ -19900,7 +20197,7 @@
         <v>163</v>
       </c>
       <c r="F331">
-        <v>0.02106443973575969</v>
+        <v>0.02106443974</v>
       </c>
       <c r="G331">
         <v>7669</v>
@@ -19956,7 +20253,7 @@
         <v>335</v>
       </c>
       <c r="F332">
-        <v>0.02083847102342787</v>
+        <v>0.02083847102</v>
       </c>
       <c r="G332">
         <v>7775</v>
@@ -20012,7 +20309,7 @@
         <v>135</v>
       </c>
       <c r="F333">
-        <v>0.02091948431038677</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G333">
         <v>7892</v>
@@ -20068,7 +20365,7 @@
         <v>135</v>
       </c>
       <c r="F334">
-        <v>0.02091948431038677</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G334">
         <v>7892</v>
@@ -20124,7 +20421,7 @@
         <v>135</v>
       </c>
       <c r="F335">
-        <v>0.02091948431038677</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G335">
         <v>7892</v>
@@ -20180,7 +20477,7 @@
         <v>135</v>
       </c>
       <c r="F336">
-        <v>0.02091948431038677</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G336">
         <v>7892</v>
@@ -20236,7 +20533,7 @@
         <v>135</v>
       </c>
       <c r="F337">
-        <v>0.02091948431038677</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G337">
         <v>7892</v>
@@ -20292,7 +20589,7 @@
         <v>83</v>
       </c>
       <c r="F338">
-        <v>0.02095418491772227</v>
+        <v>0.02095418492</v>
       </c>
       <c r="G338">
         <v>8163</v>
@@ -20348,7 +20645,7 @@
         <v>97</v>
       </c>
       <c r="F339">
-        <v>0.02105386967772289</v>
+        <v>0.02105386968</v>
       </c>
       <c r="G339">
         <v>8202</v>
@@ -20404,7 +20701,7 @@
         <v>110</v>
       </c>
       <c r="F340">
-        <v>0.02079702567677472</v>
+        <v>0.02079702568</v>
       </c>
       <c r="G340">
         <v>8294</v>
@@ -20460,7 +20757,7 @@
         <v>102</v>
       </c>
       <c r="F341">
-        <v>0.0206982827248948</v>
+        <v>0.02069828272</v>
       </c>
       <c r="G341">
         <v>8485</v>
@@ -20516,7 +20813,7 @@
         <v>122</v>
       </c>
       <c r="F342">
-        <v>0.02050649932765576</v>
+        <v>0.02050649933</v>
       </c>
       <c r="G342">
         <v>8595</v>
@@ -20572,7 +20869,7 @@
         <v>129</v>
       </c>
       <c r="F343">
-        <v>0.02045126153162165</v>
+        <v>0.02045126153</v>
       </c>
       <c r="G343">
         <v>8660</v>
@@ -20628,7 +20925,7 @@
         <v>104</v>
       </c>
       <c r="F344">
-        <v>0.02060713494349656</v>
+        <v>0.02060713494</v>
       </c>
       <c r="G344">
         <v>8711</v>
@@ -20684,7 +20981,7 @@
         <v>112</v>
       </c>
       <c r="F345">
-        <v>0.02064572809136833</v>
+        <v>0.02064572809</v>
       </c>
       <c r="G345">
         <v>8780</v>
@@ -20740,7 +21037,7 @@
         <v>122</v>
       </c>
       <c r="F346">
-        <v>0.02049669233271879</v>
+        <v>0.02049669233</v>
       </c>
       <c r="G346">
         <v>8884</v>
@@ -20796,7 +21093,7 @@
         <v>160</v>
       </c>
       <c r="F347">
-        <v>0.02031433764567519</v>
+        <v>0.02031433765</v>
       </c>
       <c r="G347">
         <v>8977</v>
@@ -20852,7 +21149,7 @@
         <v>214</v>
       </c>
       <c r="F348">
-        <v>0.02030671602326811</v>
+        <v>0.02030671602</v>
       </c>
       <c r="G348">
         <v>9023</v>
@@ -20908,7 +21205,7 @@
         <v>207</v>
       </c>
       <c r="F349">
-        <v>0.02092269065801862</v>
+        <v>0.02092269066</v>
       </c>
       <c r="G349">
         <v>9126</v>
@@ -20964,7 +21261,7 @@
         <v>208</v>
       </c>
       <c r="F350">
-        <v>0.02092442223610243</v>
+        <v>0.02092442224</v>
       </c>
       <c r="G350">
         <v>9171</v>
@@ -21020,7 +21317,7 @@
         <v>236</v>
       </c>
       <c r="F351">
-        <v>0.02133194588969823</v>
+        <v>0.02133194589</v>
       </c>
       <c r="G351">
         <v>9143</v>
@@ -21076,7 +21373,7 @@
         <v>157</v>
       </c>
       <c r="F352">
-        <v>0.02133360816242399</v>
+        <v>0.02133360816</v>
       </c>
       <c r="G352">
         <v>9313</v>
@@ -21132,7 +21429,7 @@
         <v>138</v>
       </c>
       <c r="F353">
-        <v>0.02143809621499641</v>
+        <v>0.02143809621</v>
       </c>
       <c r="G353">
         <v>9376</v>
@@ -21188,7 +21485,7 @@
         <v>117</v>
       </c>
       <c r="F354">
-        <v>0.02183450668299153</v>
+        <v>0.02183450668</v>
       </c>
       <c r="G354">
         <v>9444</v>
@@ -21244,7 +21541,7 @@
         <v>134</v>
       </c>
       <c r="F355">
-        <v>0.02174352750809061</v>
+        <v>0.02174352751</v>
       </c>
       <c r="G355">
         <v>9513</v>
@@ -21300,16 +21597,16 @@
         <v>146</v>
       </c>
       <c r="F356">
-        <v>0.02167151600280927</v>
+        <v>0.021671516</v>
       </c>
       <c r="G356">
         <v>9579</v>
       </c>
       <c r="H356">
-        <v>18556</v>
+        <v>20352</v>
       </c>
       <c r="I356">
-        <v>28523</v>
+        <v>30319</v>
       </c>
       <c r="J356">
         <v>79</v>
@@ -21324,7 +21621,7 @@
         <v>539</v>
       </c>
       <c r="N356">
-        <v>79</v>
+        <v>1875</v>
       </c>
       <c r="O356">
         <v>62</v>
@@ -21356,16 +21653,16 @@
         <v>142</v>
       </c>
       <c r="F357">
-        <v>0.02151608725968722</v>
+        <v>0.02151608726</v>
       </c>
       <c r="G357">
         <v>9655</v>
       </c>
       <c r="H357">
-        <v>18556</v>
+        <v>20352</v>
       </c>
       <c r="I357">
-        <v>28595</v>
+        <v>30391</v>
       </c>
       <c r="J357">
         <v>72</v>
@@ -21412,16 +21709,16 @@
         <v>145</v>
       </c>
       <c r="F358">
-        <v>0.02199661590524535</v>
+        <v>0.02199661591</v>
       </c>
       <c r="G358">
         <v>9663</v>
       </c>
       <c r="H358">
-        <v>18556</v>
+        <v>20352</v>
       </c>
       <c r="I358">
-        <v>28603</v>
+        <v>30399</v>
       </c>
       <c r="J358">
         <v>8</v>
@@ -21468,16 +21765,16 @@
         <v>118</v>
       </c>
       <c r="F359">
-        <v>0.02222880853586248</v>
+        <v>0.02222880854</v>
       </c>
       <c r="G359">
         <v>9753</v>
       </c>
       <c r="H359">
-        <v>18556</v>
+        <v>20352</v>
       </c>
       <c r="I359">
-        <v>28678</v>
+        <v>30474</v>
       </c>
       <c r="J359">
         <v>75</v>
@@ -21524,16 +21821,16 @@
         <v>140</v>
       </c>
       <c r="F360">
-        <v>0.02249950874435056</v>
+        <v>0.02249950874</v>
       </c>
       <c r="G360">
         <v>9782</v>
       </c>
       <c r="H360">
-        <v>18556</v>
+        <v>20352</v>
       </c>
       <c r="I360">
-        <v>28734</v>
+        <v>30530</v>
       </c>
       <c r="J360">
         <v>56</v>
@@ -21561,6 +21858,5550 @@
       </c>
       <c r="R360">
         <v>52</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18">
+      <c r="A361" t="s">
+        <v>377</v>
+      </c>
+      <c r="B361">
+        <v>360</v>
+      </c>
+      <c r="C361">
+        <v>10303</v>
+      </c>
+      <c r="D361">
+        <v>232</v>
+      </c>
+      <c r="E361">
+        <v>166</v>
+      </c>
+      <c r="F361">
+        <v>0.02251771329</v>
+      </c>
+      <c r="G361">
+        <v>9877</v>
+      </c>
+      <c r="H361">
+        <v>20352</v>
+      </c>
+      <c r="I361">
+        <v>30655</v>
+      </c>
+      <c r="J361">
+        <v>125</v>
+      </c>
+      <c r="K361">
+        <v>518</v>
+      </c>
+      <c r="L361">
+        <v>2</v>
+      </c>
+      <c r="M361">
+        <v>516</v>
+      </c>
+      <c r="N361">
+        <v>125</v>
+      </c>
+      <c r="O361">
+        <v>59</v>
+      </c>
+      <c r="P361">
+        <v>38</v>
+      </c>
+      <c r="Q361">
+        <v>3</v>
+      </c>
+      <c r="R361">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18">
+      <c r="A362" t="s">
+        <v>378</v>
+      </c>
+      <c r="B362">
+        <v>361</v>
+      </c>
+      <c r="C362">
+        <v>10436</v>
+      </c>
+      <c r="D362">
+        <v>241</v>
+      </c>
+      <c r="E362">
+        <v>164</v>
+      </c>
+      <c r="F362">
+        <v>0.02309313913</v>
+      </c>
+      <c r="G362">
+        <v>10003</v>
+      </c>
+      <c r="H362">
+        <v>20352</v>
+      </c>
+      <c r="I362">
+        <v>30788</v>
+      </c>
+      <c r="J362">
+        <v>133</v>
+      </c>
+      <c r="K362">
+        <v>546</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>545</v>
+      </c>
+      <c r="N362">
+        <v>133</v>
+      </c>
+      <c r="O362">
+        <v>62</v>
+      </c>
+      <c r="P362">
+        <v>38</v>
+      </c>
+      <c r="Q362">
+        <v>9</v>
+      </c>
+      <c r="R362">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18">
+      <c r="A363" t="s">
+        <v>379</v>
+      </c>
+      <c r="B363">
+        <v>362</v>
+      </c>
+      <c r="C363">
+        <v>10513</v>
+      </c>
+      <c r="D363">
+        <v>244</v>
+      </c>
+      <c r="E363">
+        <v>155</v>
+      </c>
+      <c r="F363">
+        <v>0.02320935984</v>
+      </c>
+      <c r="G363">
+        <v>10086</v>
+      </c>
+      <c r="H363">
+        <v>20352</v>
+      </c>
+      <c r="I363">
+        <v>30865</v>
+      </c>
+      <c r="J363">
+        <v>77</v>
+      </c>
+      <c r="K363">
+        <v>634</v>
+      </c>
+      <c r="L363">
+        <v>2</v>
+      </c>
+      <c r="M363">
+        <v>632</v>
+      </c>
+      <c r="N363">
+        <v>77</v>
+      </c>
+      <c r="O363">
+        <v>60</v>
+      </c>
+      <c r="P363">
+        <v>36</v>
+      </c>
+      <c r="Q363">
+        <v>3</v>
+      </c>
+      <c r="R363">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18">
+      <c r="A364" t="s">
+        <v>380</v>
+      </c>
+      <c r="B364">
+        <v>363</v>
+      </c>
+      <c r="C364">
+        <v>10565</v>
+      </c>
+      <c r="D364">
+        <v>248</v>
+      </c>
+      <c r="E364">
+        <v>139</v>
+      </c>
+      <c r="F364">
+        <v>0.02347373403</v>
+      </c>
+      <c r="G364">
+        <v>10150</v>
+      </c>
+      <c r="H364">
+        <v>20352</v>
+      </c>
+      <c r="I364">
+        <v>30917</v>
+      </c>
+      <c r="J364">
+        <v>52</v>
+      </c>
+      <c r="K364">
+        <v>577</v>
+      </c>
+      <c r="L364">
+        <v>2</v>
+      </c>
+      <c r="M364">
+        <v>575</v>
+      </c>
+      <c r="N364">
+        <v>52</v>
+      </c>
+      <c r="O364">
+        <v>59</v>
+      </c>
+      <c r="P364">
+        <v>39</v>
+      </c>
+      <c r="Q364">
+        <v>4</v>
+      </c>
+      <c r="R364">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18">
+      <c r="A365" t="s">
+        <v>381</v>
+      </c>
+      <c r="B365">
+        <v>364</v>
+      </c>
+      <c r="C365">
+        <v>10575</v>
+      </c>
+      <c r="D365">
+        <v>250</v>
+      </c>
+      <c r="E365">
+        <v>144</v>
+      </c>
+      <c r="F365">
+        <v>0.02364066194</v>
+      </c>
+      <c r="G365">
+        <v>10159</v>
+      </c>
+      <c r="H365">
+        <v>20352</v>
+      </c>
+      <c r="I365">
+        <v>30927</v>
+      </c>
+      <c r="J365">
+        <v>10</v>
+      </c>
+      <c r="K365">
+        <v>574</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365">
+        <v>573</v>
+      </c>
+      <c r="N365">
+        <v>10</v>
+      </c>
+      <c r="O365">
+        <v>61</v>
+      </c>
+      <c r="P365">
+        <v>39</v>
+      </c>
+      <c r="Q365">
+        <v>2</v>
+      </c>
+      <c r="R365">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18">
+      <c r="A366" t="s">
+        <v>382</v>
+      </c>
+      <c r="B366">
+        <v>365</v>
+      </c>
+      <c r="C366">
+        <v>10648</v>
+      </c>
+      <c r="D366">
+        <v>253</v>
+      </c>
+      <c r="E366">
+        <v>131</v>
+      </c>
+      <c r="F366">
+        <v>0.02376033058</v>
+      </c>
+      <c r="G366">
+        <v>10236</v>
+      </c>
+      <c r="H366">
+        <v>20352</v>
+      </c>
+      <c r="I366">
+        <v>31000</v>
+      </c>
+      <c r="J366">
+        <v>73</v>
+      </c>
+      <c r="K366">
+        <v>534</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366">
+        <v>533</v>
+      </c>
+      <c r="N366">
+        <v>73</v>
+      </c>
+      <c r="O366">
+        <v>58</v>
+      </c>
+      <c r="P366">
+        <v>45</v>
+      </c>
+      <c r="Q366">
+        <v>3</v>
+      </c>
+      <c r="R366">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18">
+      <c r="A367" t="s">
+        <v>383</v>
+      </c>
+      <c r="B367">
+        <v>366</v>
+      </c>
+      <c r="C367">
+        <v>10703</v>
+      </c>
+      <c r="D367">
+        <v>260</v>
+      </c>
+      <c r="E367">
+        <v>167</v>
+      </c>
+      <c r="F367">
+        <v>0.02429225451</v>
+      </c>
+      <c r="G367">
+        <v>10303</v>
+      </c>
+      <c r="H367">
+        <v>20352</v>
+      </c>
+      <c r="I367">
+        <v>31055</v>
+      </c>
+      <c r="J367">
+        <v>55</v>
+      </c>
+      <c r="K367">
+        <v>664</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+      <c r="M367">
+        <v>663</v>
+      </c>
+      <c r="N367">
+        <v>55</v>
+      </c>
+      <c r="O367">
+        <v>58</v>
+      </c>
+      <c r="P367">
+        <v>40</v>
+      </c>
+      <c r="Q367">
+        <v>7</v>
+      </c>
+      <c r="R367">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18">
+      <c r="A368" t="s">
+        <v>384</v>
+      </c>
+      <c r="B368">
+        <v>367</v>
+      </c>
+      <c r="C368">
+        <v>10808</v>
+      </c>
+      <c r="D368">
+        <v>261</v>
+      </c>
+      <c r="E368">
+        <v>141</v>
+      </c>
+      <c r="F368">
+        <v>0.02414877868</v>
+      </c>
+      <c r="G368">
+        <v>10378</v>
+      </c>
+      <c r="H368">
+        <v>20352</v>
+      </c>
+      <c r="I368">
+        <v>31160</v>
+      </c>
+      <c r="J368">
+        <v>105</v>
+      </c>
+      <c r="K368">
+        <v>620</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+      <c r="M368">
+        <v>620</v>
+      </c>
+      <c r="N368">
+        <v>105</v>
+      </c>
+      <c r="O368">
+        <v>53</v>
+      </c>
+      <c r="P368">
+        <v>44</v>
+      </c>
+      <c r="Q368">
+        <v>1</v>
+      </c>
+      <c r="R368">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18">
+      <c r="A369" t="s">
+        <v>385</v>
+      </c>
+      <c r="B369">
+        <v>368</v>
+      </c>
+      <c r="C369">
+        <v>10845</v>
+      </c>
+      <c r="D369">
+        <v>265</v>
+      </c>
+      <c r="E369">
+        <v>167</v>
+      </c>
+      <c r="F369">
+        <v>0.02443522361</v>
+      </c>
+      <c r="G369">
+        <v>10383</v>
+      </c>
+      <c r="H369">
+        <v>20352</v>
+      </c>
+      <c r="I369">
+        <v>31197</v>
+      </c>
+      <c r="J369">
+        <v>37</v>
+      </c>
+      <c r="K369">
+        <v>618</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+      <c r="M369">
+        <v>618</v>
+      </c>
+      <c r="N369">
+        <v>37</v>
+      </c>
+      <c r="O369">
+        <v>59</v>
+      </c>
+      <c r="P369">
+        <v>43</v>
+      </c>
+      <c r="Q369">
+        <v>4</v>
+      </c>
+      <c r="R369">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18">
+      <c r="A370" t="s">
+        <v>386</v>
+      </c>
+      <c r="B370">
+        <v>369</v>
+      </c>
+      <c r="C370">
+        <v>10873</v>
+      </c>
+      <c r="D370">
+        <v>268</v>
+      </c>
+      <c r="E370">
+        <v>168</v>
+      </c>
+      <c r="F370">
+        <v>0.02464821117</v>
+      </c>
+      <c r="G370">
+        <v>10407</v>
+      </c>
+      <c r="H370">
+        <v>20352</v>
+      </c>
+      <c r="I370">
+        <v>31225</v>
+      </c>
+      <c r="J370">
+        <v>28</v>
+      </c>
+      <c r="K370">
+        <v>619</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+      <c r="M370">
+        <v>619</v>
+      </c>
+      <c r="N370">
+        <v>28</v>
+      </c>
+      <c r="O370">
+        <v>42</v>
+      </c>
+      <c r="P370">
+        <v>44</v>
+      </c>
+      <c r="Q370">
+        <v>3</v>
+      </c>
+      <c r="R370">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18">
+      <c r="A371" t="s">
+        <v>387</v>
+      </c>
+      <c r="B371">
+        <v>370</v>
+      </c>
+      <c r="C371">
+        <v>10927</v>
+      </c>
+      <c r="D371">
+        <v>269</v>
+      </c>
+      <c r="E371">
+        <v>113</v>
+      </c>
+      <c r="F371">
+        <v>0.02461791892</v>
+      </c>
+      <c r="G371">
+        <v>10514</v>
+      </c>
+      <c r="H371">
+        <v>20352</v>
+      </c>
+      <c r="I371">
+        <v>31279</v>
+      </c>
+      <c r="J371">
+        <v>54</v>
+      </c>
+      <c r="K371">
+        <v>535</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <v>535</v>
+      </c>
+      <c r="N371">
+        <v>54</v>
+      </c>
+      <c r="O371">
+        <v>47</v>
+      </c>
+      <c r="P371">
+        <v>45</v>
+      </c>
+      <c r="Q371">
+        <v>1</v>
+      </c>
+      <c r="R371">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18">
+      <c r="A372" t="s">
+        <v>388</v>
+      </c>
+      <c r="B372">
+        <v>371</v>
+      </c>
+      <c r="C372">
+        <v>10927</v>
+      </c>
+      <c r="D372">
+        <v>269</v>
+      </c>
+      <c r="E372">
+        <v>113</v>
+      </c>
+      <c r="F372">
+        <v>0.02461791892</v>
+      </c>
+      <c r="G372">
+        <v>10514</v>
+      </c>
+      <c r="H372">
+        <v>20352</v>
+      </c>
+      <c r="I372">
+        <v>31279</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>535</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+      <c r="M372">
+        <v>535</v>
+      </c>
+      <c r="N372">
+        <v>0</v>
+      </c>
+      <c r="O372">
+        <v>47</v>
+      </c>
+      <c r="P372">
+        <v>45</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+      <c r="R372">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18">
+      <c r="A373" t="s">
+        <v>389</v>
+      </c>
+      <c r="B373">
+        <v>372</v>
+      </c>
+      <c r="C373">
+        <v>10959</v>
+      </c>
+      <c r="D373">
+        <v>276</v>
+      </c>
+      <c r="E373">
+        <v>87</v>
+      </c>
+      <c r="F373">
+        <v>0.02518477963</v>
+      </c>
+      <c r="G373">
+        <v>10565</v>
+      </c>
+      <c r="H373">
+        <v>20352</v>
+      </c>
+      <c r="I373">
+        <v>31311</v>
+      </c>
+      <c r="J373">
+        <v>32</v>
+      </c>
+      <c r="K373">
+        <v>538</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373">
+        <v>537</v>
+      </c>
+      <c r="N373">
+        <v>32</v>
+      </c>
+      <c r="O373">
+        <v>52</v>
+      </c>
+      <c r="P373">
+        <v>44</v>
+      </c>
+      <c r="Q373">
+        <v>7</v>
+      </c>
+      <c r="R373">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18">
+      <c r="A374" t="s">
+        <v>390</v>
+      </c>
+      <c r="B374">
+        <v>373</v>
+      </c>
+      <c r="C374">
+        <v>11045</v>
+      </c>
+      <c r="D374">
+        <v>278</v>
+      </c>
+      <c r="E374">
+        <v>98</v>
+      </c>
+      <c r="F374">
+        <v>0.02516976007</v>
+      </c>
+      <c r="G374">
+        <v>10638</v>
+      </c>
+      <c r="H374">
+        <v>20352</v>
+      </c>
+      <c r="I374">
+        <v>31397</v>
+      </c>
+      <c r="J374">
+        <v>86</v>
+      </c>
+      <c r="K374">
+        <v>578</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374">
+        <v>577</v>
+      </c>
+      <c r="N374">
+        <v>86</v>
+      </c>
+      <c r="O374">
+        <v>55</v>
+      </c>
+      <c r="P374">
+        <v>44</v>
+      </c>
+      <c r="Q374">
+        <v>2</v>
+      </c>
+      <c r="R374">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18">
+      <c r="A375" t="s">
+        <v>391</v>
+      </c>
+      <c r="B375">
+        <v>374</v>
+      </c>
+      <c r="C375">
+        <v>11206</v>
+      </c>
+      <c r="D375">
+        <v>281</v>
+      </c>
+      <c r="E375">
+        <v>112</v>
+      </c>
+      <c r="F375">
+        <v>0.02507585222</v>
+      </c>
+      <c r="G375">
+        <v>10782</v>
+      </c>
+      <c r="H375">
+        <v>20352</v>
+      </c>
+      <c r="I375">
+        <v>31558</v>
+      </c>
+      <c r="J375">
+        <v>14</v>
+      </c>
+      <c r="K375">
+        <v>563</v>
+      </c>
+      <c r="L375">
+        <v>144</v>
+      </c>
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <v>161</v>
+      </c>
+      <c r="O375">
+        <v>50</v>
+      </c>
+      <c r="P375">
+        <v>47</v>
+      </c>
+      <c r="Q375">
+        <v>3</v>
+      </c>
+      <c r="R375">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18">
+      <c r="A376" t="s">
+        <v>392</v>
+      </c>
+      <c r="B376">
+        <v>375</v>
+      </c>
+      <c r="C376">
+        <v>11253</v>
+      </c>
+      <c r="D376">
+        <v>286</v>
+      </c>
+      <c r="E376">
+        <v>116</v>
+      </c>
+      <c r="F376">
+        <v>0.02541544477</v>
+      </c>
+      <c r="G376">
+        <v>10820</v>
+      </c>
+      <c r="H376">
+        <v>20352</v>
+      </c>
+      <c r="I376">
+        <v>31605</v>
+      </c>
+      <c r="J376">
+        <v>47</v>
+      </c>
+      <c r="K376">
+        <v>621</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>621</v>
+      </c>
+      <c r="N376">
+        <v>47</v>
+      </c>
+      <c r="O376">
+        <v>46</v>
+      </c>
+      <c r="P376">
+        <v>41</v>
+      </c>
+      <c r="Q376">
+        <v>5</v>
+      </c>
+      <c r="R376">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18">
+      <c r="A377" t="s">
+        <v>393</v>
+      </c>
+      <c r="B377">
+        <v>376</v>
+      </c>
+      <c r="C377">
+        <v>11350</v>
+      </c>
+      <c r="D377">
+        <v>291</v>
+      </c>
+      <c r="E377">
+        <v>142</v>
+      </c>
+      <c r="F377">
+        <v>0.02563876652</v>
+      </c>
+      <c r="G377">
+        <v>10886</v>
+      </c>
+      <c r="H377">
+        <v>20352</v>
+      </c>
+      <c r="I377">
+        <v>31702</v>
+      </c>
+      <c r="J377">
+        <v>97</v>
+      </c>
+      <c r="K377">
+        <v>541</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>541</v>
+      </c>
+      <c r="N377">
+        <v>97</v>
+      </c>
+      <c r="O377">
+        <v>43</v>
+      </c>
+      <c r="P377">
+        <v>44</v>
+      </c>
+      <c r="Q377">
+        <v>5</v>
+      </c>
+      <c r="R377">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18">
+      <c r="A378" t="s">
+        <v>394</v>
+      </c>
+      <c r="B378">
+        <v>377</v>
+      </c>
+      <c r="C378">
+        <v>11411</v>
+      </c>
+      <c r="D378">
+        <v>292</v>
+      </c>
+      <c r="E378">
+        <v>130</v>
+      </c>
+      <c r="F378">
+        <v>0.02558934362</v>
+      </c>
+      <c r="G378">
+        <v>10958</v>
+      </c>
+      <c r="H378">
+        <v>20352</v>
+      </c>
+      <c r="I378">
+        <v>31763</v>
+      </c>
+      <c r="J378">
+        <v>61</v>
+      </c>
+      <c r="K378">
+        <v>441</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="M378">
+        <v>441</v>
+      </c>
+      <c r="N378">
+        <v>61</v>
+      </c>
+      <c r="O378">
+        <v>37</v>
+      </c>
+      <c r="P378">
+        <v>43</v>
+      </c>
+      <c r="Q378">
+        <v>1</v>
+      </c>
+      <c r="R378">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18">
+      <c r="A379" t="s">
+        <v>395</v>
+      </c>
+      <c r="B379">
+        <v>378</v>
+      </c>
+      <c r="C379">
+        <v>11420</v>
+      </c>
+      <c r="D379">
+        <v>295</v>
+      </c>
+      <c r="E379">
+        <v>121</v>
+      </c>
+      <c r="F379">
+        <v>0.02583187391</v>
+      </c>
+      <c r="G379">
+        <v>10973</v>
+      </c>
+      <c r="H379">
+        <v>20352</v>
+      </c>
+      <c r="I379">
+        <v>31772</v>
+      </c>
+      <c r="J379">
+        <v>9</v>
+      </c>
+      <c r="K379">
+        <v>432</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+      <c r="M379">
+        <v>432</v>
+      </c>
+      <c r="N379">
+        <v>9</v>
+      </c>
+      <c r="O379">
+        <v>37</v>
+      </c>
+      <c r="P379">
+        <v>41</v>
+      </c>
+      <c r="Q379">
+        <v>3</v>
+      </c>
+      <c r="R379">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18">
+      <c r="A380" t="s">
+        <v>396</v>
+      </c>
+      <c r="B380">
+        <v>379</v>
+      </c>
+      <c r="C380">
+        <v>11461</v>
+      </c>
+      <c r="D380">
+        <v>297</v>
+      </c>
+      <c r="E380">
+        <v>112</v>
+      </c>
+      <c r="F380">
+        <v>0.02591396911</v>
+      </c>
+      <c r="G380">
+        <v>11020</v>
+      </c>
+      <c r="H380">
+        <v>22872</v>
+      </c>
+      <c r="I380">
+        <v>34333</v>
+      </c>
+      <c r="J380">
+        <v>41</v>
+      </c>
+      <c r="K380">
+        <v>309</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>309</v>
+      </c>
+      <c r="N380">
+        <v>2561</v>
+      </c>
+      <c r="O380">
+        <v>42</v>
+      </c>
+      <c r="P380">
+        <v>47</v>
+      </c>
+      <c r="Q380">
+        <v>2</v>
+      </c>
+      <c r="R380">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18">
+      <c r="A381" t="s">
+        <v>397</v>
+      </c>
+      <c r="B381">
+        <v>380</v>
+      </c>
+      <c r="C381">
+        <v>11542</v>
+      </c>
+      <c r="D381">
+        <v>299</v>
+      </c>
+      <c r="E381">
+        <v>115</v>
+      </c>
+      <c r="F381">
+        <v>0.02590538901</v>
+      </c>
+      <c r="G381">
+        <v>11096</v>
+      </c>
+      <c r="H381">
+        <v>22872</v>
+      </c>
+      <c r="I381">
+        <v>34414</v>
+      </c>
+      <c r="J381">
+        <v>81</v>
+      </c>
+      <c r="K381">
+        <v>333</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381">
+        <v>332</v>
+      </c>
+      <c r="N381">
+        <v>81</v>
+      </c>
+      <c r="O381">
+        <v>32</v>
+      </c>
+      <c r="P381">
+        <v>50</v>
+      </c>
+      <c r="Q381">
+        <v>2</v>
+      </c>
+      <c r="R381">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18">
+      <c r="A382" t="s">
+        <v>398</v>
+      </c>
+      <c r="B382">
+        <v>381</v>
+      </c>
+      <c r="C382">
+        <v>11620</v>
+      </c>
+      <c r="D382">
+        <v>303</v>
+      </c>
+      <c r="E382">
+        <v>157</v>
+      </c>
+      <c r="F382">
+        <v>0.0260757315</v>
+      </c>
+      <c r="G382">
+        <v>11127</v>
+      </c>
+      <c r="H382">
+        <v>22872</v>
+      </c>
+      <c r="I382">
+        <v>34492</v>
+      </c>
+      <c r="J382">
+        <v>78</v>
+      </c>
+      <c r="K382">
+        <v>297</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382">
+        <v>296</v>
+      </c>
+      <c r="N382">
+        <v>78</v>
+      </c>
+      <c r="O382">
+        <v>29</v>
+      </c>
+      <c r="P382">
+        <v>49</v>
+      </c>
+      <c r="Q382">
+        <v>4</v>
+      </c>
+      <c r="R382">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18">
+      <c r="A383" t="s">
+        <v>399</v>
+      </c>
+      <c r="B383">
+        <v>382</v>
+      </c>
+      <c r="C383">
+        <v>11638</v>
+      </c>
+      <c r="D383">
+        <v>305</v>
+      </c>
+      <c r="E383">
+        <v>147</v>
+      </c>
+      <c r="F383">
+        <v>0.02620725211</v>
+      </c>
+      <c r="G383">
+        <v>11153</v>
+      </c>
+      <c r="H383">
+        <v>22872</v>
+      </c>
+      <c r="I383">
+        <v>34510</v>
+      </c>
+      <c r="J383">
+        <v>18</v>
+      </c>
+      <c r="K383">
+        <v>311</v>
+      </c>
+      <c r="L383">
+        <v>2</v>
+      </c>
+      <c r="M383">
+        <v>309</v>
+      </c>
+      <c r="N383">
+        <v>18</v>
+      </c>
+      <c r="O383">
+        <v>33</v>
+      </c>
+      <c r="P383">
+        <v>46</v>
+      </c>
+      <c r="Q383">
+        <v>2</v>
+      </c>
+      <c r="R383">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18">
+      <c r="A384" t="s">
+        <v>400</v>
+      </c>
+      <c r="B384">
+        <v>383</v>
+      </c>
+      <c r="C384">
+        <v>11710</v>
+      </c>
+      <c r="D384">
+        <v>306</v>
+      </c>
+      <c r="E384">
+        <v>148</v>
+      </c>
+      <c r="F384">
+        <v>0.02613151153</v>
+      </c>
+      <c r="G384">
+        <v>11221</v>
+      </c>
+      <c r="H384">
+        <v>22872</v>
+      </c>
+      <c r="I384">
+        <v>34582</v>
+      </c>
+      <c r="J384">
+        <v>72</v>
+      </c>
+      <c r="K384">
+        <v>242</v>
+      </c>
+      <c r="L384">
+        <v>1</v>
+      </c>
+      <c r="M384">
+        <v>241</v>
+      </c>
+      <c r="N384">
+        <v>72</v>
+      </c>
+      <c r="O384">
+        <v>37</v>
+      </c>
+      <c r="P384">
+        <v>45</v>
+      </c>
+      <c r="Q384">
+        <v>1</v>
+      </c>
+      <c r="R384">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18">
+      <c r="A385" t="s">
+        <v>401</v>
+      </c>
+      <c r="B385">
+        <v>384</v>
+      </c>
+      <c r="C385">
+        <v>11746</v>
+      </c>
+      <c r="D385">
+        <v>309</v>
+      </c>
+      <c r="E385">
+        <v>144</v>
+      </c>
+      <c r="F385">
+        <v>0.02630682786</v>
+      </c>
+      <c r="G385">
+        <v>11258</v>
+      </c>
+      <c r="H385">
+        <v>22872</v>
+      </c>
+      <c r="I385">
+        <v>34618</v>
+      </c>
+      <c r="J385">
+        <v>36</v>
+      </c>
+      <c r="K385">
+        <v>241</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+      <c r="M385">
+        <v>241</v>
+      </c>
+      <c r="N385">
+        <v>36</v>
+      </c>
+      <c r="O385">
+        <v>38</v>
+      </c>
+      <c r="P385">
+        <v>44</v>
+      </c>
+      <c r="Q385">
+        <v>3</v>
+      </c>
+      <c r="R385">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="386" spans="1:18">
+      <c r="A386" t="s">
+        <v>402</v>
+      </c>
+      <c r="B386">
+        <v>385</v>
+      </c>
+      <c r="C386">
+        <v>11750</v>
+      </c>
+      <c r="D386">
+        <v>310</v>
+      </c>
+      <c r="E386">
+        <v>145</v>
+      </c>
+      <c r="F386">
+        <v>0.02638297872</v>
+      </c>
+      <c r="G386">
+        <v>11260</v>
+      </c>
+      <c r="H386">
+        <v>22872</v>
+      </c>
+      <c r="I386">
+        <v>34622</v>
+      </c>
+      <c r="J386">
+        <v>4</v>
+      </c>
+      <c r="K386">
+        <v>241</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>241</v>
+      </c>
+      <c r="N386">
+        <v>4</v>
+      </c>
+      <c r="O386">
+        <v>39</v>
+      </c>
+      <c r="P386">
+        <v>44</v>
+      </c>
+      <c r="Q386">
+        <v>1</v>
+      </c>
+      <c r="R386">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="387" spans="1:18">
+      <c r="A387" t="s">
+        <v>403</v>
+      </c>
+      <c r="B387">
+        <v>386</v>
+      </c>
+      <c r="C387">
+        <v>11815</v>
+      </c>
+      <c r="D387">
+        <v>313</v>
+      </c>
+      <c r="E387">
+        <v>156</v>
+      </c>
+      <c r="F387">
+        <v>0.02649174778</v>
+      </c>
+      <c r="G387">
+        <v>11311</v>
+      </c>
+      <c r="H387">
+        <v>22872</v>
+      </c>
+      <c r="I387">
+        <v>34687</v>
+      </c>
+      <c r="J387">
+        <v>65</v>
+      </c>
+      <c r="K387">
+        <v>160</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+      <c r="M387">
+        <v>160</v>
+      </c>
+      <c r="N387">
+        <v>65</v>
+      </c>
+      <c r="O387">
+        <v>42</v>
+      </c>
+      <c r="P387">
+        <v>46</v>
+      </c>
+      <c r="Q387">
+        <v>3</v>
+      </c>
+      <c r="R387">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="388" spans="1:18">
+      <c r="A388" t="s">
+        <v>404</v>
+      </c>
+      <c r="B388">
+        <v>387</v>
+      </c>
+      <c r="C388">
+        <v>11890</v>
+      </c>
+      <c r="D388">
+        <v>313</v>
+      </c>
+      <c r="E388">
+        <v>155</v>
+      </c>
+      <c r="F388">
+        <v>0.02632464256</v>
+      </c>
+      <c r="G388">
+        <v>11387</v>
+      </c>
+      <c r="H388">
+        <v>22872</v>
+      </c>
+      <c r="I388">
+        <v>34762</v>
+      </c>
+      <c r="J388">
+        <v>75</v>
+      </c>
+      <c r="K388">
+        <v>256</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+      <c r="M388">
+        <v>256</v>
+      </c>
+      <c r="N388">
+        <v>75</v>
+      </c>
+      <c r="O388">
+        <v>42</v>
+      </c>
+      <c r="P388">
+        <v>47</v>
+      </c>
+      <c r="Q388">
+        <v>0</v>
+      </c>
+      <c r="R388">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="389" spans="1:18">
+      <c r="A389" t="s">
+        <v>405</v>
+      </c>
+      <c r="B389">
+        <v>388</v>
+      </c>
+      <c r="C389">
+        <v>11914</v>
+      </c>
+      <c r="D389">
+        <v>314</v>
+      </c>
+      <c r="E389">
+        <v>149</v>
+      </c>
+      <c r="F389">
+        <v>0.02635554809</v>
+      </c>
+      <c r="G389">
+        <v>11416</v>
+      </c>
+      <c r="H389">
+        <v>22872</v>
+      </c>
+      <c r="I389">
+        <v>34786</v>
+      </c>
+      <c r="J389">
+        <v>24</v>
+      </c>
+      <c r="K389">
+        <v>171</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="M389">
+        <v>171</v>
+      </c>
+      <c r="N389">
+        <v>24</v>
+      </c>
+      <c r="O389">
+        <v>44</v>
+      </c>
+      <c r="P389">
+        <v>44</v>
+      </c>
+      <c r="Q389">
+        <v>1</v>
+      </c>
+      <c r="R389">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="390" spans="1:18">
+      <c r="A390" t="s">
+        <v>406</v>
+      </c>
+      <c r="B390">
+        <v>389</v>
+      </c>
+      <c r="C390">
+        <v>11957</v>
+      </c>
+      <c r="D390">
+        <v>315</v>
+      </c>
+      <c r="E390">
+        <v>174</v>
+      </c>
+      <c r="F390">
+        <v>0.02634440077</v>
+      </c>
+      <c r="G390">
+        <v>11431</v>
+      </c>
+      <c r="H390">
+        <v>22872</v>
+      </c>
+      <c r="I390">
+        <v>34829</v>
+      </c>
+      <c r="J390">
+        <v>43</v>
+      </c>
+      <c r="K390">
+        <v>155</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+      <c r="M390">
+        <v>155</v>
+      </c>
+      <c r="N390">
+        <v>43</v>
+      </c>
+      <c r="O390">
+        <v>48</v>
+      </c>
+      <c r="P390">
+        <v>42</v>
+      </c>
+      <c r="Q390">
+        <v>1</v>
+      </c>
+      <c r="R390">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="391" spans="1:18">
+      <c r="A391" t="s">
+        <v>407</v>
+      </c>
+      <c r="B391">
+        <v>390</v>
+      </c>
+      <c r="C391">
+        <v>12020</v>
+      </c>
+      <c r="D391">
+        <v>315</v>
+      </c>
+      <c r="E391">
+        <v>160</v>
+      </c>
+      <c r="F391">
+        <v>0.0262063228</v>
+      </c>
+      <c r="G391">
+        <v>11508</v>
+      </c>
+      <c r="H391">
+        <v>22872</v>
+      </c>
+      <c r="I391">
+        <v>34892</v>
+      </c>
+      <c r="J391">
+        <v>63</v>
+      </c>
+      <c r="K391">
+        <v>182</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+      <c r="M391">
+        <v>182</v>
+      </c>
+      <c r="N391">
+        <v>63</v>
+      </c>
+      <c r="O391">
+        <v>45</v>
+      </c>
+      <c r="P391">
+        <v>46</v>
+      </c>
+      <c r="Q391">
+        <v>0</v>
+      </c>
+      <c r="R391">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="392" spans="1:18">
+      <c r="A392" t="s">
+        <v>408</v>
+      </c>
+      <c r="B392">
+        <v>391</v>
+      </c>
+      <c r="C392">
+        <v>12045</v>
+      </c>
+      <c r="D392">
+        <v>319</v>
+      </c>
+      <c r="E392">
+        <v>126</v>
+      </c>
+      <c r="F392">
+        <v>0.02648401826</v>
+      </c>
+      <c r="G392">
+        <v>11563</v>
+      </c>
+      <c r="H392">
+        <v>22872</v>
+      </c>
+      <c r="I392">
+        <v>34917</v>
+      </c>
+      <c r="J392">
+        <v>25</v>
+      </c>
+      <c r="K392">
+        <v>173</v>
+      </c>
+      <c r="L392">
+        <v>0</v>
+      </c>
+      <c r="M392">
+        <v>173</v>
+      </c>
+      <c r="N392">
+        <v>25</v>
+      </c>
+      <c r="O392">
+        <v>47</v>
+      </c>
+      <c r="P392">
+        <v>46</v>
+      </c>
+      <c r="Q392">
+        <v>4</v>
+      </c>
+      <c r="R392">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="393" spans="1:18">
+      <c r="A393" t="s">
+        <v>409</v>
+      </c>
+      <c r="B393">
+        <v>392</v>
+      </c>
+      <c r="C393">
+        <v>12048</v>
+      </c>
+      <c r="D393">
+        <v>321</v>
+      </c>
+      <c r="E393">
+        <v>125</v>
+      </c>
+      <c r="F393">
+        <v>0.02664342629</v>
+      </c>
+      <c r="G393">
+        <v>11565</v>
+      </c>
+      <c r="H393">
+        <v>22872</v>
+      </c>
+      <c r="I393">
+        <v>34920</v>
+      </c>
+      <c r="J393">
+        <v>3</v>
+      </c>
+      <c r="K393">
+        <v>173</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+      <c r="M393">
+        <v>173</v>
+      </c>
+      <c r="N393">
+        <v>3</v>
+      </c>
+      <c r="O393">
+        <v>47</v>
+      </c>
+      <c r="P393">
+        <v>44</v>
+      </c>
+      <c r="Q393">
+        <v>2</v>
+      </c>
+      <c r="R393">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="394" spans="1:18">
+      <c r="A394" t="s">
+        <v>410</v>
+      </c>
+      <c r="B394">
+        <v>393</v>
+      </c>
+      <c r="C394">
+        <v>12130</v>
+      </c>
+      <c r="D394">
+        <v>324</v>
+      </c>
+      <c r="E394">
+        <v>141</v>
+      </c>
+      <c r="F394">
+        <v>0.02671063479</v>
+      </c>
+      <c r="G394">
+        <v>11628</v>
+      </c>
+      <c r="H394">
+        <v>22872</v>
+      </c>
+      <c r="I394">
+        <v>35002</v>
+      </c>
+      <c r="J394">
+        <v>82</v>
+      </c>
+      <c r="K394">
+        <v>135</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+      <c r="M394">
+        <v>135</v>
+      </c>
+      <c r="N394">
+        <v>82</v>
+      </c>
+      <c r="O394">
+        <v>47</v>
+      </c>
+      <c r="P394">
+        <v>43</v>
+      </c>
+      <c r="Q394">
+        <v>3</v>
+      </c>
+      <c r="R394">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="395" spans="1:18">
+      <c r="A395" t="s">
+        <v>411</v>
+      </c>
+      <c r="B395">
+        <v>394</v>
+      </c>
+      <c r="C395">
+        <v>12224</v>
+      </c>
+      <c r="D395">
+        <v>324</v>
+      </c>
+      <c r="E395">
+        <v>183</v>
+      </c>
+      <c r="F395">
+        <v>0.0265052356</v>
+      </c>
+      <c r="G395">
+        <v>11680</v>
+      </c>
+      <c r="H395">
+        <v>22872</v>
+      </c>
+      <c r="I395">
+        <v>35096</v>
+      </c>
+      <c r="J395">
+        <v>94</v>
+      </c>
+      <c r="K395">
+        <v>181</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+      <c r="M395">
+        <v>181</v>
+      </c>
+      <c r="N395">
+        <v>94</v>
+      </c>
+      <c r="O395">
+        <v>49</v>
+      </c>
+      <c r="P395">
+        <v>46</v>
+      </c>
+      <c r="Q395">
+        <v>0</v>
+      </c>
+      <c r="R395">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="396" spans="1:18">
+      <c r="A396" t="s">
+        <v>412</v>
+      </c>
+      <c r="B396">
+        <v>395</v>
+      </c>
+      <c r="C396">
+        <v>12285</v>
+      </c>
+      <c r="D396">
+        <v>327</v>
+      </c>
+      <c r="E396">
+        <v>189</v>
+      </c>
+      <c r="F396">
+        <v>0.02661782662</v>
+      </c>
+      <c r="G396">
+        <v>11732</v>
+      </c>
+      <c r="H396">
+        <v>22872</v>
+      </c>
+      <c r="I396">
+        <v>35157</v>
+      </c>
+      <c r="J396">
+        <v>61</v>
+      </c>
+      <c r="K396">
+        <v>202</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+      <c r="M396">
+        <v>202</v>
+      </c>
+      <c r="N396">
+        <v>61</v>
+      </c>
+      <c r="O396">
+        <v>48</v>
+      </c>
+      <c r="P396">
+        <v>45</v>
+      </c>
+      <c r="Q396">
+        <v>3</v>
+      </c>
+      <c r="R396">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="397" spans="1:18">
+      <c r="A397" t="s">
+        <v>413</v>
+      </c>
+      <c r="B397">
+        <v>396</v>
+      </c>
+      <c r="C397">
+        <v>12311</v>
+      </c>
+      <c r="D397">
+        <v>328</v>
+      </c>
+      <c r="E397">
+        <v>170</v>
+      </c>
+      <c r="F397">
+        <v>0.02664283974</v>
+      </c>
+      <c r="G397">
+        <v>11775</v>
+      </c>
+      <c r="H397">
+        <v>22872</v>
+      </c>
+      <c r="I397">
+        <v>35183</v>
+      </c>
+      <c r="J397">
+        <v>26</v>
+      </c>
+      <c r="K397">
+        <v>240</v>
+      </c>
+      <c r="L397">
+        <v>0</v>
+      </c>
+      <c r="M397">
+        <v>240</v>
+      </c>
+      <c r="N397">
+        <v>26</v>
+      </c>
+      <c r="O397">
+        <v>39</v>
+      </c>
+      <c r="P397">
+        <v>44</v>
+      </c>
+      <c r="Q397">
+        <v>1</v>
+      </c>
+      <c r="R397">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="398" spans="1:18">
+      <c r="A398" t="s">
+        <v>414</v>
+      </c>
+      <c r="B398">
+        <v>397</v>
+      </c>
+      <c r="C398">
+        <v>12330</v>
+      </c>
+      <c r="D398">
+        <v>330</v>
+      </c>
+      <c r="E398">
+        <v>156</v>
+      </c>
+      <c r="F398">
+        <v>0.02676399027</v>
+      </c>
+      <c r="G398">
+        <v>11806</v>
+      </c>
+      <c r="H398">
+        <v>22872</v>
+      </c>
+      <c r="I398">
+        <v>35202</v>
+      </c>
+      <c r="J398">
+        <v>19</v>
+      </c>
+      <c r="K398">
+        <v>297</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+      <c r="M398">
+        <v>297</v>
+      </c>
+      <c r="N398">
+        <v>19</v>
+      </c>
+      <c r="O398">
+        <v>41</v>
+      </c>
+      <c r="P398">
+        <v>46</v>
+      </c>
+      <c r="Q398">
+        <v>2</v>
+      </c>
+      <c r="R398">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="399" spans="1:18">
+      <c r="A399" t="s">
+        <v>415</v>
+      </c>
+      <c r="B399">
+        <v>398</v>
+      </c>
+      <c r="C399">
+        <v>12330</v>
+      </c>
+      <c r="D399">
+        <v>330</v>
+      </c>
+      <c r="E399">
+        <v>156</v>
+      </c>
+      <c r="F399">
+        <v>0.02676399027</v>
+      </c>
+      <c r="G399">
+        <v>11806</v>
+      </c>
+      <c r="H399">
+        <v>22872</v>
+      </c>
+      <c r="I399">
+        <v>35202</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>297</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+      <c r="M399">
+        <v>297</v>
+      </c>
+      <c r="N399">
+        <v>0</v>
+      </c>
+      <c r="O399">
+        <v>41</v>
+      </c>
+      <c r="P399">
+        <v>46</v>
+      </c>
+      <c r="Q399">
+        <v>0</v>
+      </c>
+      <c r="R399">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="400" spans="1:18">
+      <c r="A400" t="s">
+        <v>416</v>
+      </c>
+      <c r="B400">
+        <v>399</v>
+      </c>
+      <c r="C400">
+        <v>12330</v>
+      </c>
+      <c r="D400">
+        <v>330</v>
+      </c>
+      <c r="E400">
+        <v>156</v>
+      </c>
+      <c r="F400">
+        <v>0.02676399027</v>
+      </c>
+      <c r="G400">
+        <v>11806</v>
+      </c>
+      <c r="H400">
+        <v>22872</v>
+      </c>
+      <c r="I400">
+        <v>35202</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>297</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+      <c r="M400">
+        <v>297</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+      <c r="O400">
+        <v>41</v>
+      </c>
+      <c r="P400">
+        <v>46</v>
+      </c>
+      <c r="Q400">
+        <v>0</v>
+      </c>
+      <c r="R400">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="401" spans="1:18">
+      <c r="A401" t="s">
+        <v>417</v>
+      </c>
+      <c r="B401">
+        <v>400</v>
+      </c>
+      <c r="C401">
+        <v>12357</v>
+      </c>
+      <c r="D401">
+        <v>344</v>
+      </c>
+      <c r="E401">
+        <v>96</v>
+      </c>
+      <c r="F401">
+        <v>0.02783847212</v>
+      </c>
+      <c r="G401">
+        <v>11878</v>
+      </c>
+      <c r="H401">
+        <v>22872</v>
+      </c>
+      <c r="I401">
+        <v>35229</v>
+      </c>
+      <c r="J401">
+        <v>27</v>
+      </c>
+      <c r="K401">
+        <v>307</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+      <c r="M401">
+        <v>307</v>
+      </c>
+      <c r="N401">
+        <v>27</v>
+      </c>
+      <c r="O401">
+        <v>37</v>
+      </c>
+      <c r="P401">
+        <v>36</v>
+      </c>
+      <c r="Q401">
+        <v>14</v>
+      </c>
+      <c r="R401">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="402" spans="1:18">
+      <c r="A402" t="s">
+        <v>418</v>
+      </c>
+      <c r="B402">
+        <v>401</v>
+      </c>
+      <c r="C402">
+        <v>12434</v>
+      </c>
+      <c r="D402">
+        <v>345</v>
+      </c>
+      <c r="E402">
+        <v>122</v>
+      </c>
+      <c r="F402">
+        <v>0.02774650153</v>
+      </c>
+      <c r="G402">
+        <v>11928</v>
+      </c>
+      <c r="H402">
+        <v>22872</v>
+      </c>
+      <c r="I402">
+        <v>35306</v>
+      </c>
+      <c r="J402">
+        <v>77</v>
+      </c>
+      <c r="K402">
+        <v>342</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <v>342</v>
+      </c>
+      <c r="N402">
+        <v>77</v>
+      </c>
+      <c r="O402">
+        <v>34</v>
+      </c>
+      <c r="P402">
+        <v>44</v>
+      </c>
+      <c r="Q402">
+        <v>1</v>
+      </c>
+      <c r="R402">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="403" spans="1:18">
+      <c r="A403" t="s">
+        <v>419</v>
+      </c>
+      <c r="B403">
+        <v>402</v>
+      </c>
+      <c r="C403">
+        <v>12482</v>
+      </c>
+      <c r="D403">
+        <v>350</v>
+      </c>
+      <c r="E403">
+        <v>135</v>
+      </c>
+      <c r="F403">
+        <v>0.02804037814</v>
+      </c>
+      <c r="G403">
+        <v>11958</v>
+      </c>
+      <c r="H403">
+        <v>22872</v>
+      </c>
+      <c r="I403">
+        <v>35354</v>
+      </c>
+      <c r="J403">
+        <v>48</v>
+      </c>
+      <c r="K403">
+        <v>335</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+      <c r="M403">
+        <v>335</v>
+      </c>
+      <c r="N403">
+        <v>48</v>
+      </c>
+      <c r="O403">
+        <v>33</v>
+      </c>
+      <c r="P403">
+        <v>40</v>
+      </c>
+      <c r="Q403">
+        <v>5</v>
+      </c>
+      <c r="R403">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="404" spans="1:18">
+      <c r="A404" t="s">
+        <v>420</v>
+      </c>
+      <c r="B404">
+        <v>403</v>
+      </c>
+      <c r="C404">
+        <v>12513</v>
+      </c>
+      <c r="D404">
+        <v>353</v>
+      </c>
+      <c r="E404">
+        <v>143</v>
+      </c>
+      <c r="F404">
+        <v>0.02821066091</v>
+      </c>
+      <c r="G404">
+        <v>11978</v>
+      </c>
+      <c r="H404">
+        <v>22872</v>
+      </c>
+      <c r="I404">
+        <v>35385</v>
+      </c>
+      <c r="J404">
+        <v>31</v>
+      </c>
+      <c r="K404">
+        <v>230</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+      <c r="M404">
+        <v>230</v>
+      </c>
+      <c r="N404">
+        <v>31</v>
+      </c>
+      <c r="O404">
+        <v>36</v>
+      </c>
+      <c r="P404">
+        <v>44</v>
+      </c>
+      <c r="Q404">
+        <v>3</v>
+      </c>
+      <c r="R404">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="405" spans="1:18">
+      <c r="A405" t="s">
+        <v>421</v>
+      </c>
+      <c r="B405">
+        <v>404</v>
+      </c>
+      <c r="C405">
+        <v>12594</v>
+      </c>
+      <c r="D405">
+        <v>355</v>
+      </c>
+      <c r="E405">
+        <v>136</v>
+      </c>
+      <c r="F405">
+        <v>0.02818802604</v>
+      </c>
+      <c r="G405">
+        <v>12064</v>
+      </c>
+      <c r="H405">
+        <v>22872</v>
+      </c>
+      <c r="I405">
+        <v>35466</v>
+      </c>
+      <c r="J405">
+        <v>81</v>
+      </c>
+      <c r="K405">
+        <v>229</v>
+      </c>
+      <c r="L405">
+        <v>1</v>
+      </c>
+      <c r="M405">
+        <v>228</v>
+      </c>
+      <c r="N405">
+        <v>81</v>
+      </c>
+      <c r="O405">
+        <v>40</v>
+      </c>
+      <c r="P405">
+        <v>42</v>
+      </c>
+      <c r="Q405">
+        <v>2</v>
+      </c>
+      <c r="R405">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="406" spans="1:18">
+      <c r="A406" t="s">
+        <v>422</v>
+      </c>
+      <c r="B406">
+        <v>405</v>
+      </c>
+      <c r="C406">
+        <v>12632</v>
+      </c>
+      <c r="D406">
+        <v>355</v>
+      </c>
+      <c r="E406">
+        <v>137</v>
+      </c>
+      <c r="F406">
+        <v>0.02810322988999999</v>
+      </c>
+      <c r="G406">
+        <v>12101</v>
+      </c>
+      <c r="H406">
+        <v>22872</v>
+      </c>
+      <c r="I406">
+        <v>35504</v>
+      </c>
+      <c r="J406">
+        <v>38</v>
+      </c>
+      <c r="K406">
+        <v>209</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
+      </c>
+      <c r="M406">
+        <v>208</v>
+      </c>
+      <c r="N406">
+        <v>38</v>
+      </c>
+      <c r="O406">
+        <v>37</v>
+      </c>
+      <c r="P406">
+        <v>42</v>
+      </c>
+      <c r="Q406">
+        <v>0</v>
+      </c>
+      <c r="R406">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="407" spans="1:18">
+      <c r="A407" t="s">
+        <v>423</v>
+      </c>
+      <c r="B407">
+        <v>406</v>
+      </c>
+      <c r="C407">
+        <v>12649</v>
+      </c>
+      <c r="D407">
+        <v>355</v>
+      </c>
+      <c r="E407">
+        <v>149</v>
+      </c>
+      <c r="F407">
+        <v>0.02806545972</v>
+      </c>
+      <c r="G407">
+        <v>12102</v>
+      </c>
+      <c r="H407">
+        <v>22872</v>
+      </c>
+      <c r="I407">
+        <v>35521</v>
+      </c>
+      <c r="J407">
+        <v>17</v>
+      </c>
+      <c r="K407">
+        <v>211</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
+      </c>
+      <c r="M407">
+        <v>210</v>
+      </c>
+      <c r="N407">
+        <v>17</v>
+      </c>
+      <c r="O407">
+        <v>39</v>
+      </c>
+      <c r="P407">
+        <v>42</v>
+      </c>
+      <c r="Q407">
+        <v>0</v>
+      </c>
+      <c r="R407">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="408" spans="1:18">
+      <c r="A408" t="s">
+        <v>424</v>
+      </c>
+      <c r="B408">
+        <v>407</v>
+      </c>
+      <c r="C408">
+        <v>12719</v>
+      </c>
+      <c r="D408">
+        <v>356</v>
+      </c>
+      <c r="E408">
+        <v>133</v>
+      </c>
+      <c r="F408">
+        <v>0.02798962183</v>
+      </c>
+      <c r="G408">
+        <v>12191</v>
+      </c>
+      <c r="H408">
+        <v>22872</v>
+      </c>
+      <c r="I408">
+        <v>35591</v>
+      </c>
+      <c r="J408">
+        <v>70</v>
+      </c>
+      <c r="K408">
+        <v>95</v>
+      </c>
+      <c r="L408">
+        <v>1</v>
+      </c>
+      <c r="M408">
+        <v>94</v>
+      </c>
+      <c r="N408">
+        <v>70</v>
+      </c>
+      <c r="O408">
+        <v>40</v>
+      </c>
+      <c r="P408">
+        <v>42</v>
+      </c>
+      <c r="Q408">
+        <v>1</v>
+      </c>
+      <c r="R408">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="409" spans="1:18">
+      <c r="A409" t="s">
+        <v>425</v>
+      </c>
+      <c r="B409">
+        <v>408</v>
+      </c>
+      <c r="C409">
+        <v>12769</v>
+      </c>
+      <c r="D409">
+        <v>362</v>
+      </c>
+      <c r="E409">
+        <v>130</v>
+      </c>
+      <c r="F409">
+        <v>0.02834990994</v>
+      </c>
+      <c r="G409">
+        <v>12237</v>
+      </c>
+      <c r="H409">
+        <v>22872</v>
+      </c>
+      <c r="I409">
+        <v>35641</v>
+      </c>
+      <c r="J409">
+        <v>50</v>
+      </c>
+      <c r="K409">
+        <v>138</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+      <c r="M409">
+        <v>138</v>
+      </c>
+      <c r="N409">
+        <v>50</v>
+      </c>
+      <c r="O409">
+        <v>34</v>
+      </c>
+      <c r="P409">
+        <v>42</v>
+      </c>
+      <c r="Q409">
+        <v>6</v>
+      </c>
+      <c r="R409">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="410" spans="1:18">
+      <c r="A410" t="s">
+        <v>426</v>
+      </c>
+      <c r="B410">
+        <v>409</v>
+      </c>
+      <c r="C410">
+        <v>12811</v>
+      </c>
+      <c r="D410">
+        <v>362</v>
+      </c>
+      <c r="E410">
+        <v>140</v>
+      </c>
+      <c r="F410">
+        <v>0.02825696667</v>
+      </c>
+      <c r="G410">
+        <v>12238</v>
+      </c>
+      <c r="H410">
+        <v>22872</v>
+      </c>
+      <c r="I410">
+        <v>35683</v>
+      </c>
+      <c r="J410">
+        <v>42</v>
+      </c>
+      <c r="K410">
+        <v>202</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+      <c r="M410">
+        <v>202</v>
+      </c>
+      <c r="N410">
+        <v>42</v>
+      </c>
+      <c r="O410">
+        <v>32</v>
+      </c>
+      <c r="P410">
+        <v>42</v>
+      </c>
+      <c r="Q410">
+        <v>0</v>
+      </c>
+      <c r="R410">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18">
+      <c r="A411" t="s">
+        <v>427</v>
+      </c>
+      <c r="B411">
+        <v>410</v>
+      </c>
+      <c r="C411">
+        <v>12941</v>
+      </c>
+      <c r="D411">
+        <v>362</v>
+      </c>
+      <c r="E411">
+        <v>190</v>
+      </c>
+      <c r="F411">
+        <v>0.02797310872</v>
+      </c>
+      <c r="G411">
+        <v>12349</v>
+      </c>
+      <c r="H411">
+        <v>22872</v>
+      </c>
+      <c r="I411">
+        <v>35813</v>
+      </c>
+      <c r="J411">
+        <v>130</v>
+      </c>
+      <c r="K411">
+        <v>270</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411">
+        <v>269</v>
+      </c>
+      <c r="N411">
+        <v>130</v>
+      </c>
+      <c r="O411">
+        <v>29</v>
+      </c>
+      <c r="P411">
+        <v>44</v>
+      </c>
+      <c r="Q411">
+        <v>0</v>
+      </c>
+      <c r="R411">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="412" spans="1:18">
+      <c r="A412" t="s">
+        <v>428</v>
+      </c>
+      <c r="B412">
+        <v>411</v>
+      </c>
+      <c r="C412">
+        <v>13061</v>
+      </c>
+      <c r="D412">
+        <v>366</v>
+      </c>
+      <c r="E412">
+        <v>236</v>
+      </c>
+      <c r="F412">
+        <v>0.02802235663</v>
+      </c>
+      <c r="G412">
+        <v>12419</v>
+      </c>
+      <c r="H412">
+        <v>22872</v>
+      </c>
+      <c r="I412">
+        <v>35933</v>
+      </c>
+      <c r="J412">
+        <v>120</v>
+      </c>
+      <c r="K412">
+        <v>325</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+      <c r="M412">
+        <v>325</v>
+      </c>
+      <c r="N412">
+        <v>120</v>
+      </c>
+      <c r="O412">
+        <v>40</v>
+      </c>
+      <c r="P412">
+        <v>39</v>
+      </c>
+      <c r="Q412">
+        <v>4</v>
+      </c>
+      <c r="R412">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18">
+      <c r="A413" t="s">
+        <v>429</v>
+      </c>
+      <c r="B413">
+        <v>412</v>
+      </c>
+      <c r="C413">
+        <v>13075</v>
+      </c>
+      <c r="D413">
+        <v>368</v>
+      </c>
+      <c r="E413">
+        <v>219</v>
+      </c>
+      <c r="F413">
+        <v>0.02814531549</v>
+      </c>
+      <c r="G413">
+        <v>12447</v>
+      </c>
+      <c r="H413">
+        <v>22872</v>
+      </c>
+      <c r="I413">
+        <v>35947</v>
+      </c>
+      <c r="J413">
+        <v>14</v>
+      </c>
+      <c r="K413">
+        <v>323</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+      <c r="M413">
+        <v>323</v>
+      </c>
+      <c r="N413">
+        <v>14</v>
+      </c>
+      <c r="O413">
+        <v>46</v>
+      </c>
+      <c r="P413">
+        <v>39</v>
+      </c>
+      <c r="Q413">
+        <v>2</v>
+      </c>
+      <c r="R413">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="414" spans="1:18">
+      <c r="A414" t="s">
+        <v>430</v>
+      </c>
+      <c r="B414">
+        <v>413</v>
+      </c>
+      <c r="C414">
+        <v>13084</v>
+      </c>
+      <c r="D414">
+        <v>368</v>
+      </c>
+      <c r="E414">
+        <v>223</v>
+      </c>
+      <c r="F414">
+        <v>0.02812595537</v>
+      </c>
+      <c r="G414">
+        <v>12452</v>
+      </c>
+      <c r="H414">
+        <v>25700</v>
+      </c>
+      <c r="I414">
+        <v>38784</v>
+      </c>
+      <c r="J414">
+        <v>9</v>
+      </c>
+      <c r="K414">
+        <v>324</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+      <c r="M414">
+        <v>324</v>
+      </c>
+      <c r="N414">
+        <v>2837</v>
+      </c>
+      <c r="O414">
+        <v>46</v>
+      </c>
+      <c r="P414">
+        <v>40</v>
+      </c>
+      <c r="Q414">
+        <v>0</v>
+      </c>
+      <c r="R414">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="415" spans="1:18">
+      <c r="A415" t="s">
+        <v>431</v>
+      </c>
+      <c r="B415">
+        <v>414</v>
+      </c>
+      <c r="C415">
+        <v>13204</v>
+      </c>
+      <c r="D415">
+        <v>369</v>
+      </c>
+      <c r="E415">
+        <v>244</v>
+      </c>
+      <c r="F415">
+        <v>0.02794607695</v>
+      </c>
+      <c r="G415">
+        <v>12550</v>
+      </c>
+      <c r="H415">
+        <v>25700</v>
+      </c>
+      <c r="I415">
+        <v>38904</v>
+      </c>
+      <c r="J415">
+        <v>120</v>
+      </c>
+      <c r="K415">
+        <v>217</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+      <c r="M415">
+        <v>217</v>
+      </c>
+      <c r="N415">
+        <v>120</v>
+      </c>
+      <c r="O415">
+        <v>53</v>
+      </c>
+      <c r="P415">
+        <v>39</v>
+      </c>
+      <c r="Q415">
+        <v>1</v>
+      </c>
+      <c r="R415">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="1:18">
+      <c r="A416" t="s">
+        <v>432</v>
+      </c>
+      <c r="B416">
+        <v>415</v>
+      </c>
+      <c r="C416">
+        <v>13255</v>
+      </c>
+      <c r="D416">
+        <v>371</v>
+      </c>
+      <c r="E416">
+        <v>240</v>
+      </c>
+      <c r="F416">
+        <v>0.02798943795</v>
+      </c>
+      <c r="G416">
+        <v>12602</v>
+      </c>
+      <c r="H416">
+        <v>25700</v>
+      </c>
+      <c r="I416">
+        <v>38955</v>
+      </c>
+      <c r="J416">
+        <v>51</v>
+      </c>
+      <c r="K416">
+        <v>285</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+      <c r="M416">
+        <v>285</v>
+      </c>
+      <c r="N416">
+        <v>51</v>
+      </c>
+      <c r="O416">
+        <v>53</v>
+      </c>
+      <c r="P416">
+        <v>37</v>
+      </c>
+      <c r="Q416">
+        <v>2</v>
+      </c>
+      <c r="R416">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="417" spans="1:18">
+      <c r="A417" t="s">
+        <v>433</v>
+      </c>
+      <c r="B417">
+        <v>416</v>
+      </c>
+      <c r="C417">
+        <v>13379</v>
+      </c>
+      <c r="D417">
+        <v>372</v>
+      </c>
+      <c r="E417">
+        <v>279</v>
+      </c>
+      <c r="F417">
+        <v>0.02780476867</v>
+      </c>
+      <c r="G417">
+        <v>12686</v>
+      </c>
+      <c r="H417">
+        <v>25700</v>
+      </c>
+      <c r="I417">
+        <v>39079</v>
+      </c>
+      <c r="J417">
+        <v>124</v>
+      </c>
+      <c r="K417">
+        <v>342</v>
+      </c>
+      <c r="L417">
+        <v>1</v>
+      </c>
+      <c r="M417">
+        <v>341</v>
+      </c>
+      <c r="N417">
+        <v>124</v>
+      </c>
+      <c r="O417">
+        <v>51</v>
+      </c>
+      <c r="P417">
+        <v>37</v>
+      </c>
+      <c r="Q417">
+        <v>1</v>
+      </c>
+      <c r="R417">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="418" spans="1:18">
+      <c r="A418" t="s">
+        <v>434</v>
+      </c>
+      <c r="B418">
+        <v>417</v>
+      </c>
+      <c r="C418">
+        <v>13544</v>
+      </c>
+      <c r="D418">
+        <v>374</v>
+      </c>
+      <c r="E418">
+        <v>333</v>
+      </c>
+      <c r="F418">
+        <v>0.02761370348</v>
+      </c>
+      <c r="G418">
+        <v>12794</v>
+      </c>
+      <c r="H418">
+        <v>25700</v>
+      </c>
+      <c r="I418">
+        <v>39244</v>
+      </c>
+      <c r="J418">
+        <v>165</v>
+      </c>
+      <c r="K418">
+        <v>433</v>
+      </c>
+      <c r="L418">
+        <v>2</v>
+      </c>
+      <c r="M418">
+        <v>431</v>
+      </c>
+      <c r="N418">
+        <v>165</v>
+      </c>
+      <c r="O418">
+        <v>54</v>
+      </c>
+      <c r="P418">
+        <v>38</v>
+      </c>
+      <c r="Q418">
+        <v>2</v>
+      </c>
+      <c r="R418">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="419" spans="1:18">
+      <c r="A419" t="s">
+        <v>435</v>
+      </c>
+      <c r="B419">
+        <v>418</v>
+      </c>
+      <c r="C419">
+        <v>13668</v>
+      </c>
+      <c r="D419">
+        <v>376</v>
+      </c>
+      <c r="E419">
+        <v>342</v>
+      </c>
+      <c r="F419">
+        <v>0.02750951127</v>
+      </c>
+      <c r="G419">
+        <v>12906</v>
+      </c>
+      <c r="H419">
+        <v>25700</v>
+      </c>
+      <c r="I419">
+        <v>39368</v>
+      </c>
+      <c r="J419">
+        <v>124</v>
+      </c>
+      <c r="K419">
+        <v>420</v>
+      </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+      <c r="M419">
+        <v>419</v>
+      </c>
+      <c r="N419">
+        <v>124</v>
+      </c>
+      <c r="O419">
+        <v>50</v>
+      </c>
+      <c r="P419">
+        <v>41</v>
+      </c>
+      <c r="Q419">
+        <v>2</v>
+      </c>
+      <c r="R419">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18">
+      <c r="A420" t="s">
+        <v>436</v>
+      </c>
+      <c r="B420">
+        <v>419</v>
+      </c>
+      <c r="C420">
+        <v>13753</v>
+      </c>
+      <c r="D420">
+        <v>378</v>
+      </c>
+      <c r="E420">
+        <v>331</v>
+      </c>
+      <c r="F420">
+        <v>0.02748491238</v>
+      </c>
+      <c r="G420">
+        <v>12998</v>
+      </c>
+      <c r="H420">
+        <v>25700</v>
+      </c>
+      <c r="I420">
+        <v>39453</v>
+      </c>
+      <c r="J420">
+        <v>85</v>
+      </c>
+      <c r="K420">
+        <v>281</v>
+      </c>
+      <c r="L420">
+        <v>1</v>
+      </c>
+      <c r="M420">
+        <v>280</v>
+      </c>
+      <c r="N420">
+        <v>85</v>
+      </c>
+      <c r="O420">
+        <v>57</v>
+      </c>
+      <c r="P420">
+        <v>41</v>
+      </c>
+      <c r="Q420">
+        <v>2</v>
+      </c>
+      <c r="R420">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="421" spans="1:18">
+      <c r="A421" t="s">
+        <v>437</v>
+      </c>
+      <c r="B421">
+        <v>420</v>
+      </c>
+      <c r="C421">
+        <v>13758</v>
+      </c>
+      <c r="D421">
+        <v>381</v>
+      </c>
+      <c r="E421">
+        <v>332</v>
+      </c>
+      <c r="F421">
+        <v>0.02769297863</v>
+      </c>
+      <c r="G421">
+        <v>12998</v>
+      </c>
+      <c r="H421">
+        <v>25700</v>
+      </c>
+      <c r="I421">
+        <v>39458</v>
+      </c>
+      <c r="J421">
+        <v>5</v>
+      </c>
+      <c r="K421">
+        <v>285</v>
+      </c>
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>284</v>
+      </c>
+      <c r="N421">
+        <v>5</v>
+      </c>
+      <c r="O421">
+        <v>61</v>
+      </c>
+      <c r="P421">
+        <v>40</v>
+      </c>
+      <c r="Q421">
+        <v>3</v>
+      </c>
+      <c r="R421">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="422" spans="1:18">
+      <c r="A422" t="s">
+        <v>438</v>
+      </c>
+      <c r="B422">
+        <v>421</v>
+      </c>
+      <c r="C422">
+        <v>13820</v>
+      </c>
+      <c r="D422">
+        <v>384</v>
+      </c>
+      <c r="E422">
+        <v>241</v>
+      </c>
+      <c r="F422">
+        <v>0.02778581766</v>
+      </c>
+      <c r="G422">
+        <v>13148</v>
+      </c>
+      <c r="H422">
+        <v>25700</v>
+      </c>
+      <c r="I422">
+        <v>39520</v>
+      </c>
+      <c r="J422">
+        <v>62</v>
+      </c>
+      <c r="K422">
+        <v>307</v>
+      </c>
+      <c r="L422">
+        <v>2</v>
+      </c>
+      <c r="M422">
+        <v>305</v>
+      </c>
+      <c r="N422">
+        <v>62</v>
+      </c>
+      <c r="O422">
+        <v>59</v>
+      </c>
+      <c r="P422">
+        <v>41</v>
+      </c>
+      <c r="Q422">
+        <v>3</v>
+      </c>
+      <c r="R422">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18">
+      <c r="A423" t="s">
+        <v>439</v>
+      </c>
+      <c r="B423">
+        <v>422</v>
+      </c>
+      <c r="C423">
+        <v>13911</v>
+      </c>
+      <c r="D423">
+        <v>385</v>
+      </c>
+      <c r="E423">
+        <v>237</v>
+      </c>
+      <c r="F423">
+        <v>0.0276759399</v>
+      </c>
+      <c r="G423">
+        <v>13242</v>
+      </c>
+      <c r="H423">
+        <v>25700</v>
+      </c>
+      <c r="I423">
+        <v>39611</v>
+      </c>
+      <c r="J423">
+        <v>91</v>
+      </c>
+      <c r="K423">
+        <v>370</v>
+      </c>
+      <c r="L423">
+        <v>3</v>
+      </c>
+      <c r="M423">
+        <v>367</v>
+      </c>
+      <c r="N423">
+        <v>91</v>
+      </c>
+      <c r="O423">
+        <v>63</v>
+      </c>
+      <c r="P423">
+        <v>44</v>
+      </c>
+      <c r="Q423">
+        <v>1</v>
+      </c>
+      <c r="R423">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="424" spans="1:18">
+      <c r="A424" t="s">
+        <v>440</v>
+      </c>
+      <c r="B424">
+        <v>423</v>
+      </c>
+      <c r="C424">
+        <v>13960</v>
+      </c>
+      <c r="D424">
+        <v>388</v>
+      </c>
+      <c r="E424">
+        <v>213</v>
+      </c>
+      <c r="F424">
+        <v>0.02779369628</v>
+      </c>
+      <c r="G424">
+        <v>13312</v>
+      </c>
+      <c r="H424">
+        <v>25700</v>
+      </c>
+      <c r="I424">
+        <v>39660</v>
+      </c>
+      <c r="J424">
+        <v>49</v>
+      </c>
+      <c r="K424">
+        <v>432</v>
+      </c>
+      <c r="L424">
+        <v>3</v>
+      </c>
+      <c r="M424">
+        <v>429</v>
+      </c>
+      <c r="N424">
+        <v>49</v>
+      </c>
+      <c r="O424">
+        <v>56</v>
+      </c>
+      <c r="P424">
+        <v>48</v>
+      </c>
+      <c r="Q424">
+        <v>3</v>
+      </c>
+      <c r="R424">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="425" spans="1:18">
+      <c r="A425" t="s">
+        <v>441</v>
+      </c>
+      <c r="B425">
+        <v>424</v>
+      </c>
+      <c r="C425">
+        <v>14056</v>
+      </c>
+      <c r="D425">
+        <v>390</v>
+      </c>
+      <c r="E425">
+        <v>220</v>
+      </c>
+      <c r="F425">
+        <v>0.02774615822</v>
+      </c>
+      <c r="G425">
+        <v>13399</v>
+      </c>
+      <c r="H425">
+        <v>25700</v>
+      </c>
+      <c r="I425">
+        <v>39756</v>
+      </c>
+      <c r="J425">
+        <v>96</v>
+      </c>
+      <c r="K425">
+        <v>345</v>
+      </c>
+      <c r="L425">
+        <v>3</v>
+      </c>
+      <c r="M425">
+        <v>342</v>
+      </c>
+      <c r="N425">
+        <v>96</v>
+      </c>
+      <c r="O425">
+        <v>54</v>
+      </c>
+      <c r="P425">
+        <v>48</v>
+      </c>
+      <c r="Q425">
+        <v>2</v>
+      </c>
+      <c r="R425">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18">
+      <c r="A426" t="s">
+        <v>442</v>
+      </c>
+      <c r="B426">
+        <v>425</v>
+      </c>
+      <c r="C426">
+        <v>14138</v>
+      </c>
+      <c r="D426">
+        <v>397</v>
+      </c>
+      <c r="E426">
+        <v>198</v>
+      </c>
+      <c r="F426">
+        <v>0.02808035083</v>
+      </c>
+      <c r="G426">
+        <v>13496</v>
+      </c>
+      <c r="H426">
+        <v>25700</v>
+      </c>
+      <c r="I426">
+        <v>39838</v>
+      </c>
+      <c r="J426">
+        <v>82</v>
+      </c>
+      <c r="K426">
+        <v>347</v>
+      </c>
+      <c r="L426">
+        <v>2</v>
+      </c>
+      <c r="M426">
+        <v>345</v>
+      </c>
+      <c r="N426">
+        <v>82</v>
+      </c>
+      <c r="O426">
+        <v>68</v>
+      </c>
+      <c r="P426">
+        <v>45</v>
+      </c>
+      <c r="Q426">
+        <v>7</v>
+      </c>
+      <c r="R426">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18">
+      <c r="A427" t="s">
+        <v>443</v>
+      </c>
+      <c r="B427">
+        <v>426</v>
+      </c>
+      <c r="C427">
+        <v>14196</v>
+      </c>
+      <c r="D427">
+        <v>401</v>
+      </c>
+      <c r="E427">
+        <v>210</v>
+      </c>
+      <c r="F427">
+        <v>0.02824739363</v>
+      </c>
+      <c r="G427">
+        <v>13538</v>
+      </c>
+      <c r="H427">
+        <v>25700</v>
+      </c>
+      <c r="I427">
+        <v>39896</v>
+      </c>
+      <c r="J427">
+        <v>58</v>
+      </c>
+      <c r="K427">
+        <v>291</v>
+      </c>
+      <c r="L427">
+        <v>2</v>
+      </c>
+      <c r="M427">
+        <v>289</v>
+      </c>
+      <c r="N427">
+        <v>58</v>
+      </c>
+      <c r="O427">
+        <v>65</v>
+      </c>
+      <c r="P427">
+        <v>44</v>
+      </c>
+      <c r="Q427">
+        <v>4</v>
+      </c>
+      <c r="R427">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18">
+      <c r="A428" t="s">
+        <v>444</v>
+      </c>
+      <c r="B428">
+        <v>427</v>
+      </c>
+      <c r="C428">
+        <v>14199</v>
+      </c>
+      <c r="D428">
+        <v>404</v>
+      </c>
+      <c r="E428">
+        <v>208</v>
+      </c>
+      <c r="F428">
+        <v>0.02845270794</v>
+      </c>
+      <c r="G428">
+        <v>13540</v>
+      </c>
+      <c r="H428">
+        <v>25700</v>
+      </c>
+      <c r="I428">
+        <v>39899</v>
+      </c>
+      <c r="J428">
+        <v>3</v>
+      </c>
+      <c r="K428">
+        <v>293</v>
+      </c>
+      <c r="L428">
+        <v>2</v>
+      </c>
+      <c r="M428">
+        <v>291</v>
+      </c>
+      <c r="N428">
+        <v>3</v>
+      </c>
+      <c r="O428">
+        <v>66</v>
+      </c>
+      <c r="P428">
+        <v>43</v>
+      </c>
+      <c r="Q428">
+        <v>3</v>
+      </c>
+      <c r="R428">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="429" spans="1:18">
+      <c r="A429" t="s">
+        <v>445</v>
+      </c>
+      <c r="B429">
+        <v>428</v>
+      </c>
+      <c r="C429">
+        <v>14227</v>
+      </c>
+      <c r="D429">
+        <v>407</v>
+      </c>
+      <c r="E429">
+        <v>158</v>
+      </c>
+      <c r="F429">
+        <v>0.02860757714</v>
+      </c>
+      <c r="G429">
+        <v>13615</v>
+      </c>
+      <c r="H429">
+        <v>25700</v>
+      </c>
+      <c r="I429">
+        <v>39927</v>
+      </c>
+      <c r="J429">
+        <v>28</v>
+      </c>
+      <c r="K429">
+        <v>430</v>
+      </c>
+      <c r="L429">
+        <v>4</v>
+      </c>
+      <c r="M429">
+        <v>426</v>
+      </c>
+      <c r="N429">
+        <v>28</v>
+      </c>
+      <c r="O429">
+        <v>58</v>
+      </c>
+      <c r="P429">
+        <v>46</v>
+      </c>
+      <c r="Q429">
+        <v>3</v>
+      </c>
+      <c r="R429">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="430" spans="1:18">
+      <c r="A430" t="s">
+        <v>446</v>
+      </c>
+      <c r="B430">
+        <v>429</v>
+      </c>
+      <c r="C430">
+        <v>14378</v>
+      </c>
+      <c r="D430">
+        <v>410</v>
+      </c>
+      <c r="E430">
+        <v>180</v>
+      </c>
+      <c r="F430">
+        <v>0.02851578801</v>
+      </c>
+      <c r="G430">
+        <v>13740</v>
+      </c>
+      <c r="H430">
+        <v>25700</v>
+      </c>
+      <c r="I430">
+        <v>40078</v>
+      </c>
+      <c r="J430">
+        <v>151</v>
+      </c>
+      <c r="K430">
+        <v>324</v>
+      </c>
+      <c r="L430">
+        <v>4</v>
+      </c>
+      <c r="M430">
+        <v>320</v>
+      </c>
+      <c r="N430">
+        <v>151</v>
+      </c>
+      <c r="O430">
+        <v>65</v>
+      </c>
+      <c r="P430">
+        <v>45</v>
+      </c>
+      <c r="Q430">
+        <v>3</v>
+      </c>
+      <c r="R430">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="431" spans="1:18">
+      <c r="A431" t="s">
+        <v>447</v>
+      </c>
+      <c r="B431">
+        <v>430</v>
+      </c>
+      <c r="C431">
+        <v>14550</v>
+      </c>
+      <c r="D431">
+        <v>415</v>
+      </c>
+      <c r="E431">
+        <v>185</v>
+      </c>
+      <c r="F431">
+        <v>0.02852233677</v>
+      </c>
+      <c r="G431">
+        <v>13902</v>
+      </c>
+      <c r="H431">
+        <v>25700</v>
+      </c>
+      <c r="I431">
+        <v>40250</v>
+      </c>
+      <c r="J431">
+        <v>172</v>
+      </c>
+      <c r="K431">
+        <v>526</v>
+      </c>
+      <c r="L431">
+        <v>4</v>
+      </c>
+      <c r="M431">
+        <v>522</v>
+      </c>
+      <c r="N431">
+        <v>172</v>
+      </c>
+      <c r="O431">
+        <v>56</v>
+      </c>
+      <c r="P431">
+        <v>56</v>
+      </c>
+      <c r="Q431">
+        <v>5</v>
+      </c>
+      <c r="R431">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="432" spans="1:18">
+      <c r="A432" t="s">
+        <v>448</v>
+      </c>
+      <c r="B432">
+        <v>431</v>
+      </c>
+      <c r="C432">
+        <v>14634</v>
+      </c>
+      <c r="D432">
+        <v>416</v>
+      </c>
+      <c r="E432">
+        <v>197</v>
+      </c>
+      <c r="F432">
+        <v>0.02842695094</v>
+      </c>
+      <c r="G432">
+        <v>13971</v>
+      </c>
+      <c r="H432">
+        <v>25700</v>
+      </c>
+      <c r="I432">
+        <v>40334</v>
+      </c>
+      <c r="J432">
+        <v>84</v>
+      </c>
+      <c r="K432">
+        <v>571</v>
+      </c>
+      <c r="L432">
+        <v>4</v>
+      </c>
+      <c r="M432">
+        <v>567</v>
+      </c>
+      <c r="N432">
+        <v>84</v>
+      </c>
+      <c r="O432">
+        <v>57</v>
+      </c>
+      <c r="P432">
+        <v>58</v>
+      </c>
+      <c r="Q432">
+        <v>1</v>
+      </c>
+      <c r="R432">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="433" spans="1:18">
+      <c r="A433" t="s">
+        <v>449</v>
+      </c>
+      <c r="B433">
+        <v>432</v>
+      </c>
+      <c r="C433">
+        <v>14714</v>
+      </c>
+      <c r="D433">
+        <v>419</v>
+      </c>
+      <c r="E433">
+        <v>188</v>
+      </c>
+      <c r="F433">
+        <v>0.02847628109</v>
+      </c>
+      <c r="G433">
+        <v>14057</v>
+      </c>
+      <c r="H433">
+        <v>25700</v>
+      </c>
+      <c r="I433">
+        <v>40414</v>
+      </c>
+      <c r="J433">
+        <v>80</v>
+      </c>
+      <c r="K433">
+        <v>660</v>
+      </c>
+      <c r="L433">
+        <v>4</v>
+      </c>
+      <c r="M433">
+        <v>656</v>
+      </c>
+      <c r="N433">
+        <v>80</v>
+      </c>
+      <c r="O433">
+        <v>65</v>
+      </c>
+      <c r="P433">
+        <v>58</v>
+      </c>
+      <c r="Q433">
+        <v>3</v>
+      </c>
+      <c r="R433">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18">
+      <c r="A434" t="s">
+        <v>450</v>
+      </c>
+      <c r="B434">
+        <v>433</v>
+      </c>
+      <c r="C434">
+        <v>14755</v>
+      </c>
+      <c r="D434">
+        <v>420</v>
+      </c>
+      <c r="E434">
+        <v>220</v>
+      </c>
+      <c r="F434">
+        <v>0.02846492714</v>
+      </c>
+      <c r="G434">
+        <v>14065</v>
+      </c>
+      <c r="H434">
+        <v>25700</v>
+      </c>
+      <c r="I434">
+        <v>40455</v>
+      </c>
+      <c r="J434">
+        <v>41</v>
+      </c>
+      <c r="K434">
+        <v>633</v>
+      </c>
+      <c r="L434">
+        <v>4</v>
+      </c>
+      <c r="M434">
+        <v>629</v>
+      </c>
+      <c r="N434">
+        <v>41</v>
+      </c>
+      <c r="O434">
+        <v>67</v>
+      </c>
+      <c r="P434">
+        <v>61</v>
+      </c>
+      <c r="Q434">
+        <v>1</v>
+      </c>
+      <c r="R434">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="435" spans="1:18">
+      <c r="A435" t="s">
+        <v>451</v>
+      </c>
+      <c r="B435">
+        <v>434</v>
+      </c>
+      <c r="C435">
+        <v>14759</v>
+      </c>
+      <c r="D435">
+        <v>422</v>
+      </c>
+      <c r="E435">
+        <v>179</v>
+      </c>
+      <c r="F435">
+        <v>0.02859272308</v>
+      </c>
+      <c r="G435">
+        <v>14108</v>
+      </c>
+      <c r="H435">
+        <v>25700</v>
+      </c>
+      <c r="I435">
+        <v>40459</v>
+      </c>
+      <c r="J435">
+        <v>4</v>
+      </c>
+      <c r="K435">
+        <v>631</v>
+      </c>
+      <c r="L435">
+        <v>4</v>
+      </c>
+      <c r="M435">
+        <v>627</v>
+      </c>
+      <c r="N435">
+        <v>4</v>
+      </c>
+      <c r="O435">
+        <v>61</v>
+      </c>
+      <c r="P435">
+        <v>61</v>
+      </c>
+      <c r="Q435">
+        <v>2</v>
+      </c>
+      <c r="R435">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="436" spans="1:18">
+      <c r="A436" t="s">
+        <v>452</v>
+      </c>
+      <c r="B436">
+        <v>435</v>
+      </c>
+      <c r="C436">
+        <v>14801</v>
+      </c>
+      <c r="D436">
+        <v>429</v>
+      </c>
+      <c r="E436">
+        <v>128</v>
+      </c>
+      <c r="F436">
+        <v>0.02898452807</v>
+      </c>
+      <c r="G436">
+        <v>14192</v>
+      </c>
+      <c r="H436">
+        <v>25700</v>
+      </c>
+      <c r="I436">
+        <v>40501</v>
+      </c>
+      <c r="J436">
+        <v>42</v>
+      </c>
+      <c r="K436">
+        <v>717</v>
+      </c>
+      <c r="L436">
+        <v>2</v>
+      </c>
+      <c r="M436">
+        <v>715</v>
+      </c>
+      <c r="N436">
+        <v>42</v>
+      </c>
+      <c r="O436">
+        <v>68</v>
+      </c>
+      <c r="P436">
+        <v>59</v>
+      </c>
+      <c r="Q436">
+        <v>7</v>
+      </c>
+      <c r="R436">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18">
+      <c r="A437" t="s">
+        <v>453</v>
+      </c>
+      <c r="B437">
+        <v>436</v>
+      </c>
+      <c r="C437">
+        <v>14939</v>
+      </c>
+      <c r="D437">
+        <v>432</v>
+      </c>
+      <c r="E437">
+        <v>150</v>
+      </c>
+      <c r="F437">
+        <v>0.02891759823</v>
+      </c>
+      <c r="G437">
+        <v>14305</v>
+      </c>
+      <c r="H437">
+        <v>25700</v>
+      </c>
+      <c r="I437">
+        <v>40639</v>
+      </c>
+      <c r="J437">
+        <v>138</v>
+      </c>
+      <c r="K437">
+        <v>570</v>
+      </c>
+      <c r="L437">
+        <v>2</v>
+      </c>
+      <c r="M437">
+        <v>568</v>
+      </c>
+      <c r="N437">
+        <v>138</v>
+      </c>
+      <c r="O437">
+        <v>61</v>
+      </c>
+      <c r="P437">
+        <v>60</v>
+      </c>
+      <c r="Q437">
+        <v>3</v>
+      </c>
+      <c r="R437">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="438" spans="1:18">
+      <c r="A438" t="s">
+        <v>454</v>
+      </c>
+      <c r="B438">
+        <v>437</v>
+      </c>
+      <c r="C438">
+        <v>15126</v>
+      </c>
+      <c r="D438">
+        <v>435</v>
+      </c>
+      <c r="E438">
+        <v>160</v>
+      </c>
+      <c r="F438">
+        <v>0.02875842919</v>
+      </c>
+      <c r="G438">
+        <v>14479</v>
+      </c>
+      <c r="H438">
+        <v>25700</v>
+      </c>
+      <c r="I438">
+        <v>40826</v>
+      </c>
+      <c r="J438">
+        <v>187</v>
+      </c>
+      <c r="K438">
+        <v>525</v>
+      </c>
+      <c r="L438">
+        <v>2</v>
+      </c>
+      <c r="M438">
+        <v>523</v>
+      </c>
+      <c r="N438">
+        <v>187</v>
+      </c>
+      <c r="O438">
+        <v>67</v>
+      </c>
+      <c r="P438">
+        <v>56</v>
+      </c>
+      <c r="Q438">
+        <v>3</v>
+      </c>
+      <c r="R438">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="439" spans="1:18">
+      <c r="A439" t="s">
+        <v>455</v>
+      </c>
+      <c r="B439">
+        <v>438</v>
+      </c>
+      <c r="C439">
+        <v>15285</v>
+      </c>
+      <c r="D439">
+        <v>439</v>
+      </c>
+      <c r="E439">
+        <v>189</v>
+      </c>
+      <c r="F439">
+        <v>0.02872096827</v>
+      </c>
+      <c r="G439">
+        <v>14604</v>
+      </c>
+      <c r="H439">
+        <v>25700</v>
+      </c>
+      <c r="I439">
+        <v>40985</v>
+      </c>
+      <c r="J439">
+        <v>159</v>
+      </c>
+      <c r="K439">
+        <v>589</v>
+      </c>
+      <c r="L439">
+        <v>1</v>
+      </c>
+      <c r="M439">
+        <v>588</v>
+      </c>
+      <c r="N439">
+        <v>159</v>
+      </c>
+      <c r="O439">
+        <v>75</v>
+      </c>
+      <c r="P439">
+        <v>57</v>
+      </c>
+      <c r="Q439">
+        <v>4</v>
+      </c>
+      <c r="R439">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18">
+      <c r="A440" t="s">
+        <v>456</v>
+      </c>
+      <c r="B440">
+        <v>439</v>
+      </c>
+      <c r="C440">
+        <v>15465</v>
+      </c>
+      <c r="D440">
+        <v>442</v>
+      </c>
+      <c r="E440">
+        <v>205</v>
+      </c>
+      <c r="F440">
+        <v>0.02858066602</v>
+      </c>
+      <c r="G440">
+        <v>14765</v>
+      </c>
+      <c r="H440">
+        <v>25700</v>
+      </c>
+      <c r="I440">
+        <v>41165</v>
+      </c>
+      <c r="J440">
+        <v>180</v>
+      </c>
+      <c r="K440">
+        <v>674</v>
+      </c>
+      <c r="L440">
+        <v>2</v>
+      </c>
+      <c r="M440">
+        <v>672</v>
+      </c>
+      <c r="N440">
+        <v>180</v>
+      </c>
+      <c r="O440">
+        <v>71</v>
+      </c>
+      <c r="P440">
+        <v>58</v>
+      </c>
+      <c r="Q440">
+        <v>3</v>
+      </c>
+      <c r="R440">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="441" spans="1:18">
+      <c r="A441" t="s">
+        <v>457</v>
+      </c>
+      <c r="B441">
+        <v>440</v>
+      </c>
+      <c r="C441">
+        <v>15546</v>
+      </c>
+      <c r="D441">
+        <v>443</v>
+      </c>
+      <c r="E441">
+        <v>181</v>
+      </c>
+      <c r="F441">
+        <v>0.02849607616</v>
+      </c>
+      <c r="G441">
+        <v>14869</v>
+      </c>
+      <c r="H441">
+        <v>25700</v>
+      </c>
+      <c r="I441">
+        <v>41246</v>
+      </c>
+      <c r="J441">
+        <v>81</v>
+      </c>
+      <c r="K441">
+        <v>610</v>
+      </c>
+      <c r="L441">
+        <v>2</v>
+      </c>
+      <c r="M441">
+        <v>608</v>
+      </c>
+      <c r="N441">
+        <v>81</v>
+      </c>
+      <c r="O441">
+        <v>71</v>
+      </c>
+      <c r="P441">
+        <v>58</v>
+      </c>
+      <c r="Q441">
+        <v>1</v>
+      </c>
+      <c r="R441">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="442" spans="1:18">
+      <c r="A442" t="s">
+        <v>458</v>
+      </c>
+      <c r="B442">
+        <v>441</v>
+      </c>
+      <c r="C442">
+        <v>15554</v>
+      </c>
+      <c r="D442">
+        <v>449</v>
+      </c>
+      <c r="E442">
+        <v>181</v>
+      </c>
+      <c r="F442">
+        <v>0.02886717243</v>
+      </c>
+      <c r="G442">
+        <v>14871</v>
+      </c>
+      <c r="H442">
+        <v>25700</v>
+      </c>
+      <c r="I442">
+        <v>41254</v>
+      </c>
+      <c r="J442">
+        <v>8</v>
+      </c>
+      <c r="K442">
+        <v>611</v>
+      </c>
+      <c r="L442">
+        <v>2</v>
+      </c>
+      <c r="M442">
+        <v>609</v>
+      </c>
+      <c r="N442">
+        <v>8</v>
+      </c>
+      <c r="O442">
+        <v>70</v>
+      </c>
+      <c r="P442">
+        <v>54</v>
+      </c>
+      <c r="Q442">
+        <v>6</v>
+      </c>
+      <c r="R442">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="443" spans="1:18">
+      <c r="A443" t="s">
+        <v>459</v>
+      </c>
+      <c r="B443">
+        <v>442</v>
+      </c>
+      <c r="C443">
+        <v>15730</v>
+      </c>
+      <c r="D443">
+        <v>452</v>
+      </c>
+      <c r="E443">
+        <v>226</v>
+      </c>
+      <c r="F443">
+        <v>0.02873490146</v>
+      </c>
+      <c r="G443">
+        <v>14999</v>
+      </c>
+      <c r="H443">
+        <v>27040</v>
+      </c>
+      <c r="I443">
+        <v>42770</v>
+      </c>
+      <c r="J443">
+        <v>176</v>
+      </c>
+      <c r="K443">
+        <v>528</v>
+      </c>
+      <c r="L443">
+        <v>4</v>
+      </c>
+      <c r="M443">
+        <v>524</v>
+      </c>
+      <c r="N443">
+        <v>1516</v>
+      </c>
+      <c r="O443">
+        <v>68</v>
+      </c>
+      <c r="P443">
+        <v>58</v>
+      </c>
+      <c r="Q443">
+        <v>3</v>
+      </c>
+      <c r="R443">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="444" spans="1:18">
+      <c r="A444" t="s">
+        <v>460</v>
+      </c>
+      <c r="B444">
+        <v>443</v>
+      </c>
+      <c r="C444">
+        <v>15941</v>
+      </c>
+      <c r="D444">
+        <v>458</v>
+      </c>
+      <c r="E444">
+        <v>226</v>
+      </c>
+      <c r="F444">
+        <v>0.02873094536</v>
+      </c>
+      <c r="G444">
+        <v>15204</v>
+      </c>
+      <c r="H444">
+        <v>27040</v>
+      </c>
+      <c r="I444">
+        <v>42981</v>
+      </c>
+      <c r="J444">
+        <v>211</v>
+      </c>
+      <c r="K444">
+        <v>601</v>
+      </c>
+      <c r="L444">
+        <v>3</v>
+      </c>
+      <c r="M444">
+        <v>598</v>
+      </c>
+      <c r="N444">
+        <v>211</v>
+      </c>
+      <c r="O444">
+        <v>70</v>
+      </c>
+      <c r="P444">
+        <v>58</v>
+      </c>
+      <c r="Q444">
+        <v>6</v>
+      </c>
+      <c r="R444">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="445" spans="1:18">
+      <c r="A445" t="s">
+        <v>461</v>
+      </c>
+      <c r="B445">
+        <v>444</v>
+      </c>
+      <c r="C445">
+        <v>16176</v>
+      </c>
+      <c r="D445">
+        <v>466</v>
+      </c>
+      <c r="E445">
+        <v>194</v>
+      </c>
+      <c r="F445">
+        <v>0.02880811078</v>
+      </c>
+      <c r="G445">
+        <v>15463</v>
+      </c>
+      <c r="H445">
+        <v>27040</v>
+      </c>
+      <c r="I445">
+        <v>43216</v>
+      </c>
+      <c r="J445">
+        <v>235</v>
+      </c>
+      <c r="K445">
+        <v>711</v>
+      </c>
+      <c r="L445">
+        <v>3</v>
+      </c>
+      <c r="M445">
+        <v>708</v>
+      </c>
+      <c r="N445">
+        <v>235</v>
+      </c>
+      <c r="O445">
+        <v>72</v>
+      </c>
+      <c r="P445">
+        <v>60</v>
+      </c>
+      <c r="Q445">
+        <v>8</v>
+      </c>
+      <c r="R445">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="446" spans="1:18">
+      <c r="A446" t="s">
+        <v>462</v>
+      </c>
+      <c r="B446">
+        <v>445</v>
+      </c>
+      <c r="C446">
+        <v>16379</v>
+      </c>
+      <c r="D446">
+        <v>469</v>
+      </c>
+      <c r="E446">
+        <v>228</v>
+      </c>
+      <c r="F446">
+        <v>0.02863422675</v>
+      </c>
+      <c r="G446">
+        <v>15269</v>
+      </c>
+      <c r="H446">
+        <v>27040</v>
+      </c>
+      <c r="I446">
+        <v>43419</v>
+      </c>
+      <c r="J446">
+        <v>203</v>
+      </c>
+      <c r="K446">
+        <v>859</v>
+      </c>
+      <c r="L446">
+        <v>2</v>
+      </c>
+      <c r="M446">
+        <v>857</v>
+      </c>
+      <c r="N446">
+        <v>203</v>
+      </c>
+      <c r="O446">
+        <v>62</v>
+      </c>
+      <c r="P446">
+        <v>59</v>
+      </c>
+      <c r="Q446">
+        <v>3</v>
+      </c>
+      <c r="R446">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="447" spans="1:18">
+      <c r="A447" t="s">
+        <v>463</v>
+      </c>
+      <c r="B447">
+        <v>446</v>
+      </c>
+      <c r="C447">
+        <v>16571</v>
+      </c>
+      <c r="D447">
+        <v>472</v>
+      </c>
+      <c r="E447">
+        <v>225</v>
+      </c>
+      <c r="F447">
+        <v>0.02848349526</v>
+      </c>
+      <c r="G447">
+        <v>15801</v>
+      </c>
+      <c r="H447">
+        <v>27040</v>
+      </c>
+      <c r="I447">
+        <v>43611</v>
+      </c>
+      <c r="J447">
+        <v>192</v>
+      </c>
+      <c r="K447">
+        <v>721</v>
+      </c>
+      <c r="L447">
+        <v>2</v>
+      </c>
+      <c r="M447">
+        <v>719</v>
+      </c>
+      <c r="N447">
+        <v>192</v>
+      </c>
+      <c r="O447">
+        <v>65</v>
+      </c>
+      <c r="P447">
+        <v>61</v>
+      </c>
+      <c r="Q447">
+        <v>3</v>
+      </c>
+      <c r="R447">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="448" spans="1:18">
+      <c r="A448" t="s">
+        <v>464</v>
+      </c>
+      <c r="B448">
+        <v>447</v>
+      </c>
+      <c r="C448">
+        <v>16635</v>
+      </c>
+      <c r="D448">
+        <v>479</v>
+      </c>
+      <c r="E448">
+        <v>197</v>
+      </c>
+      <c r="F448">
+        <v>0.02879470995</v>
+      </c>
+      <c r="G448">
+        <v>15906</v>
+      </c>
+      <c r="H448">
+        <v>27040</v>
+      </c>
+      <c r="I448">
+        <v>43675</v>
+      </c>
+      <c r="J448">
+        <v>64</v>
+      </c>
+      <c r="K448">
+        <v>717</v>
+      </c>
+      <c r="L448">
+        <v>1</v>
+      </c>
+      <c r="M448">
+        <v>716</v>
+      </c>
+      <c r="N448">
+        <v>64</v>
+      </c>
+      <c r="O448">
+        <v>65</v>
+      </c>
+      <c r="P448">
+        <v>63</v>
+      </c>
+      <c r="Q448">
+        <v>7</v>
+      </c>
+      <c r="R448">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="449" spans="1:18">
+      <c r="A449" t="s">
+        <v>465</v>
+      </c>
+      <c r="B449">
+        <v>448</v>
+      </c>
+      <c r="C449">
+        <v>16637</v>
+      </c>
+      <c r="D449">
+        <v>480</v>
+      </c>
+      <c r="E449">
+        <v>196</v>
+      </c>
+      <c r="F449">
+        <v>0.9561820040000001</v>
+      </c>
+      <c r="G449">
+        <v>15908</v>
+      </c>
+      <c r="H449">
+        <v>27040</v>
+      </c>
+      <c r="I449">
+        <v>43677</v>
+      </c>
+      <c r="J449">
+        <v>2</v>
+      </c>
+      <c r="K449">
+        <v>718</v>
+      </c>
+      <c r="L449">
+        <v>1</v>
+      </c>
+      <c r="M449">
+        <v>717</v>
+      </c>
+      <c r="N449">
+        <v>2</v>
+      </c>
+      <c r="O449">
+        <v>66</v>
+      </c>
+      <c r="P449">
+        <v>63</v>
+      </c>
+      <c r="Q449">
+        <v>1</v>
+      </c>
+      <c r="R449">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="450" spans="1:18">
+      <c r="A450" t="s">
+        <v>466</v>
+      </c>
+      <c r="B450">
+        <v>449</v>
+      </c>
+      <c r="C450">
+        <v>16788</v>
+      </c>
+      <c r="D450">
+        <v>482</v>
+      </c>
+      <c r="E450">
+        <v>169</v>
+      </c>
+      <c r="F450">
+        <v>0.02871098403999999</v>
+      </c>
+      <c r="G450">
+        <v>16084</v>
+      </c>
+      <c r="H450">
+        <v>27040</v>
+      </c>
+      <c r="I450">
+        <v>43828</v>
+      </c>
+      <c r="J450">
+        <v>151</v>
+      </c>
+      <c r="K450">
+        <v>683</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+      <c r="M450">
+        <v>682</v>
+      </c>
+      <c r="N450">
+        <v>151</v>
+      </c>
+      <c r="O450">
+        <v>65</v>
+      </c>
+      <c r="P450">
+        <v>64</v>
+      </c>
+      <c r="Q450">
+        <v>2</v>
+      </c>
+      <c r="R450">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18">
+      <c r="A451" t="s">
+        <v>467</v>
+      </c>
+      <c r="B451">
+        <v>450</v>
+      </c>
+      <c r="C451">
+        <v>16950</v>
+      </c>
+      <c r="D451">
+        <v>483</v>
+      </c>
+      <c r="E451">
+        <v>167</v>
+      </c>
+      <c r="F451">
+        <v>0.02849557522</v>
+      </c>
+      <c r="G451">
+        <v>16247</v>
+      </c>
+      <c r="H451">
+        <v>27040</v>
+      </c>
+      <c r="I451">
+        <v>43990</v>
+      </c>
+      <c r="J451">
+        <v>162</v>
+      </c>
+      <c r="K451">
+        <v>751</v>
+      </c>
+      <c r="L451">
+        <v>1</v>
+      </c>
+      <c r="M451">
+        <v>750</v>
+      </c>
+      <c r="N451">
+        <v>162</v>
+      </c>
+      <c r="O451">
+        <v>60</v>
+      </c>
+      <c r="P451">
+        <v>65</v>
+      </c>
+      <c r="Q451">
+        <v>1</v>
+      </c>
+      <c r="R451">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="452" spans="1:18">
+      <c r="A452" t="s">
+        <v>468</v>
+      </c>
+      <c r="B452">
+        <v>451</v>
+      </c>
+      <c r="C452">
+        <v>17095</v>
+      </c>
+      <c r="D452">
+        <v>489</v>
+      </c>
+      <c r="E452">
+        <v>193</v>
+      </c>
+      <c r="F452">
+        <v>0.02860485522</v>
+      </c>
+      <c r="G452">
+        <v>16360</v>
+      </c>
+      <c r="H452">
+        <v>27040</v>
+      </c>
+      <c r="I452">
+        <v>44135</v>
+      </c>
+      <c r="J452">
+        <v>145</v>
+      </c>
+      <c r="K452">
+        <v>773</v>
+      </c>
+      <c r="L452">
+        <v>1</v>
+      </c>
+      <c r="M452">
+        <v>772</v>
+      </c>
+      <c r="N452">
+        <v>145</v>
+      </c>
+      <c r="O452">
+        <v>57</v>
+      </c>
+      <c r="P452">
+        <v>63</v>
+      </c>
+      <c r="Q452">
+        <v>6</v>
+      </c>
+      <c r="R452">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="453" spans="1:18">
+      <c r="A453" t="s">
+        <v>469</v>
+      </c>
+      <c r="B453">
+        <v>452</v>
+      </c>
+      <c r="C453">
+        <v>17232</v>
+      </c>
+      <c r="D453">
+        <v>491</v>
+      </c>
+      <c r="E453">
+        <v>244</v>
+      </c>
+      <c r="F453">
+        <v>0.02849350046</v>
+      </c>
+      <c r="G453">
+        <v>16444</v>
+      </c>
+      <c r="H453">
+        <v>27040</v>
+      </c>
+      <c r="I453">
+        <v>44272</v>
+      </c>
+      <c r="J453">
+        <v>137</v>
+      </c>
+      <c r="K453">
+        <v>799</v>
+      </c>
+      <c r="L453">
+        <v>1</v>
+      </c>
+      <c r="M453">
+        <v>798</v>
+      </c>
+      <c r="N453">
+        <v>137</v>
+      </c>
+      <c r="O453">
+        <v>58</v>
+      </c>
+      <c r="P453">
+        <v>63</v>
+      </c>
+      <c r="Q453">
+        <v>2</v>
+      </c>
+      <c r="R453">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="454" spans="1:18">
+      <c r="A454" t="s">
+        <v>470</v>
+      </c>
+      <c r="B454">
+        <v>453</v>
+      </c>
+      <c r="C454">
+        <v>17406</v>
+      </c>
+      <c r="D454">
+        <v>496</v>
+      </c>
+      <c r="E454">
+        <v>276</v>
+      </c>
+      <c r="F454">
+        <v>0.02849592095</v>
+      </c>
+      <c r="G454">
+        <v>16581</v>
+      </c>
+      <c r="H454">
+        <v>27040</v>
+      </c>
+      <c r="I454">
+        <v>44446</v>
+      </c>
+      <c r="J454">
+        <v>174</v>
+      </c>
+      <c r="K454">
+        <v>791</v>
+      </c>
+      <c r="L454">
+        <v>1</v>
+      </c>
+      <c r="M454">
+        <v>790</v>
+      </c>
+      <c r="N454">
+        <v>174</v>
+      </c>
+      <c r="O454">
+        <v>55</v>
+      </c>
+      <c r="P454">
+        <v>62</v>
+      </c>
+      <c r="Q454">
+        <v>5</v>
+      </c>
+      <c r="R454">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="455" spans="1:18">
+      <c r="A455" t="s">
+        <v>471</v>
+      </c>
+      <c r="B455">
+        <v>454</v>
+      </c>
+      <c r="C455">
+        <v>17478</v>
+      </c>
+      <c r="D455">
+        <v>496</v>
+      </c>
+      <c r="E455">
+        <v>202</v>
+      </c>
+      <c r="F455">
+        <v>0.02837853301000001</v>
+      </c>
+      <c r="G455">
+        <v>16727</v>
+      </c>
+      <c r="H455">
+        <v>27040</v>
+      </c>
+      <c r="I455">
+        <v>44518</v>
+      </c>
+      <c r="J455">
+        <v>72</v>
+      </c>
+      <c r="K455">
+        <v>585</v>
+      </c>
+      <c r="L455">
+        <v>1</v>
+      </c>
+      <c r="M455">
+        <v>584</v>
+      </c>
+      <c r="N455">
+        <v>72</v>
+      </c>
+      <c r="O455">
+        <v>52</v>
+      </c>
+      <c r="P455">
+        <v>60</v>
+      </c>
+      <c r="Q455">
+        <v>0</v>
+      </c>
+      <c r="R455">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="456" spans="1:18">
+      <c r="A456" t="s">
+        <v>472</v>
+      </c>
+      <c r="B456">
+        <v>455</v>
+      </c>
+      <c r="C456">
+        <v>17493</v>
+      </c>
+      <c r="D456">
+        <v>497</v>
+      </c>
+      <c r="E456">
+        <v>197</v>
+      </c>
+      <c r="F456">
+        <v>0.02841136455</v>
+      </c>
+      <c r="G456">
+        <v>16746</v>
+      </c>
+      <c r="H456">
+        <v>27040</v>
+      </c>
+      <c r="I456">
+        <v>44533</v>
+      </c>
+      <c r="J456">
+        <v>15</v>
+      </c>
+      <c r="K456">
+        <v>572</v>
+      </c>
+      <c r="L456">
+        <v>1</v>
+      </c>
+      <c r="M456">
+        <v>571</v>
+      </c>
+      <c r="N456">
+        <v>15</v>
+      </c>
+      <c r="O456">
+        <v>51</v>
+      </c>
+      <c r="P456">
+        <v>60</v>
+      </c>
+      <c r="Q456">
+        <v>1</v>
+      </c>
+      <c r="R456">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="457" spans="1:18">
+      <c r="A457" t="s">
+        <v>473</v>
+      </c>
+      <c r="B457">
+        <v>456</v>
+      </c>
+      <c r="C457">
+        <v>17646</v>
+      </c>
+      <c r="D457">
+        <v>506</v>
+      </c>
+      <c r="E457">
+        <v>190</v>
+      </c>
+      <c r="F457">
+        <v>0.02867505384</v>
+      </c>
+      <c r="G457">
+        <v>16897</v>
+      </c>
+      <c r="H457">
+        <v>27040</v>
+      </c>
+      <c r="I457">
+        <v>44686</v>
+      </c>
+      <c r="J457">
+        <v>153</v>
+      </c>
+      <c r="K457">
+        <v>565</v>
+      </c>
+      <c r="L457">
+        <v>2</v>
+      </c>
+      <c r="M457">
+        <v>563</v>
+      </c>
+      <c r="N457">
+        <v>153</v>
+      </c>
+      <c r="O457">
+        <v>42</v>
+      </c>
+      <c r="P457">
+        <v>60</v>
+      </c>
+      <c r="Q457">
+        <v>9</v>
+      </c>
+      <c r="R457">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="458" spans="1:18">
+      <c r="A458" t="s">
+        <v>474</v>
+      </c>
+      <c r="B458">
+        <v>457</v>
+      </c>
+      <c r="C458">
+        <v>17775</v>
+      </c>
+      <c r="D458">
+        <v>509</v>
+      </c>
+      <c r="E458">
+        <v>184</v>
+      </c>
+      <c r="F458">
+        <v>0.02863572433</v>
+      </c>
+      <c r="G458">
+        <v>17029</v>
+      </c>
+      <c r="H458">
+        <v>27040</v>
+      </c>
+      <c r="I458">
+        <v>44815</v>
+      </c>
+      <c r="J458">
+        <v>129</v>
+      </c>
+      <c r="K458">
+        <v>529</v>
+      </c>
+      <c r="L458">
+        <v>4</v>
+      </c>
+      <c r="M458">
+        <v>525</v>
+      </c>
+      <c r="N458">
+        <v>129</v>
+      </c>
+      <c r="O458">
+        <v>49</v>
+      </c>
+      <c r="P458">
+        <v>58</v>
+      </c>
+      <c r="Q458">
+        <v>3</v>
+      </c>
+      <c r="R458">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="459" spans="1:18">
+      <c r="A459" t="s">
+        <v>475</v>
+      </c>
+      <c r="B459">
+        <v>459</v>
+      </c>
+      <c r="C459">
+        <v>17892</v>
+      </c>
+      <c r="D459">
+        <v>509</v>
+      </c>
+      <c r="E459">
+        <v>182</v>
+      </c>
+      <c r="F459">
+        <v>0.02844846859</v>
+      </c>
+      <c r="G459">
+        <v>17148</v>
+      </c>
+      <c r="H459">
+        <v>27040</v>
+      </c>
+      <c r="I459">
+        <v>44932</v>
+      </c>
+      <c r="J459">
+        <v>117</v>
+      </c>
+      <c r="K459">
+        <v>566</v>
+      </c>
+      <c r="L459">
+        <v>2</v>
+      </c>
+      <c r="M459">
+        <v>564</v>
+      </c>
+      <c r="N459">
+        <v>117</v>
+      </c>
+      <c r="O459">
+        <v>42</v>
+      </c>
+      <c r="P459">
+        <v>59</v>
+      </c>
+      <c r="Q459">
+        <v>0</v>
+      </c>
+      <c r="R459">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
